--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1AF978-7AB5-425B-AFF7-C9F9D32C55E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3718ADE-5C23-42CB-BD62-C7E1A77DBACB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
-    <sheet name="#exampleSheet" sheetId="3" r:id="rId2"/>
+    <sheet name="MainBuildingInfo" sheetId="5" r:id="rId2"/>
+    <sheet name="#exampleSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -254,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +407,10 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +646,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,9 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1033,7 @@
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1051,7 +1056,7 @@
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1074,7 +1079,7 @@
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1097,7 +1102,7 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1120,7 +1125,7 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1143,7 +1148,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1166,7 +1171,7 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1189,7 +1194,7 @@
       <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1212,7 +1217,7 @@
       <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1235,7 +1240,7 @@
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1258,7 +1263,7 @@
       <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1281,7 +1286,7 @@
       <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1304,7 +1309,7 @@
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>5</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1327,7 +1332,7 @@
       <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1350,7 +1355,7 @@
       <c r="B17" s="8">
         <v>3</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -1373,7 +1378,7 @@
       <c r="B18" s="8">
         <v>3</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1396,7 +1401,7 @@
       <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -1419,7 +1424,7 @@
       <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1444,6 +1449,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68332AC9-5F5D-43CC-AF87-E1AD515B72C5}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD36158-E42A-42B8-B1F6-11E009D834D9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1454,13 +1534,13 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3718ADE-5C23-42CB-BD62-C7E1A77DBACB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE8C8C3-8D1B-43D9-B17E-C4A5441BDC2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,10 @@
   </si>
   <si>
     <t>basePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1440,6 +1444,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9999</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1111</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2222</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4444</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5555</v>
+      </c>
+      <c r="G21">
+        <v>6666</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68332AC9-5F5D-43CC-AF87-E1AD515B72C5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CAFB3E1-ED4F-4CD9-8BB9-D6CA2FA233C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B1CF7-3583-4E83-9C80-3215C0D3DDB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
-    <sheet name="mainDB" sheetId="4" r:id="rId1"/>
-    <sheet name="buildingDB" sheetId="1" r:id="rId2"/>
-    <sheet name="db" sheetId="2" r:id="rId3"/>
-    <sheet name="exampleSheet" sheetId="3" r:id="rId4"/>
+    <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
+    <sheet name="MainBuildingInfo" sheetId="5" r:id="rId2"/>
+    <sheet name="BuildCost" sheetId="6" r:id="rId3"/>
+    <sheet name="#buildingDB" sheetId="1" r:id="rId4"/>
+    <sheet name="#db" sheetId="2" r:id="rId5"/>
+    <sheet name="#exampleSheet" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,10 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -499,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="75">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,9 +652,6 @@
     <t>엘프</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>인간</t>
   </si>
   <si>
@@ -756,6 +751,24 @@
   </si>
   <si>
     <t>16레벨부터 1.2배씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainBuildingRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +1006,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,9 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,10 +1344,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>23</v>
@@ -1343,27 +1359,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1373,15 +1389,18 @@
       <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <f>db!E2*db!$F$2</f>
+        <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1389,36 +1408,41 @@
         <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
         <v>44</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="14">
-        <f>db!E2*db!$F$2</f>
+        <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="14">
-        <f>db!E2*db!$F$2</f>
+        <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,11 +1452,11 @@
       <c r="B6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="14">
         <v>300</v>
@@ -1448,11 +1472,11 @@
       <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="14">
         <v>4500</v>
@@ -1468,11 +1492,11 @@
       <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14">
         <v>67500</v>
@@ -1488,11 +1512,11 @@
       <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="14">
         <v>1012500</v>
@@ -1508,14 +1532,17 @@
       <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10">
+        <v>5</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="14">
         <v>15187500</v>
+      </c>
+      <c r="F10" s="17">
+        <v>30000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,13 +1550,13 @@
         <v>801</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="14">
         <v>300</v>
@@ -1543,13 +1570,13 @@
         <v>901</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="14">
         <v>4500</v>
@@ -1563,13 +1590,13 @@
         <v>1001</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="14">
         <v>67500</v>
@@ -1583,13 +1610,13 @@
         <v>1101</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="14">
         <v>1012500</v>
@@ -1603,19 +1630,19 @@
         <v>1201</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="14">
         <v>15187500</v>
       </c>
       <c r="F15" s="17">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,13 +1650,13 @@
         <v>1301</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="14">
         <v>300</v>
@@ -1643,13 +1670,13 @@
         <v>1401</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="14">
         <v>4500</v>
@@ -1663,13 +1690,13 @@
         <v>1501</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="14">
         <v>67500</v>
@@ -1683,13 +1710,13 @@
         <v>1601</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="14">
         <v>1012500</v>
@@ -1703,19 +1730,19 @@
         <v>1701</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="14">
         <v>15187500</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
   </sheetData>
@@ -1727,12 +1754,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3099A6C-AD64-4F2C-B6E6-6C5EE7392F97}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641302FF-BA0A-4E9E-937C-2EB09702E024}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A646BC-77F3-4CD0-9476-1F2E8751959A}">
   <dimension ref="A1:I1801"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1751,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -1769,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1789,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>db!A2*db!$B$2</f>
+        <f>'#db'!A2*'#db'!$B$2</f>
         <v>100</v>
       </c>
       <c r="G2" s="1">
@@ -1818,11 +1987,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f>db!A3*db!$B$2</f>
+        <f>'#db'!A3*'#db'!$B$2</f>
         <v>200</v>
       </c>
       <c r="G3" s="1">
-        <f>db!E2*db!$F$2</f>
+        <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
       <c r="H3" s="19">
@@ -1847,11 +2016,11 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <f>db!A4*db!$B$2</f>
+        <f>'#db'!A4*'#db'!$B$2</f>
         <v>300</v>
       </c>
       <c r="G4" s="1">
-        <f>db!E3*db!$F$2</f>
+        <f>'#db'!E3*'#db'!$F$2</f>
         <v>512</v>
       </c>
       <c r="H4" s="19">
@@ -1876,11 +2045,11 @@
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <f>db!A5*db!$B$2</f>
+        <f>'#db'!A5*'#db'!$B$2</f>
         <v>400</v>
       </c>
       <c r="G5" s="1">
-        <f>db!E4*db!$F$2</f>
+        <f>'#db'!E4*'#db'!$F$2</f>
         <v>819.2</v>
       </c>
       <c r="H5" s="19">
@@ -1906,11 +2075,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <f>db!A6*db!$B$2</f>
+        <f>'#db'!A6*'#db'!$B$2</f>
         <v>500</v>
       </c>
       <c r="G6" s="1">
-        <f>db!E5*db!$F$2</f>
+        <f>'#db'!E5*'#db'!$F$2</f>
         <v>1310.7200000000003</v>
       </c>
       <c r="H6" s="19">
@@ -1935,11 +2104,11 @@
         <v>6</v>
       </c>
       <c r="F7" s="1">
-        <f>db!A7*db!$B$2</f>
+        <f>'#db'!A7*'#db'!$B$2</f>
         <v>600</v>
       </c>
       <c r="G7" s="1">
-        <f>db!E6*db!$F$2</f>
+        <f>'#db'!E6*'#db'!$F$2</f>
         <v>2097.1520000000005</v>
       </c>
       <c r="H7" s="19">
@@ -1964,11 +2133,11 @@
         <v>7</v>
       </c>
       <c r="F8" s="1">
-        <f>db!A8*db!$B$2</f>
+        <f>'#db'!A8*'#db'!$B$2</f>
         <v>700</v>
       </c>
       <c r="G8" s="1">
-        <f>db!E7*db!$F$2</f>
+        <f>'#db'!E7*'#db'!$F$2</f>
         <v>3355.4432000000011</v>
       </c>
       <c r="H8" s="19">
@@ -1993,11 +2162,11 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <f>db!A9*db!$B$2</f>
+        <f>'#db'!A9*'#db'!$B$2</f>
         <v>800</v>
       </c>
       <c r="G9" s="1">
-        <f>db!E8*db!$F$2</f>
+        <f>'#db'!E8*'#db'!$F$2</f>
         <v>5368.7091200000023</v>
       </c>
       <c r="H9" s="19">
@@ -2022,11 +2191,11 @@
         <v>9</v>
       </c>
       <c r="F10" s="1">
-        <f>db!A10*db!$B$2</f>
+        <f>'#db'!A10*'#db'!$B$2</f>
         <v>900</v>
       </c>
       <c r="G10" s="1">
-        <f>db!E9*db!$F$2</f>
+        <f>'#db'!E9*'#db'!$F$2</f>
         <v>8589.9345920000032</v>
       </c>
       <c r="H10" s="19">
@@ -2051,11 +2220,11 @@
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <f>db!A11*db!$B$2</f>
+        <f>'#db'!A11*'#db'!$B$2</f>
         <v>1000</v>
       </c>
       <c r="G11" s="1">
-        <f>db!E10*db!$F$2</f>
+        <f>'#db'!E10*'#db'!$F$2</f>
         <v>13743.895347200007</v>
       </c>
       <c r="H11" s="19">
@@ -2081,11 +2250,11 @@
         <v>11</v>
       </c>
       <c r="F12" s="1">
-        <f>db!A12*db!$B$2</f>
+        <f>'#db'!A12*'#db'!$B$2</f>
         <v>1100</v>
       </c>
       <c r="G12" s="1">
-        <f>db!E11*db!$F$2</f>
+        <f>'#db'!E11*'#db'!$F$2</f>
         <v>21990.232555520011</v>
       </c>
       <c r="H12" s="19">
@@ -2110,11 +2279,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="1">
-        <f>db!A13*db!$B$2</f>
+        <f>'#db'!A13*'#db'!$B$2</f>
         <v>1200</v>
       </c>
       <c r="G13" s="1">
-        <f>db!E12*db!$F$2</f>
+        <f>'#db'!E12*'#db'!$F$2</f>
         <v>35184.372088832017</v>
       </c>
       <c r="H13" s="19">
@@ -2139,11 +2308,11 @@
         <v>13</v>
       </c>
       <c r="F14" s="1">
-        <f>db!A14*db!$B$2</f>
+        <f>'#db'!A14*'#db'!$B$2</f>
         <v>1300</v>
       </c>
       <c r="G14" s="1">
-        <f>db!E13*db!$F$2</f>
+        <f>'#db'!E13*'#db'!$F$2</f>
         <v>56294.995342131231</v>
       </c>
       <c r="H14" s="19">
@@ -2168,11 +2337,11 @@
         <v>14</v>
       </c>
       <c r="F15" s="1">
-        <f>db!A15*db!$B$2</f>
+        <f>'#db'!A15*'#db'!$B$2</f>
         <v>1400</v>
       </c>
       <c r="G15" s="1">
-        <f>db!E14*db!$F$2</f>
+        <f>'#db'!E14*'#db'!$F$2</f>
         <v>90071.992547409973</v>
       </c>
       <c r="H15" s="19">
@@ -2197,11 +2366,11 @@
         <v>15</v>
       </c>
       <c r="F16" s="1">
-        <f>db!A16*db!$B$2</f>
+        <f>'#db'!A16*'#db'!$B$2</f>
         <v>1500</v>
       </c>
       <c r="G16" s="1">
-        <f>db!E15*db!$F$2</f>
+        <f>'#db'!E15*'#db'!$F$2</f>
         <v>144115.18807585596</v>
       </c>
       <c r="H16" s="19">
@@ -2226,11 +2395,11 @@
         <v>16</v>
       </c>
       <c r="F17" s="1">
-        <f>db!A17*db!$B$2</f>
+        <f>'#db'!A17*'#db'!$B$2</f>
         <v>1600</v>
       </c>
       <c r="G17" s="1">
-        <f>db!E16*db!$F$3</f>
+        <f>'#db'!E16*'#db'!$F$3</f>
         <v>172938.22569102715</v>
       </c>
       <c r="H17" s="19">
@@ -2255,11 +2424,11 @@
         <v>17</v>
       </c>
       <c r="F18" s="1">
-        <f>db!A18*db!$B$2</f>
+        <f>'#db'!A18*'#db'!$B$2</f>
         <v>1700</v>
       </c>
       <c r="G18" s="1">
-        <f>db!E17*db!$F$3</f>
+        <f>'#db'!E17*'#db'!$F$3</f>
         <v>207525.87082923259</v>
       </c>
       <c r="H18" s="19">
@@ -2284,11 +2453,11 @@
         <v>18</v>
       </c>
       <c r="F19" s="1">
-        <f>db!A19*db!$B$2</f>
+        <f>'#db'!A19*'#db'!$B$2</f>
         <v>1800</v>
       </c>
       <c r="G19" s="1">
-        <f>db!E18*db!$F$3</f>
+        <f>'#db'!E18*'#db'!$F$3</f>
         <v>249031.04499507911</v>
       </c>
       <c r="H19" s="19">
@@ -2313,11 +2482,11 @@
         <v>19</v>
       </c>
       <c r="F20" s="1">
-        <f>db!A20*db!$B$2</f>
+        <f>'#db'!A20*'#db'!$B$2</f>
         <v>1900</v>
       </c>
       <c r="G20" s="1">
-        <f>db!E19*db!$F$3</f>
+        <f>'#db'!E19*'#db'!$F$3</f>
         <v>298837.25399409491</v>
       </c>
       <c r="H20" s="19">
@@ -2342,11 +2511,11 @@
         <v>20</v>
       </c>
       <c r="F21" s="1">
-        <f>db!A21*db!$B$2</f>
+        <f>'#db'!A21*'#db'!$B$2</f>
         <v>2000</v>
       </c>
       <c r="G21" s="1">
-        <f>db!E20*db!$F$3</f>
+        <f>'#db'!E20*'#db'!$F$3</f>
         <v>358604.70479291386</v>
       </c>
       <c r="H21" s="19">
@@ -2371,11 +2540,11 @@
         <v>21</v>
       </c>
       <c r="F22" s="1">
-        <f>db!A22*db!$B$2</f>
+        <f>'#db'!A22*'#db'!$B$2</f>
         <v>2100</v>
       </c>
       <c r="G22" s="1">
-        <f>db!E21*db!$F$3</f>
+        <f>'#db'!E21*'#db'!$F$3</f>
         <v>430325.6457514966</v>
       </c>
       <c r="H22" s="19">
@@ -2400,11 +2569,11 @@
         <v>22</v>
       </c>
       <c r="F23" s="1">
-        <f>db!A23*db!$B$2</f>
+        <f>'#db'!A23*'#db'!$B$2</f>
         <v>2200</v>
       </c>
       <c r="G23" s="1">
-        <f>db!E22*db!$F$3</f>
+        <f>'#db'!E22*'#db'!$F$3</f>
         <v>516390.7749017959</v>
       </c>
       <c r="H23" s="19">
@@ -2429,11 +2598,11 @@
         <v>23</v>
       </c>
       <c r="F24" s="1">
-        <f>db!A24*db!$B$2</f>
+        <f>'#db'!A24*'#db'!$B$2</f>
         <v>2300</v>
       </c>
       <c r="G24" s="1">
-        <f>db!E23*db!$F$3</f>
+        <f>'#db'!E23*'#db'!$F$3</f>
         <v>619668.92988215503</v>
       </c>
       <c r="H24" s="19">
@@ -2458,11 +2627,11 @@
         <v>24</v>
       </c>
       <c r="F25" s="1">
-        <f>db!A25*db!$B$2</f>
+        <f>'#db'!A25*'#db'!$B$2</f>
         <v>2400</v>
       </c>
       <c r="G25" s="1">
-        <f>db!E24*db!$F$3</f>
+        <f>'#db'!E24*'#db'!$F$3</f>
         <v>743602.71585858602</v>
       </c>
       <c r="H25" s="19">
@@ -2487,11 +2656,11 @@
         <v>25</v>
       </c>
       <c r="F26" s="1">
-        <f>db!A26*db!$B$2</f>
+        <f>'#db'!A26*'#db'!$B$2</f>
         <v>2500</v>
       </c>
       <c r="G26" s="1">
-        <f>db!E25*db!$F$3</f>
+        <f>'#db'!E25*'#db'!$F$3</f>
         <v>892323.25903030322</v>
       </c>
       <c r="H26" s="19">
@@ -2516,11 +2685,11 @@
         <v>26</v>
       </c>
       <c r="F27" s="1">
-        <f>db!A27*db!$B$2</f>
+        <f>'#db'!A27*'#db'!$B$2</f>
         <v>2600</v>
       </c>
       <c r="G27" s="1">
-        <f>db!E26*db!$F$3</f>
+        <f>'#db'!E26*'#db'!$F$3</f>
         <v>1070787.9108363639</v>
       </c>
       <c r="H27" s="19">
@@ -2545,11 +2714,11 @@
         <v>27</v>
       </c>
       <c r="F28" s="1">
-        <f>db!A28*db!$B$2</f>
+        <f>'#db'!A28*'#db'!$B$2</f>
         <v>2700</v>
       </c>
       <c r="G28" s="1">
-        <f>db!E27*db!$F$3</f>
+        <f>'#db'!E27*'#db'!$F$3</f>
         <v>1284945.4930036366</v>
       </c>
       <c r="H28" s="19">
@@ -2574,11 +2743,11 @@
         <v>28</v>
       </c>
       <c r="F29" s="1">
-        <f>db!A29*db!$B$2</f>
+        <f>'#db'!A29*'#db'!$B$2</f>
         <v>2800</v>
       </c>
       <c r="G29" s="1">
-        <f>db!E28*db!$F$3</f>
+        <f>'#db'!E28*'#db'!$F$3</f>
         <v>1541934.5916043639</v>
       </c>
       <c r="H29" s="19">
@@ -2603,11 +2772,11 @@
         <v>29</v>
       </c>
       <c r="F30" s="1">
-        <f>db!A30*db!$B$2</f>
+        <f>'#db'!A30*'#db'!$B$2</f>
         <v>2900</v>
       </c>
       <c r="G30" s="1">
-        <f>db!E29*db!$F$3</f>
+        <f>'#db'!E29*'#db'!$F$3</f>
         <v>1850321.5099252367</v>
       </c>
       <c r="H30" s="19">
@@ -2632,11 +2801,11 @@
         <v>30</v>
       </c>
       <c r="F31" s="1">
-        <f>db!A31*db!$B$2</f>
+        <f>'#db'!A31*'#db'!$B$2</f>
         <v>3000</v>
       </c>
       <c r="G31" s="1">
-        <f>db!E30*db!$F$3</f>
+        <f>'#db'!E30*'#db'!$F$3</f>
         <v>2220385.8119102838</v>
       </c>
       <c r="H31" s="19">
@@ -2661,11 +2830,11 @@
         <v>31</v>
       </c>
       <c r="F32" s="1">
-        <f>db!A32*db!$B$2</f>
+        <f>'#db'!A32*'#db'!$B$2</f>
         <v>3100</v>
       </c>
       <c r="G32" s="1">
-        <f>db!E31*db!$F$3</f>
+        <f>'#db'!E31*'#db'!$F$3</f>
         <v>2664462.9742923402</v>
       </c>
       <c r="H32" s="19">
@@ -2690,11 +2859,11 @@
         <v>32</v>
       </c>
       <c r="F33" s="1">
-        <f>db!A33*db!$B$2</f>
+        <f>'#db'!A33*'#db'!$B$2</f>
         <v>3200</v>
       </c>
       <c r="G33" s="1">
-        <f>db!E32*db!$F$3</f>
+        <f>'#db'!E32*'#db'!$F$3</f>
         <v>3197355.5691508083</v>
       </c>
       <c r="H33" s="19">
@@ -2719,11 +2888,11 @@
         <v>33</v>
       </c>
       <c r="F34" s="1">
-        <f>db!A34*db!$B$2</f>
+        <f>'#db'!A34*'#db'!$B$2</f>
         <v>3300</v>
       </c>
       <c r="G34" s="1">
-        <f>db!E33*db!$F$3</f>
+        <f>'#db'!E33*'#db'!$F$3</f>
         <v>3836826.6829809695</v>
       </c>
       <c r="H34" s="19">
@@ -2748,11 +2917,11 @@
         <v>34</v>
       </c>
       <c r="F35" s="1">
-        <f>db!A35*db!$B$2</f>
+        <f>'#db'!A35*'#db'!$B$2</f>
         <v>3400</v>
       </c>
       <c r="G35" s="1">
-        <f>db!E34*db!$F$3</f>
+        <f>'#db'!E34*'#db'!$F$3</f>
         <v>4604192.0195771633</v>
       </c>
       <c r="H35" s="19">
@@ -2777,11 +2946,11 @@
         <v>35</v>
       </c>
       <c r="F36" s="1">
-        <f>db!A36*db!$B$2</f>
+        <f>'#db'!A36*'#db'!$B$2</f>
         <v>3500</v>
       </c>
       <c r="G36" s="1">
-        <f>db!E35*db!$F$3</f>
+        <f>'#db'!E35*'#db'!$F$3</f>
         <v>5525030.4234925956</v>
       </c>
       <c r="H36" s="19">
@@ -2806,11 +2975,11 @@
         <v>36</v>
       </c>
       <c r="F37" s="1">
-        <f>db!A37*db!$B$2</f>
+        <f>'#db'!A37*'#db'!$B$2</f>
         <v>3600</v>
       </c>
       <c r="G37" s="1">
-        <f>db!E36*db!$F$3</f>
+        <f>'#db'!E36*'#db'!$F$3</f>
         <v>6630036.5081911143</v>
       </c>
       <c r="H37" s="19">
@@ -2835,11 +3004,11 @@
         <v>37</v>
       </c>
       <c r="F38" s="1">
-        <f>db!A38*db!$B$2</f>
+        <f>'#db'!A38*'#db'!$B$2</f>
         <v>3700</v>
       </c>
       <c r="G38" s="1">
-        <f>db!E37*db!$F$3</f>
+        <f>'#db'!E37*'#db'!$F$3</f>
         <v>7956043.8098293366</v>
       </c>
       <c r="H38" s="19">
@@ -2864,11 +3033,11 @@
         <v>38</v>
       </c>
       <c r="F39" s="1">
-        <f>db!A39*db!$B$2</f>
+        <f>'#db'!A39*'#db'!$B$2</f>
         <v>3800</v>
       </c>
       <c r="G39" s="1">
-        <f>db!E38*db!$F$3</f>
+        <f>'#db'!E38*'#db'!$F$3</f>
         <v>9547252.5717952028</v>
       </c>
       <c r="H39" s="19">
@@ -2893,11 +3062,11 @@
         <v>39</v>
       </c>
       <c r="F40" s="1">
-        <f>db!A40*db!$B$2</f>
+        <f>'#db'!A40*'#db'!$B$2</f>
         <v>3900</v>
       </c>
       <c r="G40" s="1">
-        <f>db!E39*db!$F$3</f>
+        <f>'#db'!E39*'#db'!$F$3</f>
         <v>11456703.086154243</v>
       </c>
       <c r="H40" s="19">
@@ -2922,11 +3091,11 @@
         <v>40</v>
       </c>
       <c r="F41" s="1">
-        <f>db!A41*db!$B$2</f>
+        <f>'#db'!A41*'#db'!$B$2</f>
         <v>4000</v>
       </c>
       <c r="G41" s="1">
-        <f>db!E40*db!$F$3</f>
+        <f>'#db'!E40*'#db'!$F$3</f>
         <v>13748043.70338509</v>
       </c>
       <c r="H41" s="19">
@@ -2951,11 +3120,11 @@
         <v>41</v>
       </c>
       <c r="F42" s="1">
-        <f>db!A42*db!$B$2</f>
+        <f>'#db'!A42*'#db'!$B$2</f>
         <v>4100</v>
       </c>
       <c r="G42" s="1">
-        <f>db!E41*db!$F$3</f>
+        <f>'#db'!E41*'#db'!$F$3</f>
         <v>16497652.444062108</v>
       </c>
       <c r="H42" s="19">
@@ -2980,11 +3149,11 @@
         <v>42</v>
       </c>
       <c r="F43" s="1">
-        <f>db!A43*db!$B$2</f>
+        <f>'#db'!A43*'#db'!$B$2</f>
         <v>4200</v>
       </c>
       <c r="G43" s="1">
-        <f>db!E42*db!$F$3</f>
+        <f>'#db'!E42*'#db'!$F$3</f>
         <v>19797182.932874531</v>
       </c>
       <c r="H43" s="19">
@@ -3009,11 +3178,11 @@
         <v>43</v>
       </c>
       <c r="F44" s="1">
-        <f>db!A44*db!$B$2</f>
+        <f>'#db'!A44*'#db'!$B$2</f>
         <v>4300</v>
       </c>
       <c r="G44" s="1">
-        <f>db!E43*db!$F$3</f>
+        <f>'#db'!E43*'#db'!$F$3</f>
         <v>23756619.519449435</v>
       </c>
       <c r="H44" s="19">
@@ -3038,11 +3207,11 @@
         <v>44</v>
       </c>
       <c r="F45" s="1">
-        <f>db!A45*db!$B$2</f>
+        <f>'#db'!A45*'#db'!$B$2</f>
         <v>4400</v>
       </c>
       <c r="G45" s="1">
-        <f>db!E44*db!$F$3</f>
+        <f>'#db'!E44*'#db'!$F$3</f>
         <v>28507943.423339322</v>
       </c>
       <c r="H45" s="19">
@@ -3067,11 +3236,11 @@
         <v>45</v>
       </c>
       <c r="F46" s="1">
-        <f>db!A46*db!$B$2</f>
+        <f>'#db'!A46*'#db'!$B$2</f>
         <v>4500</v>
       </c>
       <c r="G46" s="1">
-        <f>db!E45*db!$F$3</f>
+        <f>'#db'!E45*'#db'!$F$3</f>
         <v>34209532.108007185</v>
       </c>
       <c r="H46" s="19">
@@ -3096,11 +3265,11 @@
         <v>46</v>
       </c>
       <c r="F47" s="1">
-        <f>db!A47*db!$B$2</f>
+        <f>'#db'!A47*'#db'!$B$2</f>
         <v>4600</v>
       </c>
       <c r="G47" s="1">
-        <f>db!E46*db!$F$3</f>
+        <f>'#db'!E46*'#db'!$F$3</f>
         <v>41051438.529608622</v>
       </c>
       <c r="H47" s="19">
@@ -3125,11 +3294,11 @@
         <v>47</v>
       </c>
       <c r="F48" s="1">
-        <f>db!A48*db!$B$2</f>
+        <f>'#db'!A48*'#db'!$B$2</f>
         <v>4700</v>
       </c>
       <c r="G48" s="1">
-        <f>db!E47*db!$F$3</f>
+        <f>'#db'!E47*'#db'!$F$3</f>
         <v>49261726.235530347</v>
       </c>
       <c r="H48" s="19">
@@ -3154,11 +3323,11 @@
         <v>48</v>
       </c>
       <c r="F49" s="1">
-        <f>db!A49*db!$B$2</f>
+        <f>'#db'!A49*'#db'!$B$2</f>
         <v>4800</v>
       </c>
       <c r="G49" s="1">
-        <f>db!E48*db!$F$3</f>
+        <f>'#db'!E48*'#db'!$F$3</f>
         <v>59114071.482636414</v>
       </c>
       <c r="H49" s="19">
@@ -3183,11 +3352,11 @@
         <v>49</v>
       </c>
       <c r="F50" s="1">
-        <f>db!A50*db!$B$2</f>
+        <f>'#db'!A50*'#db'!$B$2</f>
         <v>4900</v>
       </c>
       <c r="G50" s="1">
-        <f>db!E49*db!$F$3</f>
+        <f>'#db'!E49*'#db'!$F$3</f>
         <v>70936885.779163688</v>
       </c>
       <c r="H50" s="19">
@@ -3212,11 +3381,11 @@
         <v>50</v>
       </c>
       <c r="F51" s="1">
-        <f>db!A51*db!$B$2</f>
+        <f>'#db'!A51*'#db'!$B$2</f>
         <v>5000</v>
       </c>
       <c r="G51" s="1">
-        <f>db!E50*db!$F$3</f>
+        <f>'#db'!E50*'#db'!$F$3</f>
         <v>85124262.934996426</v>
       </c>
       <c r="H51" s="19">
@@ -3241,11 +3410,11 @@
         <v>51</v>
       </c>
       <c r="F52" s="1">
-        <f>db!A52*db!$B$2</f>
+        <f>'#db'!A52*'#db'!$B$2</f>
         <v>5100</v>
       </c>
       <c r="G52" s="1">
-        <f>db!E51*db!$F$3</f>
+        <f>'#db'!E51*'#db'!$F$3</f>
         <v>102149115.52199571</v>
       </c>
       <c r="H52" s="19">
@@ -3270,11 +3439,11 @@
         <v>52</v>
       </c>
       <c r="F53" s="1">
-        <f>db!A53*db!$B$2</f>
+        <f>'#db'!A53*'#db'!$B$2</f>
         <v>5200</v>
       </c>
       <c r="G53" s="1">
-        <f>db!E52*db!$F$3</f>
+        <f>'#db'!E52*'#db'!$F$3</f>
         <v>122578938.62639484</v>
       </c>
       <c r="H53" s="19">
@@ -3299,11 +3468,11 @@
         <v>53</v>
       </c>
       <c r="F54" s="1">
-        <f>db!A54*db!$B$2</f>
+        <f>'#db'!A54*'#db'!$B$2</f>
         <v>5300</v>
       </c>
       <c r="G54" s="1">
-        <f>db!E53*db!$F$3</f>
+        <f>'#db'!E53*'#db'!$F$3</f>
         <v>147094726.35167381</v>
       </c>
       <c r="H54" s="19">
@@ -3328,11 +3497,11 @@
         <v>54</v>
       </c>
       <c r="F55" s="1">
-        <f>db!A55*db!$B$2</f>
+        <f>'#db'!A55*'#db'!$B$2</f>
         <v>5400</v>
       </c>
       <c r="G55" s="1">
-        <f>db!E54*db!$F$3</f>
+        <f>'#db'!E54*'#db'!$F$3</f>
         <v>176513671.62200856</v>
       </c>
       <c r="H55" s="19">
@@ -3357,11 +3526,11 @@
         <v>55</v>
       </c>
       <c r="F56" s="1">
-        <f>db!A56*db!$B$2</f>
+        <f>'#db'!A56*'#db'!$B$2</f>
         <v>5500</v>
       </c>
       <c r="G56" s="1">
-        <f>db!E55*db!$F$3</f>
+        <f>'#db'!E55*'#db'!$F$3</f>
         <v>211816405.94641027</v>
       </c>
       <c r="H56" s="19">
@@ -3386,11 +3555,11 @@
         <v>56</v>
       </c>
       <c r="F57" s="1">
-        <f>db!A57*db!$B$2</f>
+        <f>'#db'!A57*'#db'!$B$2</f>
         <v>5600</v>
       </c>
       <c r="G57" s="1">
-        <f>db!E56*db!$F$3</f>
+        <f>'#db'!E56*'#db'!$F$3</f>
         <v>254179687.1356923</v>
       </c>
       <c r="H57" s="19">
@@ -3415,11 +3584,11 @@
         <v>57</v>
       </c>
       <c r="F58" s="1">
-        <f>db!A58*db!$B$2</f>
+        <f>'#db'!A58*'#db'!$B$2</f>
         <v>5700</v>
       </c>
       <c r="G58" s="1">
-        <f>db!E57*db!$F$3</f>
+        <f>'#db'!E57*'#db'!$F$3</f>
         <v>305015624.56283075</v>
       </c>
       <c r="H58" s="19">
@@ -3444,11 +3613,11 @@
         <v>58</v>
       </c>
       <c r="F59" s="1">
-        <f>db!A59*db!$B$2</f>
+        <f>'#db'!A59*'#db'!$B$2</f>
         <v>5800</v>
       </c>
       <c r="G59" s="1">
-        <f>db!E58*db!$F$3</f>
+        <f>'#db'!E58*'#db'!$F$3</f>
         <v>366018749.47539687</v>
       </c>
       <c r="H59" s="19">
@@ -3473,11 +3642,11 @@
         <v>59</v>
       </c>
       <c r="F60" s="1">
-        <f>db!A60*db!$B$2</f>
+        <f>'#db'!A60*'#db'!$B$2</f>
         <v>5900</v>
       </c>
       <c r="G60" s="1">
-        <f>db!E59*db!$F$3</f>
+        <f>'#db'!E59*'#db'!$F$3</f>
         <v>439222499.37047625</v>
       </c>
       <c r="H60" s="19">
@@ -3502,11 +3671,11 @@
         <v>60</v>
       </c>
       <c r="F61" s="1">
-        <f>db!A61*db!$B$2</f>
+        <f>'#db'!A61*'#db'!$B$2</f>
         <v>6000</v>
       </c>
       <c r="G61" s="1">
-        <f>db!E60*db!$F$3</f>
+        <f>'#db'!E60*'#db'!$F$3</f>
         <v>527066999.24457145</v>
       </c>
       <c r="H61" s="19">
@@ -3531,11 +3700,11 @@
         <v>61</v>
       </c>
       <c r="F62" s="1">
-        <f>db!A62*db!$B$2</f>
+        <f>'#db'!A62*'#db'!$B$2</f>
         <v>6100</v>
       </c>
       <c r="G62" s="1">
-        <f>db!E61*db!$F$3</f>
+        <f>'#db'!E61*'#db'!$F$3</f>
         <v>632480399.09348571</v>
       </c>
       <c r="H62" s="19">
@@ -3560,11 +3729,11 @@
         <v>62</v>
       </c>
       <c r="F63" s="1">
-        <f>db!A63*db!$B$2</f>
+        <f>'#db'!A63*'#db'!$B$2</f>
         <v>6200</v>
       </c>
       <c r="G63" s="1">
-        <f>db!E62*db!$F$3</f>
+        <f>'#db'!E62*'#db'!$F$3</f>
         <v>758976478.91218281</v>
       </c>
       <c r="H63" s="19">
@@ -3589,11 +3758,11 @@
         <v>63</v>
       </c>
       <c r="F64" s="1">
-        <f>db!A64*db!$B$2</f>
+        <f>'#db'!A64*'#db'!$B$2</f>
         <v>6300</v>
       </c>
       <c r="G64" s="1">
-        <f>db!E63*db!$F$3</f>
+        <f>'#db'!E63*'#db'!$F$3</f>
         <v>910771774.6946193</v>
       </c>
       <c r="H64" s="19">
@@ -3618,11 +3787,11 @@
         <v>64</v>
       </c>
       <c r="F65" s="1">
-        <f>db!A65*db!$B$2</f>
+        <f>'#db'!A65*'#db'!$B$2</f>
         <v>6400</v>
       </c>
       <c r="G65" s="1">
-        <f>db!E64*db!$F$3</f>
+        <f>'#db'!E64*'#db'!$F$3</f>
         <v>1092926129.633543</v>
       </c>
       <c r="H65" s="19">
@@ -3647,11 +3816,11 @@
         <v>65</v>
       </c>
       <c r="F66" s="1">
-        <f>db!A66*db!$B$2</f>
+        <f>'#db'!A66*'#db'!$B$2</f>
         <v>6500</v>
       </c>
       <c r="G66" s="1">
-        <f>db!E65*db!$F$3</f>
+        <f>'#db'!E65*'#db'!$F$3</f>
         <v>1311511355.5602515</v>
       </c>
       <c r="H66" s="19">
@@ -3676,11 +3845,11 @@
         <v>66</v>
       </c>
       <c r="F67" s="1">
-        <f>db!A67*db!$B$2</f>
+        <f>'#db'!A67*'#db'!$B$2</f>
         <v>6600</v>
       </c>
       <c r="G67" s="1">
-        <f>db!E66*db!$F$3</f>
+        <f>'#db'!E66*'#db'!$F$3</f>
         <v>1573813626.6723018</v>
       </c>
       <c r="H67" s="19">
@@ -3705,11 +3874,11 @@
         <v>67</v>
       </c>
       <c r="F68" s="1">
-        <f>db!A68*db!$B$2</f>
+        <f>'#db'!A68*'#db'!$B$2</f>
         <v>6700</v>
       </c>
       <c r="G68" s="1">
-        <f>db!E67*db!$F$3</f>
+        <f>'#db'!E67*'#db'!$F$3</f>
         <v>1888576352.006762</v>
       </c>
       <c r="H68" s="19">
@@ -3734,11 +3903,11 @@
         <v>68</v>
       </c>
       <c r="F69" s="1">
-        <f>db!A69*db!$B$2</f>
+        <f>'#db'!A69*'#db'!$B$2</f>
         <v>6800</v>
       </c>
       <c r="G69" s="1">
-        <f>db!E68*db!$F$3</f>
+        <f>'#db'!E68*'#db'!$F$3</f>
         <v>2266291622.4081144</v>
       </c>
       <c r="H69" s="19">
@@ -3763,11 +3932,11 @@
         <v>69</v>
       </c>
       <c r="F70" s="1">
-        <f>db!A70*db!$B$2</f>
+        <f>'#db'!A70*'#db'!$B$2</f>
         <v>6900</v>
       </c>
       <c r="G70" s="1">
-        <f>db!E69*db!$F$3</f>
+        <f>'#db'!E69*'#db'!$F$3</f>
         <v>2719549946.8897371</v>
       </c>
       <c r="H70" s="19">
@@ -3792,11 +3961,11 @@
         <v>70</v>
       </c>
       <c r="F71" s="1">
-        <f>db!A71*db!$B$2</f>
+        <f>'#db'!A71*'#db'!$B$2</f>
         <v>7000</v>
       </c>
       <c r="G71" s="1">
-        <f>db!E70*db!$F$3</f>
+        <f>'#db'!E70*'#db'!$F$3</f>
         <v>3263459936.2676845</v>
       </c>
       <c r="H71" s="19">
@@ -3821,11 +3990,11 @@
         <v>71</v>
       </c>
       <c r="F72" s="1">
-        <f>db!A72*db!$B$2</f>
+        <f>'#db'!A72*'#db'!$B$2</f>
         <v>7100</v>
       </c>
       <c r="G72" s="1">
-        <f>db!E71*db!$F$3</f>
+        <f>'#db'!E71*'#db'!$F$3</f>
         <v>3916151923.5212212</v>
       </c>
       <c r="H72" s="19">
@@ -3850,11 +4019,11 @@
         <v>72</v>
       </c>
       <c r="F73" s="1">
-        <f>db!A73*db!$B$2</f>
+        <f>'#db'!A73*'#db'!$B$2</f>
         <v>7200</v>
       </c>
       <c r="G73" s="1">
-        <f>db!E72*db!$F$3</f>
+        <f>'#db'!E72*'#db'!$F$3</f>
         <v>4699382308.2254648</v>
       </c>
       <c r="H73" s="19">
@@ -3879,11 +4048,11 @@
         <v>73</v>
       </c>
       <c r="F74" s="1">
-        <f>db!A74*db!$B$2</f>
+        <f>'#db'!A74*'#db'!$B$2</f>
         <v>7300</v>
       </c>
       <c r="G74" s="1">
-        <f>db!E73*db!$F$3</f>
+        <f>'#db'!E73*'#db'!$F$3</f>
         <v>5639258769.8705578</v>
       </c>
       <c r="H74" s="19">
@@ -3908,11 +4077,11 @@
         <v>74</v>
       </c>
       <c r="F75" s="1">
-        <f>db!A75*db!$B$2</f>
+        <f>'#db'!A75*'#db'!$B$2</f>
         <v>7400</v>
       </c>
       <c r="G75" s="1">
-        <f>db!E74*db!$F$3</f>
+        <f>'#db'!E74*'#db'!$F$3</f>
         <v>6767110523.8446693</v>
       </c>
       <c r="H75" s="19">
@@ -3937,11 +4106,11 @@
         <v>75</v>
       </c>
       <c r="F76" s="1">
-        <f>db!A76*db!$B$2</f>
+        <f>'#db'!A76*'#db'!$B$2</f>
         <v>7500</v>
       </c>
       <c r="G76" s="1">
-        <f>db!E75*db!$F$3</f>
+        <f>'#db'!E75*'#db'!$F$3</f>
         <v>8120532628.6136026</v>
       </c>
       <c r="H76" s="19">
@@ -3966,11 +4135,11 @@
         <v>76</v>
       </c>
       <c r="F77" s="1">
-        <f>db!A77*db!$B$2</f>
+        <f>'#db'!A77*'#db'!$B$2</f>
         <v>7600</v>
       </c>
       <c r="G77" s="1">
-        <f>db!E76*db!$F$3</f>
+        <f>'#db'!E76*'#db'!$F$3</f>
         <v>9744639154.3363228</v>
       </c>
       <c r="H77" s="19">
@@ -3995,11 +4164,11 @@
         <v>77</v>
       </c>
       <c r="F78" s="1">
-        <f>db!A78*db!$B$2</f>
+        <f>'#db'!A78*'#db'!$B$2</f>
         <v>7700</v>
       </c>
       <c r="G78" s="1">
-        <f>db!E77*db!$F$3</f>
+        <f>'#db'!E77*'#db'!$F$3</f>
         <v>11693566985.203587</v>
       </c>
       <c r="H78" s="19">
@@ -4024,11 +4193,11 @@
         <v>78</v>
       </c>
       <c r="F79" s="1">
-        <f>db!A79*db!$B$2</f>
+        <f>'#db'!A79*'#db'!$B$2</f>
         <v>7800</v>
       </c>
       <c r="G79" s="1">
-        <f>db!E78*db!$F$3</f>
+        <f>'#db'!E78*'#db'!$F$3</f>
         <v>14032280382.244303</v>
       </c>
       <c r="H79" s="19">
@@ -4053,11 +4222,11 @@
         <v>79</v>
       </c>
       <c r="F80" s="1">
-        <f>db!A80*db!$B$2</f>
+        <f>'#db'!A80*'#db'!$B$2</f>
         <v>7900</v>
       </c>
       <c r="G80" s="1">
-        <f>db!E79*db!$F$3</f>
+        <f>'#db'!E79*'#db'!$F$3</f>
         <v>16838736458.693163</v>
       </c>
       <c r="H80" s="19">
@@ -4082,11 +4251,11 @@
         <v>80</v>
       </c>
       <c r="F81" s="1">
-        <f>db!A81*db!$B$2</f>
+        <f>'#db'!A81*'#db'!$B$2</f>
         <v>8000</v>
       </c>
       <c r="G81" s="1">
-        <f>db!E80*db!$F$3</f>
+        <f>'#db'!E80*'#db'!$F$3</f>
         <v>20206483750.431793</v>
       </c>
       <c r="H81" s="19">
@@ -4111,11 +4280,11 @@
         <v>81</v>
       </c>
       <c r="F82" s="1">
-        <f>db!A82*db!$B$2</f>
+        <f>'#db'!A82*'#db'!$B$2</f>
         <v>8100</v>
       </c>
       <c r="G82" s="1">
-        <f>db!E81*db!$F$3</f>
+        <f>'#db'!E81*'#db'!$F$3</f>
         <v>24247780500.51815</v>
       </c>
       <c r="H82" s="19">
@@ -4140,11 +4309,11 @@
         <v>82</v>
       </c>
       <c r="F83" s="1">
-        <f>db!A83*db!$B$2</f>
+        <f>'#db'!A83*'#db'!$B$2</f>
         <v>8200</v>
       </c>
       <c r="G83" s="1">
-        <f>db!E82*db!$F$3</f>
+        <f>'#db'!E82*'#db'!$F$3</f>
         <v>29097336600.62178</v>
       </c>
       <c r="H83" s="19">
@@ -4169,11 +4338,11 @@
         <v>83</v>
       </c>
       <c r="F84" s="1">
-        <f>db!A84*db!$B$2</f>
+        <f>'#db'!A84*'#db'!$B$2</f>
         <v>8300</v>
       </c>
       <c r="G84" s="1">
-        <f>db!E83*db!$F$3</f>
+        <f>'#db'!E83*'#db'!$F$3</f>
         <v>34916803920.746132</v>
       </c>
       <c r="H84" s="19">
@@ -4198,11 +4367,11 @@
         <v>84</v>
       </c>
       <c r="F85" s="1">
-        <f>db!A85*db!$B$2</f>
+        <f>'#db'!A85*'#db'!$B$2</f>
         <v>8400</v>
       </c>
       <c r="G85" s="1">
-        <f>db!E84*db!$F$3</f>
+        <f>'#db'!E84*'#db'!$F$3</f>
         <v>41900164704.895355</v>
       </c>
       <c r="H85" s="19">
@@ -4227,11 +4396,11 @@
         <v>85</v>
       </c>
       <c r="F86" s="1">
-        <f>db!A86*db!$B$2</f>
+        <f>'#db'!A86*'#db'!$B$2</f>
         <v>8500</v>
       </c>
       <c r="G86" s="1">
-        <f>db!E85*db!$F$3</f>
+        <f>'#db'!E85*'#db'!$F$3</f>
         <v>50280197645.874428</v>
       </c>
       <c r="H86" s="19">
@@ -4256,11 +4425,11 @@
         <v>86</v>
       </c>
       <c r="F87" s="1">
-        <f>db!A87*db!$B$2</f>
+        <f>'#db'!A87*'#db'!$B$2</f>
         <v>8600</v>
       </c>
       <c r="G87" s="1">
-        <f>db!E86*db!$F$3</f>
+        <f>'#db'!E86*'#db'!$F$3</f>
         <v>60336237175.049309</v>
       </c>
       <c r="H87" s="19">
@@ -4285,11 +4454,11 @@
         <v>87</v>
       </c>
       <c r="F88" s="1">
-        <f>db!A88*db!$B$2</f>
+        <f>'#db'!A88*'#db'!$B$2</f>
         <v>8700</v>
       </c>
       <c r="G88" s="1">
-        <f>db!E87*db!$F$3</f>
+        <f>'#db'!E87*'#db'!$F$3</f>
         <v>72403484610.059174</v>
       </c>
       <c r="H88" s="19">
@@ -4314,11 +4483,11 @@
         <v>88</v>
       </c>
       <c r="F89" s="1">
-        <f>db!A89*db!$B$2</f>
+        <f>'#db'!A89*'#db'!$B$2</f>
         <v>8800</v>
       </c>
       <c r="G89" s="1">
-        <f>db!E88*db!$F$3</f>
+        <f>'#db'!E88*'#db'!$F$3</f>
         <v>86884181532.070999</v>
       </c>
       <c r="H89" s="19">
@@ -4343,11 +4512,11 @@
         <v>89</v>
       </c>
       <c r="F90" s="1">
-        <f>db!A90*db!$B$2</f>
+        <f>'#db'!A90*'#db'!$B$2</f>
         <v>8900</v>
       </c>
       <c r="G90" s="1">
-        <f>db!E89*db!$F$3</f>
+        <f>'#db'!E89*'#db'!$F$3</f>
         <v>104261017838.4852</v>
       </c>
       <c r="H90" s="19">
@@ -4372,11 +4541,11 @@
         <v>90</v>
       </c>
       <c r="F91" s="1">
-        <f>db!A91*db!$B$2</f>
+        <f>'#db'!A91*'#db'!$B$2</f>
         <v>9000</v>
       </c>
       <c r="G91" s="1">
-        <f>db!E90*db!$F$3</f>
+        <f>'#db'!E90*'#db'!$F$3</f>
         <v>125113221406.18224</v>
       </c>
       <c r="H91" s="19">
@@ -4401,11 +4570,11 @@
         <v>91</v>
       </c>
       <c r="F92" s="1">
-        <f>db!A92*db!$B$2</f>
+        <f>'#db'!A92*'#db'!$B$2</f>
         <v>9100</v>
       </c>
       <c r="G92" s="1">
-        <f>db!E91*db!$F$3</f>
+        <f>'#db'!E91*'#db'!$F$3</f>
         <v>150135865687.41867</v>
       </c>
       <c r="H92" s="19">
@@ -4430,11 +4599,11 @@
         <v>92</v>
       </c>
       <c r="F93" s="1">
-        <f>db!A93*db!$B$2</f>
+        <f>'#db'!A93*'#db'!$B$2</f>
         <v>9200</v>
       </c>
       <c r="G93" s="1">
-        <f>db!E92*db!$F$3</f>
+        <f>'#db'!E92*'#db'!$F$3</f>
         <v>180163038824.9024</v>
       </c>
       <c r="H93" s="19">
@@ -4459,11 +4628,11 @@
         <v>93</v>
       </c>
       <c r="F94" s="1">
-        <f>db!A94*db!$B$2</f>
+        <f>'#db'!A94*'#db'!$B$2</f>
         <v>9300</v>
       </c>
       <c r="G94" s="1">
-        <f>db!E93*db!$F$3</f>
+        <f>'#db'!E93*'#db'!$F$3</f>
         <v>216195646589.88287</v>
       </c>
       <c r="H94" s="19">
@@ -4488,11 +4657,11 @@
         <v>94</v>
       </c>
       <c r="F95" s="1">
-        <f>db!A95*db!$B$2</f>
+        <f>'#db'!A95*'#db'!$B$2</f>
         <v>9400</v>
       </c>
       <c r="G95" s="1">
-        <f>db!E94*db!$F$3</f>
+        <f>'#db'!E94*'#db'!$F$3</f>
         <v>259434775907.85944</v>
       </c>
       <c r="H95" s="19">
@@ -4517,11 +4686,11 @@
         <v>95</v>
       </c>
       <c r="F96" s="1">
-        <f>db!A96*db!$B$2</f>
+        <f>'#db'!A96*'#db'!$B$2</f>
         <v>9500</v>
       </c>
       <c r="G96" s="1">
-        <f>db!E95*db!$F$3</f>
+        <f>'#db'!E95*'#db'!$F$3</f>
         <v>311321731089.43134</v>
       </c>
       <c r="H96" s="19">
@@ -4546,11 +4715,11 @@
         <v>96</v>
       </c>
       <c r="F97" s="1">
-        <f>db!A97*db!$B$2</f>
+        <f>'#db'!A97*'#db'!$B$2</f>
         <v>9600</v>
       </c>
       <c r="G97" s="1">
-        <f>db!E96*db!$F$3</f>
+        <f>'#db'!E96*'#db'!$F$3</f>
         <v>373586077307.31757</v>
       </c>
       <c r="H97" s="19">
@@ -4575,11 +4744,11 @@
         <v>97</v>
       </c>
       <c r="F98" s="1">
-        <f>db!A98*db!$B$2</f>
+        <f>'#db'!A98*'#db'!$B$2</f>
         <v>9700</v>
       </c>
       <c r="G98" s="1">
-        <f>db!E97*db!$F$3</f>
+        <f>'#db'!E97*'#db'!$F$3</f>
         <v>448303292768.78107</v>
       </c>
       <c r="H98" s="19">
@@ -4604,11 +4773,11 @@
         <v>98</v>
       </c>
       <c r="F99" s="1">
-        <f>db!A99*db!$B$2</f>
+        <f>'#db'!A99*'#db'!$B$2</f>
         <v>9800</v>
       </c>
       <c r="G99" s="1">
-        <f>db!E98*db!$F$3</f>
+        <f>'#db'!E98*'#db'!$F$3</f>
         <v>537963951322.53723</v>
       </c>
       <c r="H99" s="19">
@@ -4633,11 +4802,11 @@
         <v>99</v>
       </c>
       <c r="F100" s="1">
-        <f>db!A100*db!$B$2</f>
+        <f>'#db'!A100*'#db'!$B$2</f>
         <v>9900</v>
       </c>
       <c r="G100" s="1">
-        <f>db!E99*db!$F$3</f>
+        <f>'#db'!E99*'#db'!$F$3</f>
         <v>645556741587.04468</v>
       </c>
       <c r="H100" s="19">
@@ -4662,7 +4831,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="1">
-        <f>db!A101*db!$B$2</f>
+        <f>'#db'!A101*'#db'!$B$2</f>
         <v>10000</v>
       </c>
       <c r="G101" t="s">
@@ -4686,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <f>db!A2*db!$B$2</f>
+        <f>'#db'!A2*'#db'!$B$2</f>
         <v>100</v>
       </c>
       <c r="G102" s="1">
@@ -4711,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="F103">
-        <f>db!A3*db!$B$2</f>
+        <f>'#db'!A3*'#db'!$B$2</f>
         <v>200</v>
       </c>
       <c r="G103" s="1">
@@ -4736,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="F104">
-        <f>db!A4*db!$B$2</f>
+        <f>'#db'!A4*'#db'!$B$2</f>
         <v>300</v>
       </c>
       <c r="G104" s="1">
@@ -4761,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="F105">
-        <f>db!A5*db!$B$2</f>
+        <f>'#db'!A5*'#db'!$B$2</f>
         <v>400</v>
       </c>
       <c r="G105" s="1">
@@ -4786,7 +4955,7 @@
         <v>5</v>
       </c>
       <c r="F106">
-        <f>db!A6*db!$B$2</f>
+        <f>'#db'!A6*'#db'!$B$2</f>
         <v>500</v>
       </c>
       <c r="G106" s="1">
@@ -4811,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="F107">
-        <f>db!A7*db!$B$2</f>
+        <f>'#db'!A7*'#db'!$B$2</f>
         <v>600</v>
       </c>
       <c r="G107" s="1">
@@ -4836,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="F108">
-        <f>db!A8*db!$B$2</f>
+        <f>'#db'!A8*'#db'!$B$2</f>
         <v>700</v>
       </c>
       <c r="G108" s="1">
@@ -4861,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="F109">
-        <f>db!A9*db!$B$2</f>
+        <f>'#db'!A9*'#db'!$B$2</f>
         <v>800</v>
       </c>
       <c r="G109" s="1">
@@ -4886,7 +5055,7 @@
         <v>9</v>
       </c>
       <c r="F110">
-        <f>db!A10*db!$B$2</f>
+        <f>'#db'!A10*'#db'!$B$2</f>
         <v>900</v>
       </c>
       <c r="G110" s="1">
@@ -4911,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <f>db!A11*db!$B$2</f>
+        <f>'#db'!A11*'#db'!$B$2</f>
         <v>1000</v>
       </c>
       <c r="G111" s="1">
@@ -4936,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="F112">
-        <f>db!A12*db!$B$2</f>
+        <f>'#db'!A12*'#db'!$B$2</f>
         <v>1100</v>
       </c>
       <c r="G112" s="1">
@@ -4961,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="F113">
-        <f>db!A13*db!$B$2</f>
+        <f>'#db'!A13*'#db'!$B$2</f>
         <v>1200</v>
       </c>
       <c r="G113" s="1">
@@ -4986,7 +5155,7 @@
         <v>13</v>
       </c>
       <c r="F114">
-        <f>db!A14*db!$B$2</f>
+        <f>'#db'!A14*'#db'!$B$2</f>
         <v>1300</v>
       </c>
       <c r="G114" s="1">
@@ -5011,7 +5180,7 @@
         <v>14</v>
       </c>
       <c r="F115">
-        <f>db!A15*db!$B$2</f>
+        <f>'#db'!A15*'#db'!$B$2</f>
         <v>1400</v>
       </c>
       <c r="G115" s="1">
@@ -5036,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="F116">
-        <f>db!A16*db!$B$2</f>
+        <f>'#db'!A16*'#db'!$B$2</f>
         <v>1500</v>
       </c>
       <c r="G116" s="1">
@@ -5061,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="F117">
-        <f>db!A17*db!$B$2</f>
+        <f>'#db'!A17*'#db'!$B$2</f>
         <v>1600</v>
       </c>
       <c r="G117" s="1">
@@ -5086,7 +5255,7 @@
         <v>17</v>
       </c>
       <c r="F118">
-        <f>db!A18*db!$B$2</f>
+        <f>'#db'!A18*'#db'!$B$2</f>
         <v>1700</v>
       </c>
       <c r="G118" s="1">
@@ -5111,7 +5280,7 @@
         <v>18</v>
       </c>
       <c r="F119">
-        <f>db!A19*db!$B$2</f>
+        <f>'#db'!A19*'#db'!$B$2</f>
         <v>1800</v>
       </c>
       <c r="G119" s="1">
@@ -5136,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="F120">
-        <f>db!A20*db!$B$2</f>
+        <f>'#db'!A20*'#db'!$B$2</f>
         <v>1900</v>
       </c>
       <c r="G120" s="1">
@@ -5161,7 +5330,7 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <f>db!A21*db!$B$2</f>
+        <f>'#db'!A21*'#db'!$B$2</f>
         <v>2000</v>
       </c>
       <c r="G121" s="1">
@@ -5186,7 +5355,7 @@
         <v>21</v>
       </c>
       <c r="F122">
-        <f>db!A22*db!$B$2</f>
+        <f>'#db'!A22*'#db'!$B$2</f>
         <v>2100</v>
       </c>
       <c r="G122" s="1">
@@ -5211,7 +5380,7 @@
         <v>22</v>
       </c>
       <c r="F123">
-        <f>db!A23*db!$B$2</f>
+        <f>'#db'!A23*'#db'!$B$2</f>
         <v>2200</v>
       </c>
       <c r="G123" s="1">
@@ -5236,7 +5405,7 @@
         <v>23</v>
       </c>
       <c r="F124">
-        <f>db!A24*db!$B$2</f>
+        <f>'#db'!A24*'#db'!$B$2</f>
         <v>2300</v>
       </c>
       <c r="G124" s="1">
@@ -5261,7 +5430,7 @@
         <v>24</v>
       </c>
       <c r="F125">
-        <f>db!A25*db!$B$2</f>
+        <f>'#db'!A25*'#db'!$B$2</f>
         <v>2400</v>
       </c>
       <c r="G125" s="1">
@@ -5286,7 +5455,7 @@
         <v>25</v>
       </c>
       <c r="F126">
-        <f>db!A26*db!$B$2</f>
+        <f>'#db'!A26*'#db'!$B$2</f>
         <v>2500</v>
       </c>
       <c r="G126" s="1">
@@ -5311,7 +5480,7 @@
         <v>26</v>
       </c>
       <c r="F127">
-        <f>db!A27*db!$B$2</f>
+        <f>'#db'!A27*'#db'!$B$2</f>
         <v>2600</v>
       </c>
       <c r="G127" s="1">
@@ -5336,7 +5505,7 @@
         <v>27</v>
       </c>
       <c r="F128">
-        <f>db!A28*db!$B$2</f>
+        <f>'#db'!A28*'#db'!$B$2</f>
         <v>2700</v>
       </c>
       <c r="G128" s="1">
@@ -5361,7 +5530,7 @@
         <v>28</v>
       </c>
       <c r="F129">
-        <f>db!A29*db!$B$2</f>
+        <f>'#db'!A29*'#db'!$B$2</f>
         <v>2800</v>
       </c>
       <c r="G129" s="1">
@@ -5386,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="F130">
-        <f>db!A30*db!$B$2</f>
+        <f>'#db'!A30*'#db'!$B$2</f>
         <v>2900</v>
       </c>
       <c r="G130" s="1">
@@ -5411,7 +5580,7 @@
         <v>30</v>
       </c>
       <c r="F131">
-        <f>db!A31*db!$B$2</f>
+        <f>'#db'!A31*'#db'!$B$2</f>
         <v>3000</v>
       </c>
       <c r="G131" s="1">
@@ -5436,7 +5605,7 @@
         <v>31</v>
       </c>
       <c r="F132">
-        <f>db!A32*db!$B$2</f>
+        <f>'#db'!A32*'#db'!$B$2</f>
         <v>3100</v>
       </c>
       <c r="G132" s="1">
@@ -5461,7 +5630,7 @@
         <v>32</v>
       </c>
       <c r="F133">
-        <f>db!A33*db!$B$2</f>
+        <f>'#db'!A33*'#db'!$B$2</f>
         <v>3200</v>
       </c>
       <c r="G133" s="1">
@@ -5486,7 +5655,7 @@
         <v>33</v>
       </c>
       <c r="F134">
-        <f>db!A34*db!$B$2</f>
+        <f>'#db'!A34*'#db'!$B$2</f>
         <v>3300</v>
       </c>
       <c r="G134" s="1">
@@ -5511,7 +5680,7 @@
         <v>34</v>
       </c>
       <c r="F135">
-        <f>db!A35*db!$B$2</f>
+        <f>'#db'!A35*'#db'!$B$2</f>
         <v>3400</v>
       </c>
       <c r="G135" s="1">
@@ -5536,7 +5705,7 @@
         <v>35</v>
       </c>
       <c r="F136">
-        <f>db!A36*db!$B$2</f>
+        <f>'#db'!A36*'#db'!$B$2</f>
         <v>3500</v>
       </c>
       <c r="G136" s="1">
@@ -5561,7 +5730,7 @@
         <v>36</v>
       </c>
       <c r="F137">
-        <f>db!A37*db!$B$2</f>
+        <f>'#db'!A37*'#db'!$B$2</f>
         <v>3600</v>
       </c>
       <c r="G137" s="1">
@@ -5586,7 +5755,7 @@
         <v>37</v>
       </c>
       <c r="F138">
-        <f>db!A38*db!$B$2</f>
+        <f>'#db'!A38*'#db'!$B$2</f>
         <v>3700</v>
       </c>
       <c r="G138" s="1">
@@ -5611,7 +5780,7 @@
         <v>38</v>
       </c>
       <c r="F139">
-        <f>db!A39*db!$B$2</f>
+        <f>'#db'!A39*'#db'!$B$2</f>
         <v>3800</v>
       </c>
       <c r="G139" s="1">
@@ -5636,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="F140">
-        <f>db!A40*db!$B$2</f>
+        <f>'#db'!A40*'#db'!$B$2</f>
         <v>3900</v>
       </c>
       <c r="G140" s="1">
@@ -5661,7 +5830,7 @@
         <v>40</v>
       </c>
       <c r="F141">
-        <f>db!A41*db!$B$2</f>
+        <f>'#db'!A41*'#db'!$B$2</f>
         <v>4000</v>
       </c>
       <c r="G141" s="1">
@@ -5686,7 +5855,7 @@
         <v>41</v>
       </c>
       <c r="F142">
-        <f>db!A42*db!$B$2</f>
+        <f>'#db'!A42*'#db'!$B$2</f>
         <v>4100</v>
       </c>
       <c r="G142" s="1">
@@ -5711,7 +5880,7 @@
         <v>42</v>
       </c>
       <c r="F143">
-        <f>db!A43*db!$B$2</f>
+        <f>'#db'!A43*'#db'!$B$2</f>
         <v>4200</v>
       </c>
       <c r="G143" s="1">
@@ -5736,7 +5905,7 @@
         <v>43</v>
       </c>
       <c r="F144">
-        <f>db!A44*db!$B$2</f>
+        <f>'#db'!A44*'#db'!$B$2</f>
         <v>4300</v>
       </c>
       <c r="G144" s="1">
@@ -5761,7 +5930,7 @@
         <v>44</v>
       </c>
       <c r="F145">
-        <f>db!A45*db!$B$2</f>
+        <f>'#db'!A45*'#db'!$B$2</f>
         <v>4400</v>
       </c>
       <c r="G145" s="1">
@@ -5786,7 +5955,7 @@
         <v>45</v>
       </c>
       <c r="F146">
-        <f>db!A46*db!$B$2</f>
+        <f>'#db'!A46*'#db'!$B$2</f>
         <v>4500</v>
       </c>
       <c r="G146" s="1">
@@ -5811,7 +5980,7 @@
         <v>46</v>
       </c>
       <c r="F147">
-        <f>db!A47*db!$B$2</f>
+        <f>'#db'!A47*'#db'!$B$2</f>
         <v>4600</v>
       </c>
       <c r="G147" s="1">
@@ -5836,7 +6005,7 @@
         <v>47</v>
       </c>
       <c r="F148">
-        <f>db!A48*db!$B$2</f>
+        <f>'#db'!A48*'#db'!$B$2</f>
         <v>4700</v>
       </c>
       <c r="G148" s="1">
@@ -5861,7 +6030,7 @@
         <v>48</v>
       </c>
       <c r="F149">
-        <f>db!A49*db!$B$2</f>
+        <f>'#db'!A49*'#db'!$B$2</f>
         <v>4800</v>
       </c>
       <c r="G149" s="1">
@@ -5886,7 +6055,7 @@
         <v>49</v>
       </c>
       <c r="F150">
-        <f>db!A50*db!$B$2</f>
+        <f>'#db'!A50*'#db'!$B$2</f>
         <v>4900</v>
       </c>
       <c r="G150" s="1">
@@ -5911,7 +6080,7 @@
         <v>50</v>
       </c>
       <c r="F151">
-        <f>db!A51*db!$B$2</f>
+        <f>'#db'!A51*'#db'!$B$2</f>
         <v>5000</v>
       </c>
       <c r="G151" s="1">
@@ -5936,7 +6105,7 @@
         <v>51</v>
       </c>
       <c r="F152">
-        <f>db!A52*db!$B$2</f>
+        <f>'#db'!A52*'#db'!$B$2</f>
         <v>5100</v>
       </c>
       <c r="G152" s="1">
@@ -5961,7 +6130,7 @@
         <v>52</v>
       </c>
       <c r="F153">
-        <f>db!A53*db!$B$2</f>
+        <f>'#db'!A53*'#db'!$B$2</f>
         <v>5200</v>
       </c>
       <c r="G153" s="1">
@@ -5986,7 +6155,7 @@
         <v>53</v>
       </c>
       <c r="F154">
-        <f>db!A54*db!$B$2</f>
+        <f>'#db'!A54*'#db'!$B$2</f>
         <v>5300</v>
       </c>
       <c r="G154" s="1">
@@ -6011,7 +6180,7 @@
         <v>54</v>
       </c>
       <c r="F155">
-        <f>db!A55*db!$B$2</f>
+        <f>'#db'!A55*'#db'!$B$2</f>
         <v>5400</v>
       </c>
       <c r="G155" s="1">
@@ -6036,7 +6205,7 @@
         <v>55</v>
       </c>
       <c r="F156">
-        <f>db!A56*db!$B$2</f>
+        <f>'#db'!A56*'#db'!$B$2</f>
         <v>5500</v>
       </c>
       <c r="G156" s="1">
@@ -6061,7 +6230,7 @@
         <v>56</v>
       </c>
       <c r="F157">
-        <f>db!A57*db!$B$2</f>
+        <f>'#db'!A57*'#db'!$B$2</f>
         <v>5600</v>
       </c>
       <c r="G157" s="1">
@@ -6086,7 +6255,7 @@
         <v>57</v>
       </c>
       <c r="F158">
-        <f>db!A58*db!$B$2</f>
+        <f>'#db'!A58*'#db'!$B$2</f>
         <v>5700</v>
       </c>
       <c r="G158" s="1">
@@ -6111,7 +6280,7 @@
         <v>58</v>
       </c>
       <c r="F159">
-        <f>db!A59*db!$B$2</f>
+        <f>'#db'!A59*'#db'!$B$2</f>
         <v>5800</v>
       </c>
       <c r="G159" s="1">
@@ -6136,7 +6305,7 @@
         <v>59</v>
       </c>
       <c r="F160">
-        <f>db!A60*db!$B$2</f>
+        <f>'#db'!A60*'#db'!$B$2</f>
         <v>5900</v>
       </c>
       <c r="G160" s="1">
@@ -6161,7 +6330,7 @@
         <v>60</v>
       </c>
       <c r="F161">
-        <f>db!A61*db!$B$2</f>
+        <f>'#db'!A61*'#db'!$B$2</f>
         <v>6000</v>
       </c>
       <c r="G161" s="1">
@@ -6186,7 +6355,7 @@
         <v>61</v>
       </c>
       <c r="F162">
-        <f>db!A62*db!$B$2</f>
+        <f>'#db'!A62*'#db'!$B$2</f>
         <v>6100</v>
       </c>
       <c r="G162" s="1">
@@ -6211,7 +6380,7 @@
         <v>62</v>
       </c>
       <c r="F163">
-        <f>db!A63*db!$B$2</f>
+        <f>'#db'!A63*'#db'!$B$2</f>
         <v>6200</v>
       </c>
       <c r="G163" s="1">
@@ -6236,7 +6405,7 @@
         <v>63</v>
       </c>
       <c r="F164">
-        <f>db!A64*db!$B$2</f>
+        <f>'#db'!A64*'#db'!$B$2</f>
         <v>6300</v>
       </c>
       <c r="G164" s="1">
@@ -6261,7 +6430,7 @@
         <v>64</v>
       </c>
       <c r="F165">
-        <f>db!A65*db!$B$2</f>
+        <f>'#db'!A65*'#db'!$B$2</f>
         <v>6400</v>
       </c>
       <c r="G165" s="1">
@@ -6286,7 +6455,7 @@
         <v>65</v>
       </c>
       <c r="F166">
-        <f>db!A66*db!$B$2</f>
+        <f>'#db'!A66*'#db'!$B$2</f>
         <v>6500</v>
       </c>
       <c r="G166" s="1">
@@ -6311,7 +6480,7 @@
         <v>66</v>
       </c>
       <c r="F167">
-        <f>db!A67*db!$B$2</f>
+        <f>'#db'!A67*'#db'!$B$2</f>
         <v>6600</v>
       </c>
       <c r="G167" s="1">
@@ -6336,7 +6505,7 @@
         <v>67</v>
       </c>
       <c r="F168">
-        <f>db!A68*db!$B$2</f>
+        <f>'#db'!A68*'#db'!$B$2</f>
         <v>6700</v>
       </c>
       <c r="G168" s="1">
@@ -6361,7 +6530,7 @@
         <v>68</v>
       </c>
       <c r="F169">
-        <f>db!A69*db!$B$2</f>
+        <f>'#db'!A69*'#db'!$B$2</f>
         <v>6800</v>
       </c>
       <c r="G169" s="1">
@@ -6386,7 +6555,7 @@
         <v>69</v>
       </c>
       <c r="F170">
-        <f>db!A70*db!$B$2</f>
+        <f>'#db'!A70*'#db'!$B$2</f>
         <v>6900</v>
       </c>
       <c r="G170" s="1">
@@ -6411,7 +6580,7 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <f>db!A71*db!$B$2</f>
+        <f>'#db'!A71*'#db'!$B$2</f>
         <v>7000</v>
       </c>
       <c r="G171" s="1">
@@ -6436,7 +6605,7 @@
         <v>71</v>
       </c>
       <c r="F172">
-        <f>db!A72*db!$B$2</f>
+        <f>'#db'!A72*'#db'!$B$2</f>
         <v>7100</v>
       </c>
       <c r="G172" s="1">
@@ -6461,7 +6630,7 @@
         <v>72</v>
       </c>
       <c r="F173">
-        <f>db!A73*db!$B$2</f>
+        <f>'#db'!A73*'#db'!$B$2</f>
         <v>7200</v>
       </c>
       <c r="G173" s="1">
@@ -6486,7 +6655,7 @@
         <v>73</v>
       </c>
       <c r="F174">
-        <f>db!A74*db!$B$2</f>
+        <f>'#db'!A74*'#db'!$B$2</f>
         <v>7300</v>
       </c>
       <c r="G174" s="1">
@@ -6511,7 +6680,7 @@
         <v>74</v>
       </c>
       <c r="F175">
-        <f>db!A75*db!$B$2</f>
+        <f>'#db'!A75*'#db'!$B$2</f>
         <v>7400</v>
       </c>
       <c r="G175" s="1">
@@ -6536,7 +6705,7 @@
         <v>75</v>
       </c>
       <c r="F176">
-        <f>db!A76*db!$B$2</f>
+        <f>'#db'!A76*'#db'!$B$2</f>
         <v>7500</v>
       </c>
       <c r="G176" s="1">
@@ -6561,7 +6730,7 @@
         <v>76</v>
       </c>
       <c r="F177">
-        <f>db!A77*db!$B$2</f>
+        <f>'#db'!A77*'#db'!$B$2</f>
         <v>7600</v>
       </c>
       <c r="G177" s="1">
@@ -6586,7 +6755,7 @@
         <v>77</v>
       </c>
       <c r="F178">
-        <f>db!A78*db!$B$2</f>
+        <f>'#db'!A78*'#db'!$B$2</f>
         <v>7700</v>
       </c>
       <c r="G178" s="1">
@@ -6611,7 +6780,7 @@
         <v>78</v>
       </c>
       <c r="F179">
-        <f>db!A79*db!$B$2</f>
+        <f>'#db'!A79*'#db'!$B$2</f>
         <v>7800</v>
       </c>
       <c r="G179" s="1">
@@ -6636,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="F180">
-        <f>db!A80*db!$B$2</f>
+        <f>'#db'!A80*'#db'!$B$2</f>
         <v>7900</v>
       </c>
       <c r="G180" s="1">
@@ -6661,7 +6830,7 @@
         <v>80</v>
       </c>
       <c r="F181">
-        <f>db!A81*db!$B$2</f>
+        <f>'#db'!A81*'#db'!$B$2</f>
         <v>8000</v>
       </c>
       <c r="G181" s="1">
@@ -6686,7 +6855,7 @@
         <v>81</v>
       </c>
       <c r="F182">
-        <f>db!A82*db!$B$2</f>
+        <f>'#db'!A82*'#db'!$B$2</f>
         <v>8100</v>
       </c>
       <c r="G182" s="1">
@@ -6711,7 +6880,7 @@
         <v>82</v>
       </c>
       <c r="F183">
-        <f>db!A83*db!$B$2</f>
+        <f>'#db'!A83*'#db'!$B$2</f>
         <v>8200</v>
       </c>
       <c r="G183" s="1">
@@ -6736,7 +6905,7 @@
         <v>83</v>
       </c>
       <c r="F184">
-        <f>db!A84*db!$B$2</f>
+        <f>'#db'!A84*'#db'!$B$2</f>
         <v>8300</v>
       </c>
       <c r="G184" s="1">
@@ -6761,7 +6930,7 @@
         <v>84</v>
       </c>
       <c r="F185">
-        <f>db!A85*db!$B$2</f>
+        <f>'#db'!A85*'#db'!$B$2</f>
         <v>8400</v>
       </c>
       <c r="G185" s="1">
@@ -6786,7 +6955,7 @@
         <v>85</v>
       </c>
       <c r="F186">
-        <f>db!A86*db!$B$2</f>
+        <f>'#db'!A86*'#db'!$B$2</f>
         <v>8500</v>
       </c>
       <c r="G186" s="1">
@@ -6811,7 +6980,7 @@
         <v>86</v>
       </c>
       <c r="F187">
-        <f>db!A87*db!$B$2</f>
+        <f>'#db'!A87*'#db'!$B$2</f>
         <v>8600</v>
       </c>
       <c r="G187" s="1">
@@ -6836,7 +7005,7 @@
         <v>87</v>
       </c>
       <c r="F188">
-        <f>db!A88*db!$B$2</f>
+        <f>'#db'!A88*'#db'!$B$2</f>
         <v>8700</v>
       </c>
       <c r="G188" s="1">
@@ -6861,7 +7030,7 @@
         <v>88</v>
       </c>
       <c r="F189">
-        <f>db!A89*db!$B$2</f>
+        <f>'#db'!A89*'#db'!$B$2</f>
         <v>8800</v>
       </c>
       <c r="G189" s="1">
@@ -6886,7 +7055,7 @@
         <v>89</v>
       </c>
       <c r="F190">
-        <f>db!A90*db!$B$2</f>
+        <f>'#db'!A90*'#db'!$B$2</f>
         <v>8900</v>
       </c>
       <c r="G190" s="1">
@@ -6911,7 +7080,7 @@
         <v>90</v>
       </c>
       <c r="F191">
-        <f>db!A91*db!$B$2</f>
+        <f>'#db'!A91*'#db'!$B$2</f>
         <v>9000</v>
       </c>
       <c r="G191" s="1">
@@ -6936,7 +7105,7 @@
         <v>91</v>
       </c>
       <c r="F192">
-        <f>db!A92*db!$B$2</f>
+        <f>'#db'!A92*'#db'!$B$2</f>
         <v>9100</v>
       </c>
       <c r="G192" s="1">
@@ -6961,7 +7130,7 @@
         <v>92</v>
       </c>
       <c r="F193">
-        <f>db!A93*db!$B$2</f>
+        <f>'#db'!A93*'#db'!$B$2</f>
         <v>9200</v>
       </c>
       <c r="G193" s="1">
@@ -6986,7 +7155,7 @@
         <v>93</v>
       </c>
       <c r="F194">
-        <f>db!A94*db!$B$2</f>
+        <f>'#db'!A94*'#db'!$B$2</f>
         <v>9300</v>
       </c>
       <c r="G194" s="1">
@@ -7011,7 +7180,7 @@
         <v>94</v>
       </c>
       <c r="F195">
-        <f>db!A95*db!$B$2</f>
+        <f>'#db'!A95*'#db'!$B$2</f>
         <v>9400</v>
       </c>
       <c r="G195" s="1">
@@ -7036,7 +7205,7 @@
         <v>95</v>
       </c>
       <c r="F196">
-        <f>db!A96*db!$B$2</f>
+        <f>'#db'!A96*'#db'!$B$2</f>
         <v>9500</v>
       </c>
       <c r="G196" s="1">
@@ -7061,7 +7230,7 @@
         <v>96</v>
       </c>
       <c r="F197">
-        <f>db!A97*db!$B$2</f>
+        <f>'#db'!A97*'#db'!$B$2</f>
         <v>9600</v>
       </c>
       <c r="G197" s="1">
@@ -7086,7 +7255,7 @@
         <v>97</v>
       </c>
       <c r="F198">
-        <f>db!A98*db!$B$2</f>
+        <f>'#db'!A98*'#db'!$B$2</f>
         <v>9700</v>
       </c>
       <c r="G198" s="1">
@@ -7111,7 +7280,7 @@
         <v>98</v>
       </c>
       <c r="F199">
-        <f>db!A99*db!$B$2</f>
+        <f>'#db'!A99*'#db'!$B$2</f>
         <v>9800</v>
       </c>
       <c r="G199" s="1">
@@ -7136,7 +7305,7 @@
         <v>99</v>
       </c>
       <c r="F200">
-        <f>db!A100*db!$B$2</f>
+        <f>'#db'!A100*'#db'!$B$2</f>
         <v>9900</v>
       </c>
       <c r="G200" s="1">
@@ -7161,7 +7330,7 @@
         <v>100</v>
       </c>
       <c r="F201">
-        <f>db!A101*db!$B$2</f>
+        <f>'#db'!A101*'#db'!$B$2</f>
         <v>10000</v>
       </c>
       <c r="G201" t="s">
@@ -7185,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <f>db!A2*db!$B$2</f>
+        <f>'#db'!A2*'#db'!$B$2</f>
         <v>100</v>
       </c>
       <c r="G202" s="1">
@@ -7210,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="F203">
-        <f>db!A3*db!$B$2</f>
+        <f>'#db'!A3*'#db'!$B$2</f>
         <v>200</v>
       </c>
       <c r="G203" s="1">
@@ -7235,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="F204">
-        <f>db!A4*db!$B$2</f>
+        <f>'#db'!A4*'#db'!$B$2</f>
         <v>300</v>
       </c>
       <c r="G204" s="1">
@@ -7260,7 +7429,7 @@
         <v>4</v>
       </c>
       <c r="F205">
-        <f>db!A5*db!$B$2</f>
+        <f>'#db'!A5*'#db'!$B$2</f>
         <v>400</v>
       </c>
       <c r="G205" s="1">
@@ -7285,7 +7454,7 @@
         <v>5</v>
       </c>
       <c r="F206">
-        <f>db!A6*db!$B$2</f>
+        <f>'#db'!A6*'#db'!$B$2</f>
         <v>500</v>
       </c>
       <c r="G206" s="1">
@@ -7310,7 +7479,7 @@
         <v>6</v>
       </c>
       <c r="F207">
-        <f>db!A7*db!$B$2</f>
+        <f>'#db'!A7*'#db'!$B$2</f>
         <v>600</v>
       </c>
       <c r="G207" s="1">
@@ -7335,7 +7504,7 @@
         <v>7</v>
       </c>
       <c r="F208">
-        <f>db!A8*db!$B$2</f>
+        <f>'#db'!A8*'#db'!$B$2</f>
         <v>700</v>
       </c>
       <c r="G208" s="1">
@@ -7360,7 +7529,7 @@
         <v>8</v>
       </c>
       <c r="F209">
-        <f>db!A9*db!$B$2</f>
+        <f>'#db'!A9*'#db'!$B$2</f>
         <v>800</v>
       </c>
       <c r="G209" s="1">
@@ -7385,7 +7554,7 @@
         <v>9</v>
       </c>
       <c r="F210">
-        <f>db!A10*db!$B$2</f>
+        <f>'#db'!A10*'#db'!$B$2</f>
         <v>900</v>
       </c>
       <c r="G210" s="1">
@@ -7410,7 +7579,7 @@
         <v>10</v>
       </c>
       <c r="F211">
-        <f>db!A11*db!$B$2</f>
+        <f>'#db'!A11*'#db'!$B$2</f>
         <v>1000</v>
       </c>
       <c r="G211" s="1">
@@ -7435,7 +7604,7 @@
         <v>11</v>
       </c>
       <c r="F212">
-        <f>db!A12*db!$B$2</f>
+        <f>'#db'!A12*'#db'!$B$2</f>
         <v>1100</v>
       </c>
       <c r="G212" s="1">
@@ -7460,7 +7629,7 @@
         <v>12</v>
       </c>
       <c r="F213">
-        <f>db!A13*db!$B$2</f>
+        <f>'#db'!A13*'#db'!$B$2</f>
         <v>1200</v>
       </c>
       <c r="G213" s="1">
@@ -7485,7 +7654,7 @@
         <v>13</v>
       </c>
       <c r="F214">
-        <f>db!A14*db!$B$2</f>
+        <f>'#db'!A14*'#db'!$B$2</f>
         <v>1300</v>
       </c>
       <c r="G214" s="1">
@@ -7510,7 +7679,7 @@
         <v>14</v>
       </c>
       <c r="F215">
-        <f>db!A15*db!$B$2</f>
+        <f>'#db'!A15*'#db'!$B$2</f>
         <v>1400</v>
       </c>
       <c r="G215" s="1">
@@ -7535,7 +7704,7 @@
         <v>15</v>
       </c>
       <c r="F216">
-        <f>db!A16*db!$B$2</f>
+        <f>'#db'!A16*'#db'!$B$2</f>
         <v>1500</v>
       </c>
       <c r="G216" s="1">
@@ -7560,7 +7729,7 @@
         <v>16</v>
       </c>
       <c r="F217">
-        <f>db!A17*db!$B$2</f>
+        <f>'#db'!A17*'#db'!$B$2</f>
         <v>1600</v>
       </c>
       <c r="G217" s="1">
@@ -7585,7 +7754,7 @@
         <v>17</v>
       </c>
       <c r="F218">
-        <f>db!A18*db!$B$2</f>
+        <f>'#db'!A18*'#db'!$B$2</f>
         <v>1700</v>
       </c>
       <c r="G218" s="1">
@@ -7610,7 +7779,7 @@
         <v>18</v>
       </c>
       <c r="F219">
-        <f>db!A19*db!$B$2</f>
+        <f>'#db'!A19*'#db'!$B$2</f>
         <v>1800</v>
       </c>
       <c r="G219" s="1">
@@ -7635,7 +7804,7 @@
         <v>19</v>
       </c>
       <c r="F220">
-        <f>db!A20*db!$B$2</f>
+        <f>'#db'!A20*'#db'!$B$2</f>
         <v>1900</v>
       </c>
       <c r="G220" s="1">
@@ -7660,7 +7829,7 @@
         <v>20</v>
       </c>
       <c r="F221">
-        <f>db!A21*db!$B$2</f>
+        <f>'#db'!A21*'#db'!$B$2</f>
         <v>2000</v>
       </c>
       <c r="G221" s="1">
@@ -7685,7 +7854,7 @@
         <v>21</v>
       </c>
       <c r="F222">
-        <f>db!A22*db!$B$2</f>
+        <f>'#db'!A22*'#db'!$B$2</f>
         <v>2100</v>
       </c>
       <c r="G222" s="1">
@@ -7710,7 +7879,7 @@
         <v>22</v>
       </c>
       <c r="F223">
-        <f>db!A23*db!$B$2</f>
+        <f>'#db'!A23*'#db'!$B$2</f>
         <v>2200</v>
       </c>
       <c r="G223" s="1">
@@ -7735,7 +7904,7 @@
         <v>23</v>
       </c>
       <c r="F224">
-        <f>db!A24*db!$B$2</f>
+        <f>'#db'!A24*'#db'!$B$2</f>
         <v>2300</v>
       </c>
       <c r="G224" s="1">
@@ -7760,7 +7929,7 @@
         <v>24</v>
       </c>
       <c r="F225">
-        <f>db!A25*db!$B$2</f>
+        <f>'#db'!A25*'#db'!$B$2</f>
         <v>2400</v>
       </c>
       <c r="G225" s="1">
@@ -7785,7 +7954,7 @@
         <v>25</v>
       </c>
       <c r="F226">
-        <f>db!A26*db!$B$2</f>
+        <f>'#db'!A26*'#db'!$B$2</f>
         <v>2500</v>
       </c>
       <c r="G226" s="1">
@@ -7810,7 +7979,7 @@
         <v>26</v>
       </c>
       <c r="F227">
-        <f>db!A27*db!$B$2</f>
+        <f>'#db'!A27*'#db'!$B$2</f>
         <v>2600</v>
       </c>
       <c r="G227" s="1">
@@ -7835,7 +8004,7 @@
         <v>27</v>
       </c>
       <c r="F228">
-        <f>db!A28*db!$B$2</f>
+        <f>'#db'!A28*'#db'!$B$2</f>
         <v>2700</v>
       </c>
       <c r="G228" s="1">
@@ -7860,7 +8029,7 @@
         <v>28</v>
       </c>
       <c r="F229">
-        <f>db!A29*db!$B$2</f>
+        <f>'#db'!A29*'#db'!$B$2</f>
         <v>2800</v>
       </c>
       <c r="G229" s="1">
@@ -7885,7 +8054,7 @@
         <v>29</v>
       </c>
       <c r="F230">
-        <f>db!A30*db!$B$2</f>
+        <f>'#db'!A30*'#db'!$B$2</f>
         <v>2900</v>
       </c>
       <c r="G230" s="1">
@@ -7910,7 +8079,7 @@
         <v>30</v>
       </c>
       <c r="F231">
-        <f>db!A31*db!$B$2</f>
+        <f>'#db'!A31*'#db'!$B$2</f>
         <v>3000</v>
       </c>
       <c r="G231" s="1">
@@ -7935,7 +8104,7 @@
         <v>31</v>
       </c>
       <c r="F232">
-        <f>db!A32*db!$B$2</f>
+        <f>'#db'!A32*'#db'!$B$2</f>
         <v>3100</v>
       </c>
       <c r="G232" s="1">
@@ -7960,7 +8129,7 @@
         <v>32</v>
       </c>
       <c r="F233">
-        <f>db!A33*db!$B$2</f>
+        <f>'#db'!A33*'#db'!$B$2</f>
         <v>3200</v>
       </c>
       <c r="G233" s="1">
@@ -7985,7 +8154,7 @@
         <v>33</v>
       </c>
       <c r="F234">
-        <f>db!A34*db!$B$2</f>
+        <f>'#db'!A34*'#db'!$B$2</f>
         <v>3300</v>
       </c>
       <c r="G234" s="1">
@@ -8010,7 +8179,7 @@
         <v>34</v>
       </c>
       <c r="F235">
-        <f>db!A35*db!$B$2</f>
+        <f>'#db'!A35*'#db'!$B$2</f>
         <v>3400</v>
       </c>
       <c r="G235" s="1">
@@ -8035,7 +8204,7 @@
         <v>35</v>
       </c>
       <c r="F236">
-        <f>db!A36*db!$B$2</f>
+        <f>'#db'!A36*'#db'!$B$2</f>
         <v>3500</v>
       </c>
       <c r="G236" s="1">
@@ -8060,7 +8229,7 @@
         <v>36</v>
       </c>
       <c r="F237">
-        <f>db!A37*db!$B$2</f>
+        <f>'#db'!A37*'#db'!$B$2</f>
         <v>3600</v>
       </c>
       <c r="G237" s="1">
@@ -8085,7 +8254,7 @@
         <v>37</v>
       </c>
       <c r="F238">
-        <f>db!A38*db!$B$2</f>
+        <f>'#db'!A38*'#db'!$B$2</f>
         <v>3700</v>
       </c>
       <c r="G238" s="1">
@@ -8110,7 +8279,7 @@
         <v>38</v>
       </c>
       <c r="F239">
-        <f>db!A39*db!$B$2</f>
+        <f>'#db'!A39*'#db'!$B$2</f>
         <v>3800</v>
       </c>
       <c r="G239" s="1">
@@ -8135,7 +8304,7 @@
         <v>39</v>
       </c>
       <c r="F240">
-        <f>db!A40*db!$B$2</f>
+        <f>'#db'!A40*'#db'!$B$2</f>
         <v>3900</v>
       </c>
       <c r="G240" s="1">
@@ -8160,7 +8329,7 @@
         <v>40</v>
       </c>
       <c r="F241">
-        <f>db!A41*db!$B$2</f>
+        <f>'#db'!A41*'#db'!$B$2</f>
         <v>4000</v>
       </c>
       <c r="G241" s="1">
@@ -8185,7 +8354,7 @@
         <v>41</v>
       </c>
       <c r="F242">
-        <f>db!A42*db!$B$2</f>
+        <f>'#db'!A42*'#db'!$B$2</f>
         <v>4100</v>
       </c>
       <c r="G242" s="1">
@@ -8210,7 +8379,7 @@
         <v>42</v>
       </c>
       <c r="F243">
-        <f>db!A43*db!$B$2</f>
+        <f>'#db'!A43*'#db'!$B$2</f>
         <v>4200</v>
       </c>
       <c r="G243" s="1">
@@ -8235,7 +8404,7 @@
         <v>43</v>
       </c>
       <c r="F244">
-        <f>db!A44*db!$B$2</f>
+        <f>'#db'!A44*'#db'!$B$2</f>
         <v>4300</v>
       </c>
       <c r="G244" s="1">
@@ -8260,7 +8429,7 @@
         <v>44</v>
       </c>
       <c r="F245">
-        <f>db!A45*db!$B$2</f>
+        <f>'#db'!A45*'#db'!$B$2</f>
         <v>4400</v>
       </c>
       <c r="G245" s="1">
@@ -8285,7 +8454,7 @@
         <v>45</v>
       </c>
       <c r="F246">
-        <f>db!A46*db!$B$2</f>
+        <f>'#db'!A46*'#db'!$B$2</f>
         <v>4500</v>
       </c>
       <c r="G246" s="1">
@@ -8310,7 +8479,7 @@
         <v>46</v>
       </c>
       <c r="F247">
-        <f>db!A47*db!$B$2</f>
+        <f>'#db'!A47*'#db'!$B$2</f>
         <v>4600</v>
       </c>
       <c r="G247" s="1">
@@ -8335,7 +8504,7 @@
         <v>47</v>
       </c>
       <c r="F248">
-        <f>db!A48*db!$B$2</f>
+        <f>'#db'!A48*'#db'!$B$2</f>
         <v>4700</v>
       </c>
       <c r="G248" s="1">
@@ -8360,7 +8529,7 @@
         <v>48</v>
       </c>
       <c r="F249">
-        <f>db!A49*db!$B$2</f>
+        <f>'#db'!A49*'#db'!$B$2</f>
         <v>4800</v>
       </c>
       <c r="G249" s="1">
@@ -8385,7 +8554,7 @@
         <v>49</v>
       </c>
       <c r="F250">
-        <f>db!A50*db!$B$2</f>
+        <f>'#db'!A50*'#db'!$B$2</f>
         <v>4900</v>
       </c>
       <c r="G250" s="1">
@@ -8410,7 +8579,7 @@
         <v>50</v>
       </c>
       <c r="F251">
-        <f>db!A51*db!$B$2</f>
+        <f>'#db'!A51*'#db'!$B$2</f>
         <v>5000</v>
       </c>
       <c r="G251" s="1">
@@ -8435,7 +8604,7 @@
         <v>51</v>
       </c>
       <c r="F252">
-        <f>db!A52*db!$B$2</f>
+        <f>'#db'!A52*'#db'!$B$2</f>
         <v>5100</v>
       </c>
       <c r="G252" s="1">
@@ -8460,7 +8629,7 @@
         <v>52</v>
       </c>
       <c r="F253">
-        <f>db!A53*db!$B$2</f>
+        <f>'#db'!A53*'#db'!$B$2</f>
         <v>5200</v>
       </c>
       <c r="G253" s="1">
@@ -8485,7 +8654,7 @@
         <v>53</v>
       </c>
       <c r="F254">
-        <f>db!A54*db!$B$2</f>
+        <f>'#db'!A54*'#db'!$B$2</f>
         <v>5300</v>
       </c>
       <c r="G254" s="1">
@@ -8510,7 +8679,7 @@
         <v>54</v>
       </c>
       <c r="F255">
-        <f>db!A55*db!$B$2</f>
+        <f>'#db'!A55*'#db'!$B$2</f>
         <v>5400</v>
       </c>
       <c r="G255" s="1">
@@ -8535,7 +8704,7 @@
         <v>55</v>
       </c>
       <c r="F256">
-        <f>db!A56*db!$B$2</f>
+        <f>'#db'!A56*'#db'!$B$2</f>
         <v>5500</v>
       </c>
       <c r="G256" s="1">
@@ -8560,7 +8729,7 @@
         <v>56</v>
       </c>
       <c r="F257">
-        <f>db!A57*db!$B$2</f>
+        <f>'#db'!A57*'#db'!$B$2</f>
         <v>5600</v>
       </c>
       <c r="G257" s="1">
@@ -8585,7 +8754,7 @@
         <v>57</v>
       </c>
       <c r="F258">
-        <f>db!A58*db!$B$2</f>
+        <f>'#db'!A58*'#db'!$B$2</f>
         <v>5700</v>
       </c>
       <c r="G258" s="1">
@@ -8610,7 +8779,7 @@
         <v>58</v>
       </c>
       <c r="F259">
-        <f>db!A59*db!$B$2</f>
+        <f>'#db'!A59*'#db'!$B$2</f>
         <v>5800</v>
       </c>
       <c r="G259" s="1">
@@ -8635,7 +8804,7 @@
         <v>59</v>
       </c>
       <c r="F260">
-        <f>db!A60*db!$B$2</f>
+        <f>'#db'!A60*'#db'!$B$2</f>
         <v>5900</v>
       </c>
       <c r="G260" s="1">
@@ -8660,7 +8829,7 @@
         <v>60</v>
       </c>
       <c r="F261">
-        <f>db!A61*db!$B$2</f>
+        <f>'#db'!A61*'#db'!$B$2</f>
         <v>6000</v>
       </c>
       <c r="G261" s="1">
@@ -8685,7 +8854,7 @@
         <v>61</v>
       </c>
       <c r="F262">
-        <f>db!A62*db!$B$2</f>
+        <f>'#db'!A62*'#db'!$B$2</f>
         <v>6100</v>
       </c>
       <c r="G262" s="1">
@@ -8710,7 +8879,7 @@
         <v>62</v>
       </c>
       <c r="F263">
-        <f>db!A63*db!$B$2</f>
+        <f>'#db'!A63*'#db'!$B$2</f>
         <v>6200</v>
       </c>
       <c r="G263" s="1">
@@ -8735,7 +8904,7 @@
         <v>63</v>
       </c>
       <c r="F264">
-        <f>db!A64*db!$B$2</f>
+        <f>'#db'!A64*'#db'!$B$2</f>
         <v>6300</v>
       </c>
       <c r="G264" s="1">
@@ -8760,7 +8929,7 @@
         <v>64</v>
       </c>
       <c r="F265">
-        <f>db!A65*db!$B$2</f>
+        <f>'#db'!A65*'#db'!$B$2</f>
         <v>6400</v>
       </c>
       <c r="G265" s="1">
@@ -8785,7 +8954,7 @@
         <v>65</v>
       </c>
       <c r="F266">
-        <f>db!A66*db!$B$2</f>
+        <f>'#db'!A66*'#db'!$B$2</f>
         <v>6500</v>
       </c>
       <c r="G266" s="1">
@@ -8810,7 +8979,7 @@
         <v>66</v>
       </c>
       <c r="F267">
-        <f>db!A67*db!$B$2</f>
+        <f>'#db'!A67*'#db'!$B$2</f>
         <v>6600</v>
       </c>
       <c r="G267" s="1">
@@ -8835,7 +9004,7 @@
         <v>67</v>
       </c>
       <c r="F268">
-        <f>db!A68*db!$B$2</f>
+        <f>'#db'!A68*'#db'!$B$2</f>
         <v>6700</v>
       </c>
       <c r="G268" s="1">
@@ -8860,7 +9029,7 @@
         <v>68</v>
       </c>
       <c r="F269">
-        <f>db!A69*db!$B$2</f>
+        <f>'#db'!A69*'#db'!$B$2</f>
         <v>6800</v>
       </c>
       <c r="G269" s="1">
@@ -8885,7 +9054,7 @@
         <v>69</v>
       </c>
       <c r="F270">
-        <f>db!A70*db!$B$2</f>
+        <f>'#db'!A70*'#db'!$B$2</f>
         <v>6900</v>
       </c>
       <c r="G270" s="1">
@@ -8910,7 +9079,7 @@
         <v>70</v>
       </c>
       <c r="F271">
-        <f>db!A71*db!$B$2</f>
+        <f>'#db'!A71*'#db'!$B$2</f>
         <v>7000</v>
       </c>
       <c r="G271" s="1">
@@ -8935,7 +9104,7 @@
         <v>71</v>
       </c>
       <c r="F272">
-        <f>db!A72*db!$B$2</f>
+        <f>'#db'!A72*'#db'!$B$2</f>
         <v>7100</v>
       </c>
       <c r="G272" s="1">
@@ -8960,7 +9129,7 @@
         <v>72</v>
       </c>
       <c r="F273">
-        <f>db!A73*db!$B$2</f>
+        <f>'#db'!A73*'#db'!$B$2</f>
         <v>7200</v>
       </c>
       <c r="G273" s="1">
@@ -8985,7 +9154,7 @@
         <v>73</v>
       </c>
       <c r="F274">
-        <f>db!A74*db!$B$2</f>
+        <f>'#db'!A74*'#db'!$B$2</f>
         <v>7300</v>
       </c>
       <c r="G274" s="1">
@@ -9010,7 +9179,7 @@
         <v>74</v>
       </c>
       <c r="F275">
-        <f>db!A75*db!$B$2</f>
+        <f>'#db'!A75*'#db'!$B$2</f>
         <v>7400</v>
       </c>
       <c r="G275" s="1">
@@ -9035,7 +9204,7 @@
         <v>75</v>
       </c>
       <c r="F276">
-        <f>db!A76*db!$B$2</f>
+        <f>'#db'!A76*'#db'!$B$2</f>
         <v>7500</v>
       </c>
       <c r="G276" s="1">
@@ -9060,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="F277">
-        <f>db!A77*db!$B$2</f>
+        <f>'#db'!A77*'#db'!$B$2</f>
         <v>7600</v>
       </c>
       <c r="G277" s="1">
@@ -9085,7 +9254,7 @@
         <v>77</v>
       </c>
       <c r="F278">
-        <f>db!A78*db!$B$2</f>
+        <f>'#db'!A78*'#db'!$B$2</f>
         <v>7700</v>
       </c>
       <c r="G278" s="1">
@@ -9110,7 +9279,7 @@
         <v>78</v>
       </c>
       <c r="F279">
-        <f>db!A79*db!$B$2</f>
+        <f>'#db'!A79*'#db'!$B$2</f>
         <v>7800</v>
       </c>
       <c r="G279" s="1">
@@ -9135,7 +9304,7 @@
         <v>79</v>
       </c>
       <c r="F280">
-        <f>db!A80*db!$B$2</f>
+        <f>'#db'!A80*'#db'!$B$2</f>
         <v>7900</v>
       </c>
       <c r="G280" s="1">
@@ -9160,7 +9329,7 @@
         <v>80</v>
       </c>
       <c r="F281">
-        <f>db!A81*db!$B$2</f>
+        <f>'#db'!A81*'#db'!$B$2</f>
         <v>8000</v>
       </c>
       <c r="G281" s="1">
@@ -9185,7 +9354,7 @@
         <v>81</v>
       </c>
       <c r="F282">
-        <f>db!A82*db!$B$2</f>
+        <f>'#db'!A82*'#db'!$B$2</f>
         <v>8100</v>
       </c>
       <c r="G282" s="1">
@@ -9210,7 +9379,7 @@
         <v>82</v>
       </c>
       <c r="F283">
-        <f>db!A83*db!$B$2</f>
+        <f>'#db'!A83*'#db'!$B$2</f>
         <v>8200</v>
       </c>
       <c r="G283" s="1">
@@ -9235,7 +9404,7 @@
         <v>83</v>
       </c>
       <c r="F284">
-        <f>db!A84*db!$B$2</f>
+        <f>'#db'!A84*'#db'!$B$2</f>
         <v>8300</v>
       </c>
       <c r="G284" s="1">
@@ -9260,7 +9429,7 @@
         <v>84</v>
       </c>
       <c r="F285">
-        <f>db!A85*db!$B$2</f>
+        <f>'#db'!A85*'#db'!$B$2</f>
         <v>8400</v>
       </c>
       <c r="G285" s="1">
@@ -9285,7 +9454,7 @@
         <v>85</v>
       </c>
       <c r="F286">
-        <f>db!A86*db!$B$2</f>
+        <f>'#db'!A86*'#db'!$B$2</f>
         <v>8500</v>
       </c>
       <c r="G286" s="1">
@@ -9310,7 +9479,7 @@
         <v>86</v>
       </c>
       <c r="F287">
-        <f>db!A87*db!$B$2</f>
+        <f>'#db'!A87*'#db'!$B$2</f>
         <v>8600</v>
       </c>
       <c r="G287" s="1">
@@ -9335,7 +9504,7 @@
         <v>87</v>
       </c>
       <c r="F288">
-        <f>db!A88*db!$B$2</f>
+        <f>'#db'!A88*'#db'!$B$2</f>
         <v>8700</v>
       </c>
       <c r="G288" s="1">
@@ -9360,7 +9529,7 @@
         <v>88</v>
       </c>
       <c r="F289">
-        <f>db!A89*db!$B$2</f>
+        <f>'#db'!A89*'#db'!$B$2</f>
         <v>8800</v>
       </c>
       <c r="G289" s="1">
@@ -9385,7 +9554,7 @@
         <v>89</v>
       </c>
       <c r="F290">
-        <f>db!A90*db!$B$2</f>
+        <f>'#db'!A90*'#db'!$B$2</f>
         <v>8900</v>
       </c>
       <c r="G290" s="1">
@@ -9410,7 +9579,7 @@
         <v>90</v>
       </c>
       <c r="F291">
-        <f>db!A91*db!$B$2</f>
+        <f>'#db'!A91*'#db'!$B$2</f>
         <v>9000</v>
       </c>
       <c r="G291" s="1">
@@ -9435,7 +9604,7 @@
         <v>91</v>
       </c>
       <c r="F292">
-        <f>db!A92*db!$B$2</f>
+        <f>'#db'!A92*'#db'!$B$2</f>
         <v>9100</v>
       </c>
       <c r="G292" s="1">
@@ -9460,7 +9629,7 @@
         <v>92</v>
       </c>
       <c r="F293">
-        <f>db!A93*db!$B$2</f>
+        <f>'#db'!A93*'#db'!$B$2</f>
         <v>9200</v>
       </c>
       <c r="G293" s="1">
@@ -9485,7 +9654,7 @@
         <v>93</v>
       </c>
       <c r="F294">
-        <f>db!A94*db!$B$2</f>
+        <f>'#db'!A94*'#db'!$B$2</f>
         <v>9300</v>
       </c>
       <c r="G294" s="1">
@@ -9510,7 +9679,7 @@
         <v>94</v>
       </c>
       <c r="F295">
-        <f>db!A95*db!$B$2</f>
+        <f>'#db'!A95*'#db'!$B$2</f>
         <v>9400</v>
       </c>
       <c r="G295" s="1">
@@ -9535,7 +9704,7 @@
         <v>95</v>
       </c>
       <c r="F296">
-        <f>db!A96*db!$B$2</f>
+        <f>'#db'!A96*'#db'!$B$2</f>
         <v>9500</v>
       </c>
       <c r="G296" s="1">
@@ -9560,7 +9729,7 @@
         <v>96</v>
       </c>
       <c r="F297">
-        <f>db!A97*db!$B$2</f>
+        <f>'#db'!A97*'#db'!$B$2</f>
         <v>9600</v>
       </c>
       <c r="G297" s="1">
@@ -9585,7 +9754,7 @@
         <v>97</v>
       </c>
       <c r="F298">
-        <f>db!A98*db!$B$2</f>
+        <f>'#db'!A98*'#db'!$B$2</f>
         <v>9700</v>
       </c>
       <c r="G298" s="1">
@@ -9610,7 +9779,7 @@
         <v>98</v>
       </c>
       <c r="F299">
-        <f>db!A99*db!$B$2</f>
+        <f>'#db'!A99*'#db'!$B$2</f>
         <v>9800</v>
       </c>
       <c r="G299" s="1">
@@ -9635,7 +9804,7 @@
         <v>99</v>
       </c>
       <c r="F300">
-        <f>db!A100*db!$B$2</f>
+        <f>'#db'!A100*'#db'!$B$2</f>
         <v>9900</v>
       </c>
       <c r="G300" s="1">
@@ -9660,7 +9829,7 @@
         <v>100</v>
       </c>
       <c r="F301">
-        <f>db!A101*db!$B$2</f>
+        <f>'#db'!A101*'#db'!$B$2</f>
         <v>10000</v>
       </c>
       <c r="G301" t="s">
@@ -9714,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="G303">
-        <f>db!C2*db!$D$3</f>
+        <f>'#db'!C2*'#db'!$D$3</f>
         <v>900</v>
       </c>
     </row>
@@ -9738,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="G304">
-        <f>db!C3*db!$D$3</f>
+        <f>'#db'!C3*'#db'!$D$3</f>
         <v>1800</v>
       </c>
     </row>
@@ -9762,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="G305">
-        <f>db!C4*db!$D$3</f>
+        <f>'#db'!C4*'#db'!$D$3</f>
         <v>2700</v>
       </c>
     </row>
@@ -9786,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="G306">
-        <f>db!C5*db!$D$3</f>
+        <f>'#db'!C5*'#db'!$D$3</f>
         <v>3600</v>
       </c>
     </row>
@@ -9810,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="G307">
-        <f>db!C6*db!$D$3</f>
+        <f>'#db'!C6*'#db'!$D$3</f>
         <v>4500</v>
       </c>
     </row>
@@ -9834,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="G308">
-        <f>db!C7*db!$D$3</f>
+        <f>'#db'!C7*'#db'!$D$3</f>
         <v>5400</v>
       </c>
     </row>
@@ -9858,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="G309">
-        <f>db!C8*db!$D$3</f>
+        <f>'#db'!C8*'#db'!$D$3</f>
         <v>6300</v>
       </c>
     </row>
@@ -9882,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="G310">
-        <f>db!C9*db!$D$3</f>
+        <f>'#db'!C9*'#db'!$D$3</f>
         <v>7200</v>
       </c>
     </row>
@@ -9906,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="G311">
-        <f>db!C10*db!$D$3</f>
+        <f>'#db'!C10*'#db'!$D$3</f>
         <v>8100</v>
       </c>
     </row>
@@ -9930,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="G312">
-        <f>db!C11*db!$D$3</f>
+        <f>'#db'!C11*'#db'!$D$3</f>
         <v>9000</v>
       </c>
     </row>
@@ -9954,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="G313">
-        <f>db!C12*db!$D$3</f>
+        <f>'#db'!C12*'#db'!$D$3</f>
         <v>9900</v>
       </c>
     </row>
@@ -9978,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G314">
-        <f>db!C13*db!$D$3</f>
+        <f>'#db'!C13*'#db'!$D$3</f>
         <v>10800</v>
       </c>
     </row>
@@ -10002,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="G315">
-        <f>db!C14*db!$D$3</f>
+        <f>'#db'!C14*'#db'!$D$3</f>
         <v>11700</v>
       </c>
     </row>
@@ -10026,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="G316">
-        <f>db!C15*db!$D$3</f>
+        <f>'#db'!C15*'#db'!$D$3</f>
         <v>12600</v>
       </c>
     </row>
@@ -10050,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="G317">
-        <f>db!C16*db!$D$3</f>
+        <f>'#db'!C16*'#db'!$D$3</f>
         <v>13500</v>
       </c>
     </row>
@@ -10074,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="G318">
-        <f>db!C17*db!$D$3</f>
+        <f>'#db'!C17*'#db'!$D$3</f>
         <v>14400</v>
       </c>
     </row>
@@ -10098,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="G319">
-        <f>db!C18*db!$D$3</f>
+        <f>'#db'!C18*'#db'!$D$3</f>
         <v>15300</v>
       </c>
     </row>
@@ -10122,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="G320">
-        <f>db!C19*db!$D$3</f>
+        <f>'#db'!C19*'#db'!$D$3</f>
         <v>16200</v>
       </c>
     </row>
@@ -10146,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="G321">
-        <f>db!C20*db!$D$3</f>
+        <f>'#db'!C20*'#db'!$D$3</f>
         <v>17100</v>
       </c>
     </row>
@@ -10170,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="G322">
-        <f>db!C21*db!$D$3</f>
+        <f>'#db'!C21*'#db'!$D$3</f>
         <v>18000</v>
       </c>
     </row>
@@ -10194,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="G323">
-        <f>db!C22*db!$D$3</f>
+        <f>'#db'!C22*'#db'!$D$3</f>
         <v>18900</v>
       </c>
     </row>
@@ -10218,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="G324">
-        <f>db!C23*db!$D$3</f>
+        <f>'#db'!C23*'#db'!$D$3</f>
         <v>19800</v>
       </c>
     </row>
@@ -10242,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="G325">
-        <f>db!C24*db!$D$3</f>
+        <f>'#db'!C24*'#db'!$D$3</f>
         <v>20700</v>
       </c>
     </row>
@@ -10266,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="G326">
-        <f>db!C25*db!$D$3</f>
+        <f>'#db'!C25*'#db'!$D$3</f>
         <v>21600</v>
       </c>
     </row>
@@ -10290,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="G327">
-        <f>db!C26*db!$D$3</f>
+        <f>'#db'!C26*'#db'!$D$3</f>
         <v>22500</v>
       </c>
     </row>
@@ -10314,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="G328">
-        <f>db!C27*db!$D$3</f>
+        <f>'#db'!C27*'#db'!$D$3</f>
         <v>23400</v>
       </c>
     </row>
@@ -10338,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="G329">
-        <f>db!C28*db!$D$3</f>
+        <f>'#db'!C28*'#db'!$D$3</f>
         <v>24300</v>
       </c>
     </row>
@@ -10362,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="G330">
-        <f>db!C29*db!$D$3</f>
+        <f>'#db'!C29*'#db'!$D$3</f>
         <v>25200</v>
       </c>
     </row>
@@ -10386,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="G331">
-        <f>db!C30*db!$D$3</f>
+        <f>'#db'!C30*'#db'!$D$3</f>
         <v>26100</v>
       </c>
     </row>
@@ -10410,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="G332">
-        <f>db!C31*db!$D$3</f>
+        <f>'#db'!C31*'#db'!$D$3</f>
         <v>27000</v>
       </c>
     </row>
@@ -10434,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="G333">
-        <f>db!C32*db!$D$3</f>
+        <f>'#db'!C32*'#db'!$D$3</f>
         <v>27900</v>
       </c>
     </row>
@@ -10458,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="G334">
-        <f>db!C33*db!$D$3</f>
+        <f>'#db'!C33*'#db'!$D$3</f>
         <v>28800</v>
       </c>
     </row>
@@ -10482,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="G335">
-        <f>db!C34*db!$D$3</f>
+        <f>'#db'!C34*'#db'!$D$3</f>
         <v>29700</v>
       </c>
     </row>
@@ -10506,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="G336">
-        <f>db!C35*db!$D$3</f>
+        <f>'#db'!C35*'#db'!$D$3</f>
         <v>30600</v>
       </c>
     </row>
@@ -10530,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="G337">
-        <f>db!C36*db!$D$3</f>
+        <f>'#db'!C36*'#db'!$D$3</f>
         <v>31500</v>
       </c>
     </row>
@@ -10554,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="G338">
-        <f>db!C37*db!$D$3</f>
+        <f>'#db'!C37*'#db'!$D$3</f>
         <v>32400</v>
       </c>
     </row>
@@ -10578,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="G339">
-        <f>db!C38*db!$D$3</f>
+        <f>'#db'!C38*'#db'!$D$3</f>
         <v>33300</v>
       </c>
     </row>
@@ -10602,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="G340">
-        <f>db!C39*db!$D$3</f>
+        <f>'#db'!C39*'#db'!$D$3</f>
         <v>34200</v>
       </c>
     </row>
@@ -10626,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="G341">
-        <f>db!C40*db!$D$3</f>
+        <f>'#db'!C40*'#db'!$D$3</f>
         <v>35100</v>
       </c>
     </row>
@@ -10650,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="G342">
-        <f>db!C41*db!$D$3</f>
+        <f>'#db'!C41*'#db'!$D$3</f>
         <v>36000</v>
       </c>
     </row>
@@ -10674,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="G343">
-        <f>db!C42*db!$D$3</f>
+        <f>'#db'!C42*'#db'!$D$3</f>
         <v>36900</v>
       </c>
     </row>
@@ -10698,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="G344">
-        <f>db!C43*db!$D$3</f>
+        <f>'#db'!C43*'#db'!$D$3</f>
         <v>37800</v>
       </c>
     </row>
@@ -10722,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="G345">
-        <f>db!C44*db!$D$3</f>
+        <f>'#db'!C44*'#db'!$D$3</f>
         <v>38700</v>
       </c>
     </row>
@@ -10746,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="G346">
-        <f>db!C45*db!$D$3</f>
+        <f>'#db'!C45*'#db'!$D$3</f>
         <v>39600</v>
       </c>
     </row>
@@ -10770,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="G347">
-        <f>db!C46*db!$D$3</f>
+        <f>'#db'!C46*'#db'!$D$3</f>
         <v>40500</v>
       </c>
     </row>
@@ -10794,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="G348">
-        <f>db!C47*db!$D$3</f>
+        <f>'#db'!C47*'#db'!$D$3</f>
         <v>41400</v>
       </c>
     </row>
@@ -10818,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="G349">
-        <f>db!C48*db!$D$3</f>
+        <f>'#db'!C48*'#db'!$D$3</f>
         <v>42300</v>
       </c>
     </row>
@@ -10842,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="G350">
-        <f>db!C49*db!$D$3</f>
+        <f>'#db'!C49*'#db'!$D$3</f>
         <v>43200</v>
       </c>
     </row>
@@ -10866,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="G351">
-        <f>db!C50*db!$D$3</f>
+        <f>'#db'!C50*'#db'!$D$3</f>
         <v>44100</v>
       </c>
     </row>
@@ -10890,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="G352">
-        <f>db!C51*db!$D$3</f>
+        <f>'#db'!C51*'#db'!$D$3</f>
         <v>45000</v>
       </c>
     </row>
@@ -10914,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="G353">
-        <f>db!C52*db!$D$3</f>
+        <f>'#db'!C52*'#db'!$D$3</f>
         <v>45900</v>
       </c>
     </row>
@@ -10938,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="G354">
-        <f>db!C53*db!$D$3</f>
+        <f>'#db'!C53*'#db'!$D$3</f>
         <v>46800</v>
       </c>
     </row>
@@ -10962,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="G355">
-        <f>db!C54*db!$D$3</f>
+        <f>'#db'!C54*'#db'!$D$3</f>
         <v>47700</v>
       </c>
     </row>
@@ -10986,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="G356">
-        <f>db!C55*db!$D$3</f>
+        <f>'#db'!C55*'#db'!$D$3</f>
         <v>48600</v>
       </c>
     </row>
@@ -11010,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="G357">
-        <f>db!C56*db!$D$3</f>
+        <f>'#db'!C56*'#db'!$D$3</f>
         <v>49500</v>
       </c>
     </row>
@@ -11034,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="G358">
-        <f>db!C57*db!$D$3</f>
+        <f>'#db'!C57*'#db'!$D$3</f>
         <v>50400</v>
       </c>
     </row>
@@ -11058,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="G359">
-        <f>db!C58*db!$D$3</f>
+        <f>'#db'!C58*'#db'!$D$3</f>
         <v>51300</v>
       </c>
     </row>
@@ -11082,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="G360">
-        <f>db!C59*db!$D$3</f>
+        <f>'#db'!C59*'#db'!$D$3</f>
         <v>52200</v>
       </c>
     </row>
@@ -11106,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="G361">
-        <f>db!C60*db!$D$3</f>
+        <f>'#db'!C60*'#db'!$D$3</f>
         <v>53100</v>
       </c>
     </row>
@@ -11130,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="G362">
-        <f>db!C61*db!$D$3</f>
+        <f>'#db'!C61*'#db'!$D$3</f>
         <v>54000</v>
       </c>
     </row>
@@ -11154,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="G363">
-        <f>db!C62*db!$D$3</f>
+        <f>'#db'!C62*'#db'!$D$3</f>
         <v>54900</v>
       </c>
     </row>
@@ -11178,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="G364">
-        <f>db!C63*db!$D$3</f>
+        <f>'#db'!C63*'#db'!$D$3</f>
         <v>55800</v>
       </c>
     </row>
@@ -11202,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="G365">
-        <f>db!C64*db!$D$3</f>
+        <f>'#db'!C64*'#db'!$D$3</f>
         <v>56700</v>
       </c>
     </row>
@@ -11226,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="G366">
-        <f>db!C65*db!$D$3</f>
+        <f>'#db'!C65*'#db'!$D$3</f>
         <v>57600</v>
       </c>
     </row>
@@ -11250,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="G367">
-        <f>db!C66*db!$D$3</f>
+        <f>'#db'!C66*'#db'!$D$3</f>
         <v>58500</v>
       </c>
     </row>
@@ -11274,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="G368">
-        <f>db!C67*db!$D$3</f>
+        <f>'#db'!C67*'#db'!$D$3</f>
         <v>59400</v>
       </c>
     </row>
@@ -11298,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="G369">
-        <f>db!C68*db!$D$3</f>
+        <f>'#db'!C68*'#db'!$D$3</f>
         <v>60300</v>
       </c>
     </row>
@@ -11322,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="G370">
-        <f>db!C69*db!$D$3</f>
+        <f>'#db'!C69*'#db'!$D$3</f>
         <v>61200</v>
       </c>
     </row>
@@ -11346,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G371">
-        <f>db!C70*db!$D$3</f>
+        <f>'#db'!C70*'#db'!$D$3</f>
         <v>62100</v>
       </c>
     </row>
@@ -11370,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="G372">
-        <f>db!C71*db!$D$3</f>
+        <f>'#db'!C71*'#db'!$D$3</f>
         <v>63000</v>
       </c>
     </row>
@@ -11394,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="G373">
-        <f>db!C72*db!$D$3</f>
+        <f>'#db'!C72*'#db'!$D$3</f>
         <v>63900</v>
       </c>
     </row>
@@ -11418,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="G374">
-        <f>db!C73*db!$D$3</f>
+        <f>'#db'!C73*'#db'!$D$3</f>
         <v>64800</v>
       </c>
     </row>
@@ -11442,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="G375">
-        <f>db!C74*db!$D$3</f>
+        <f>'#db'!C74*'#db'!$D$3</f>
         <v>65700</v>
       </c>
     </row>
@@ -11466,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="G376">
-        <f>db!C75*db!$D$3</f>
+        <f>'#db'!C75*'#db'!$D$3</f>
         <v>66600</v>
       </c>
     </row>
@@ -11490,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="G377">
-        <f>db!C76*db!$D$3</f>
+        <f>'#db'!C76*'#db'!$D$3</f>
         <v>67500</v>
       </c>
     </row>
@@ -11514,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="G378">
-        <f>db!C77*db!$D$3</f>
+        <f>'#db'!C77*'#db'!$D$3</f>
         <v>68400</v>
       </c>
     </row>
@@ -11538,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="G379">
-        <f>db!C78*db!$D$3</f>
+        <f>'#db'!C78*'#db'!$D$3</f>
         <v>69300</v>
       </c>
     </row>
@@ -11562,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="G380">
-        <f>db!C79*db!$D$3</f>
+        <f>'#db'!C79*'#db'!$D$3</f>
         <v>70200</v>
       </c>
     </row>
@@ -11586,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="G381">
-        <f>db!C80*db!$D$3</f>
+        <f>'#db'!C80*'#db'!$D$3</f>
         <v>71100</v>
       </c>
     </row>
@@ -11610,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="G382">
-        <f>db!C81*db!$D$3</f>
+        <f>'#db'!C81*'#db'!$D$3</f>
         <v>72000</v>
       </c>
     </row>
@@ -11634,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="G383">
-        <f>db!C82*db!$D$3</f>
+        <f>'#db'!C82*'#db'!$D$3</f>
         <v>72900</v>
       </c>
     </row>
@@ -11658,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="G384">
-        <f>db!C83*db!$D$3</f>
+        <f>'#db'!C83*'#db'!$D$3</f>
         <v>73800</v>
       </c>
     </row>
@@ -11682,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="G385">
-        <f>db!C84*db!$D$3</f>
+        <f>'#db'!C84*'#db'!$D$3</f>
         <v>74700</v>
       </c>
     </row>
@@ -11706,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="G386">
-        <f>db!C85*db!$D$3</f>
+        <f>'#db'!C85*'#db'!$D$3</f>
         <v>75600</v>
       </c>
     </row>
@@ -11730,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="G387">
-        <f>db!C86*db!$D$3</f>
+        <f>'#db'!C86*'#db'!$D$3</f>
         <v>76500</v>
       </c>
     </row>
@@ -11754,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="G388">
-        <f>db!C87*db!$D$3</f>
+        <f>'#db'!C87*'#db'!$D$3</f>
         <v>77400</v>
       </c>
     </row>
@@ -11778,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="G389">
-        <f>db!C88*db!$D$3</f>
+        <f>'#db'!C88*'#db'!$D$3</f>
         <v>78300</v>
       </c>
     </row>
@@ -11802,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="G390">
-        <f>db!C89*db!$D$3</f>
+        <f>'#db'!C89*'#db'!$D$3</f>
         <v>79200</v>
       </c>
     </row>
@@ -11826,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="G391">
-        <f>db!C90*db!$D$3</f>
+        <f>'#db'!C90*'#db'!$D$3</f>
         <v>80100</v>
       </c>
     </row>
@@ -11850,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="G392">
-        <f>db!C91*db!$D$3</f>
+        <f>'#db'!C91*'#db'!$D$3</f>
         <v>81000</v>
       </c>
     </row>
@@ -11874,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="G393">
-        <f>db!C92*db!$D$3</f>
+        <f>'#db'!C92*'#db'!$D$3</f>
         <v>81900</v>
       </c>
     </row>
@@ -11898,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="G394">
-        <f>db!C93*db!$D$3</f>
+        <f>'#db'!C93*'#db'!$D$3</f>
         <v>82800</v>
       </c>
     </row>
@@ -11922,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="G395">
-        <f>db!C94*db!$D$3</f>
+        <f>'#db'!C94*'#db'!$D$3</f>
         <v>83700</v>
       </c>
     </row>
@@ -11946,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="G396">
-        <f>db!C95*db!$D$3</f>
+        <f>'#db'!C95*'#db'!$D$3</f>
         <v>84600</v>
       </c>
     </row>
@@ -11970,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="G397">
-        <f>db!C96*db!$D$3</f>
+        <f>'#db'!C96*'#db'!$D$3</f>
         <v>85500</v>
       </c>
     </row>
@@ -11994,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="G398">
-        <f>db!C97*db!$D$3</f>
+        <f>'#db'!C97*'#db'!$D$3</f>
         <v>86400</v>
       </c>
     </row>
@@ -12018,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="G399">
-        <f>db!C98*db!$D$3</f>
+        <f>'#db'!C98*'#db'!$D$3</f>
         <v>87300</v>
       </c>
     </row>
@@ -12042,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="G400">
-        <f>db!C99*db!$D$3</f>
+        <f>'#db'!C99*'#db'!$D$3</f>
         <v>88200</v>
       </c>
     </row>
@@ -12089,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="G402">
-        <f>db!D4</f>
+        <f>'#db'!D4</f>
         <v>4500</v>
       </c>
       <c r="H402" s="19">
@@ -12117,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="G403">
-        <f>db!C2*db!$D$4</f>
+        <f>'#db'!C2*'#db'!$D$4</f>
         <v>13500</v>
       </c>
     </row>
@@ -12141,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="G404">
-        <f>db!C3*db!$D$4</f>
+        <f>'#db'!C3*'#db'!$D$4</f>
         <v>27000</v>
       </c>
     </row>
@@ -12165,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="G405">
-        <f>db!C4*db!$D$4</f>
+        <f>'#db'!C4*'#db'!$D$4</f>
         <v>40500</v>
       </c>
     </row>
@@ -12189,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="G406">
-        <f>db!C5*db!$D$4</f>
+        <f>'#db'!C5*'#db'!$D$4</f>
         <v>54000</v>
       </c>
     </row>
@@ -12213,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="G407">
-        <f>db!C6*db!$D$4</f>
+        <f>'#db'!C6*'#db'!$D$4</f>
         <v>67500</v>
       </c>
     </row>
@@ -12237,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="G408">
-        <f>db!C7*db!$D$4</f>
+        <f>'#db'!C7*'#db'!$D$4</f>
         <v>81000</v>
       </c>
     </row>
@@ -12261,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="G409">
-        <f>db!C8*db!$D$4</f>
+        <f>'#db'!C8*'#db'!$D$4</f>
         <v>94500</v>
       </c>
     </row>
@@ -12285,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="G410">
-        <f>db!C9*db!$D$4</f>
+        <f>'#db'!C9*'#db'!$D$4</f>
         <v>108000</v>
       </c>
     </row>
@@ -12309,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="G411">
-        <f>db!C10*db!$D$4</f>
+        <f>'#db'!C10*'#db'!$D$4</f>
         <v>121500</v>
       </c>
     </row>
@@ -12333,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="G412">
-        <f>db!C11*db!$D$4</f>
+        <f>'#db'!C11*'#db'!$D$4</f>
         <v>135000</v>
       </c>
     </row>
@@ -12357,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="G413">
-        <f>db!C12*db!$D$4</f>
+        <f>'#db'!C12*'#db'!$D$4</f>
         <v>148500</v>
       </c>
     </row>
@@ -12381,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="G414">
-        <f>db!C13*db!$D$4</f>
+        <f>'#db'!C13*'#db'!$D$4</f>
         <v>162000</v>
       </c>
     </row>
@@ -12405,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="G415">
-        <f>db!C14*db!$D$4</f>
+        <f>'#db'!C14*'#db'!$D$4</f>
         <v>175500</v>
       </c>
     </row>
@@ -12429,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="G416">
-        <f>db!C15*db!$D$4</f>
+        <f>'#db'!C15*'#db'!$D$4</f>
         <v>189000</v>
       </c>
     </row>
@@ -12453,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="G417">
-        <f>db!C16*db!$D$4</f>
+        <f>'#db'!C16*'#db'!$D$4</f>
         <v>202500</v>
       </c>
     </row>
@@ -12477,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="G418">
-        <f>db!C17*db!$D$4</f>
+        <f>'#db'!C17*'#db'!$D$4</f>
         <v>216000</v>
       </c>
     </row>
@@ -12501,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="G419">
-        <f>db!C18*db!$D$4</f>
+        <f>'#db'!C18*'#db'!$D$4</f>
         <v>229500</v>
       </c>
     </row>
@@ -12525,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="G420">
-        <f>db!C19*db!$D$4</f>
+        <f>'#db'!C19*'#db'!$D$4</f>
         <v>243000</v>
       </c>
     </row>
@@ -12549,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="G421">
-        <f>db!C20*db!$D$4</f>
+        <f>'#db'!C20*'#db'!$D$4</f>
         <v>256500</v>
       </c>
     </row>
@@ -12573,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="G422">
-        <f>db!C21*db!$D$4</f>
+        <f>'#db'!C21*'#db'!$D$4</f>
         <v>270000</v>
       </c>
     </row>
@@ -12597,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="G423">
-        <f>db!C22*db!$D$4</f>
+        <f>'#db'!C22*'#db'!$D$4</f>
         <v>283500</v>
       </c>
     </row>
@@ -12621,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="G424">
-        <f>db!C23*db!$D$4</f>
+        <f>'#db'!C23*'#db'!$D$4</f>
         <v>297000</v>
       </c>
     </row>
@@ -12645,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="G425">
-        <f>db!C24*db!$D$4</f>
+        <f>'#db'!C24*'#db'!$D$4</f>
         <v>310500</v>
       </c>
     </row>
@@ -12669,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="G426">
-        <f>db!C25*db!$D$4</f>
+        <f>'#db'!C25*'#db'!$D$4</f>
         <v>324000</v>
       </c>
     </row>
@@ -12693,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="G427">
-        <f>db!C26*db!$D$4</f>
+        <f>'#db'!C26*'#db'!$D$4</f>
         <v>337500</v>
       </c>
     </row>
@@ -12717,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="G428">
-        <f>db!C27*db!$D$4</f>
+        <f>'#db'!C27*'#db'!$D$4</f>
         <v>351000</v>
       </c>
     </row>
@@ -12741,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="G429">
-        <f>db!C28*db!$D$4</f>
+        <f>'#db'!C28*'#db'!$D$4</f>
         <v>364500</v>
       </c>
     </row>
@@ -12765,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="G430">
-        <f>db!C29*db!$D$4</f>
+        <f>'#db'!C29*'#db'!$D$4</f>
         <v>378000</v>
       </c>
     </row>
@@ -12789,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="G431">
-        <f>db!C30*db!$D$4</f>
+        <f>'#db'!C30*'#db'!$D$4</f>
         <v>391500</v>
       </c>
     </row>
@@ -12813,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="G432">
-        <f>db!C31*db!$D$4</f>
+        <f>'#db'!C31*'#db'!$D$4</f>
         <v>405000</v>
       </c>
     </row>
@@ -12837,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="G433">
-        <f>db!C32*db!$D$4</f>
+        <f>'#db'!C32*'#db'!$D$4</f>
         <v>418500</v>
       </c>
     </row>
@@ -12861,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="G434">
-        <f>db!C33*db!$D$4</f>
+        <f>'#db'!C33*'#db'!$D$4</f>
         <v>432000</v>
       </c>
     </row>
@@ -12885,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="G435">
-        <f>db!C34*db!$D$4</f>
+        <f>'#db'!C34*'#db'!$D$4</f>
         <v>445500</v>
       </c>
     </row>
@@ -12909,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="G436">
-        <f>db!C35*db!$D$4</f>
+        <f>'#db'!C35*'#db'!$D$4</f>
         <v>459000</v>
       </c>
     </row>
@@ -12933,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="G437">
-        <f>db!C36*db!$D$4</f>
+        <f>'#db'!C36*'#db'!$D$4</f>
         <v>472500</v>
       </c>
     </row>
@@ -12957,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="G438">
-        <f>db!C37*db!$D$4</f>
+        <f>'#db'!C37*'#db'!$D$4</f>
         <v>486000</v>
       </c>
     </row>
@@ -12981,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="G439">
-        <f>db!C38*db!$D$4</f>
+        <f>'#db'!C38*'#db'!$D$4</f>
         <v>499500</v>
       </c>
     </row>
@@ -13005,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="G440">
-        <f>db!C39*db!$D$4</f>
+        <f>'#db'!C39*'#db'!$D$4</f>
         <v>513000</v>
       </c>
     </row>
@@ -13029,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="G441">
-        <f>db!C40*db!$D$4</f>
+        <f>'#db'!C40*'#db'!$D$4</f>
         <v>526500</v>
       </c>
     </row>
@@ -13053,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="G442">
-        <f>db!C41*db!$D$4</f>
+        <f>'#db'!C41*'#db'!$D$4</f>
         <v>540000</v>
       </c>
     </row>
@@ -13077,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="G443">
-        <f>db!C42*db!$D$4</f>
+        <f>'#db'!C42*'#db'!$D$4</f>
         <v>553500</v>
       </c>
     </row>
@@ -13101,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="G444">
-        <f>db!C43*db!$D$4</f>
+        <f>'#db'!C43*'#db'!$D$4</f>
         <v>567000</v>
       </c>
     </row>
@@ -13125,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="G445">
-        <f>db!C44*db!$D$4</f>
+        <f>'#db'!C44*'#db'!$D$4</f>
         <v>580500</v>
       </c>
     </row>
@@ -13149,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="G446">
-        <f>db!C45*db!$D$4</f>
+        <f>'#db'!C45*'#db'!$D$4</f>
         <v>594000</v>
       </c>
     </row>
@@ -13173,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="G447">
-        <f>db!C46*db!$D$4</f>
+        <f>'#db'!C46*'#db'!$D$4</f>
         <v>607500</v>
       </c>
     </row>
@@ -13197,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="G448">
-        <f>db!C47*db!$D$4</f>
+        <f>'#db'!C47*'#db'!$D$4</f>
         <v>621000</v>
       </c>
     </row>
@@ -13221,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="G449">
-        <f>db!C48*db!$D$4</f>
+        <f>'#db'!C48*'#db'!$D$4</f>
         <v>634500</v>
       </c>
     </row>
@@ -13245,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="G450">
-        <f>db!C49*db!$D$4</f>
+        <f>'#db'!C49*'#db'!$D$4</f>
         <v>648000</v>
       </c>
     </row>
@@ -13269,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="G451">
-        <f>db!C50*db!$D$4</f>
+        <f>'#db'!C50*'#db'!$D$4</f>
         <v>661500</v>
       </c>
     </row>
@@ -13293,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="G452">
-        <f>db!C51*db!$D$4</f>
+        <f>'#db'!C51*'#db'!$D$4</f>
         <v>675000</v>
       </c>
     </row>
@@ -13317,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="G453">
-        <f>db!C52*db!$D$4</f>
+        <f>'#db'!C52*'#db'!$D$4</f>
         <v>688500</v>
       </c>
     </row>
@@ -13341,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="G454">
-        <f>db!C53*db!$D$4</f>
+        <f>'#db'!C53*'#db'!$D$4</f>
         <v>702000</v>
       </c>
     </row>
@@ -13365,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="G455">
-        <f>db!C54*db!$D$4</f>
+        <f>'#db'!C54*'#db'!$D$4</f>
         <v>715500</v>
       </c>
     </row>
@@ -13389,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="G456">
-        <f>db!C55*db!$D$4</f>
+        <f>'#db'!C55*'#db'!$D$4</f>
         <v>729000</v>
       </c>
     </row>
@@ -13413,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="G457">
-        <f>db!C56*db!$D$4</f>
+        <f>'#db'!C56*'#db'!$D$4</f>
         <v>742500</v>
       </c>
     </row>
@@ -13437,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="G458">
-        <f>db!C57*db!$D$4</f>
+        <f>'#db'!C57*'#db'!$D$4</f>
         <v>756000</v>
       </c>
     </row>
@@ -13461,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="G459">
-        <f>db!C58*db!$D$4</f>
+        <f>'#db'!C58*'#db'!$D$4</f>
         <v>769500</v>
       </c>
     </row>
@@ -13485,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="G460">
-        <f>db!C59*db!$D$4</f>
+        <f>'#db'!C59*'#db'!$D$4</f>
         <v>783000</v>
       </c>
     </row>
@@ -13509,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="G461">
-        <f>db!C60*db!$D$4</f>
+        <f>'#db'!C60*'#db'!$D$4</f>
         <v>796500</v>
       </c>
     </row>
@@ -13533,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="G462">
-        <f>db!C61*db!$D$4</f>
+        <f>'#db'!C61*'#db'!$D$4</f>
         <v>810000</v>
       </c>
     </row>
@@ -13557,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="G463">
-        <f>db!C62*db!$D$4</f>
+        <f>'#db'!C62*'#db'!$D$4</f>
         <v>823500</v>
       </c>
     </row>
@@ -13581,7 +13750,7 @@
         <v>0</v>
       </c>
       <c r="G464">
-        <f>db!C63*db!$D$4</f>
+        <f>'#db'!C63*'#db'!$D$4</f>
         <v>837000</v>
       </c>
     </row>
@@ -13605,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="G465">
-        <f>db!C64*db!$D$4</f>
+        <f>'#db'!C64*'#db'!$D$4</f>
         <v>850500</v>
       </c>
     </row>
@@ -13629,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="G466">
-        <f>db!C65*db!$D$4</f>
+        <f>'#db'!C65*'#db'!$D$4</f>
         <v>864000</v>
       </c>
     </row>
@@ -13653,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="G467">
-        <f>db!C66*db!$D$4</f>
+        <f>'#db'!C66*'#db'!$D$4</f>
         <v>877500</v>
       </c>
     </row>
@@ -13677,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="G468">
-        <f>db!C67*db!$D$4</f>
+        <f>'#db'!C67*'#db'!$D$4</f>
         <v>891000</v>
       </c>
     </row>
@@ -13701,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="G469">
-        <f>db!C68*db!$D$4</f>
+        <f>'#db'!C68*'#db'!$D$4</f>
         <v>904500</v>
       </c>
     </row>
@@ -13725,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="G470">
-        <f>db!C69*db!$D$4</f>
+        <f>'#db'!C69*'#db'!$D$4</f>
         <v>918000</v>
       </c>
     </row>
@@ -13749,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="G471">
-        <f>db!C70*db!$D$4</f>
+        <f>'#db'!C70*'#db'!$D$4</f>
         <v>931500</v>
       </c>
     </row>
@@ -13773,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="G472">
-        <f>db!C71*db!$D$4</f>
+        <f>'#db'!C71*'#db'!$D$4</f>
         <v>945000</v>
       </c>
     </row>
@@ -13797,7 +13966,7 @@
         <v>0</v>
       </c>
       <c r="G473">
-        <f>db!C72*db!$D$4</f>
+        <f>'#db'!C72*'#db'!$D$4</f>
         <v>958500</v>
       </c>
     </row>
@@ -13821,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="G474">
-        <f>db!C73*db!$D$4</f>
+        <f>'#db'!C73*'#db'!$D$4</f>
         <v>972000</v>
       </c>
     </row>
@@ -13845,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="G475">
-        <f>db!C74*db!$D$4</f>
+        <f>'#db'!C74*'#db'!$D$4</f>
         <v>985500</v>
       </c>
     </row>
@@ -13869,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="G476">
-        <f>db!C75*db!$D$4</f>
+        <f>'#db'!C75*'#db'!$D$4</f>
         <v>999000</v>
       </c>
     </row>
@@ -13893,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="G477">
-        <f>db!C76*db!$D$4</f>
+        <f>'#db'!C76*'#db'!$D$4</f>
         <v>1012500</v>
       </c>
     </row>
@@ -13917,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="G478">
-        <f>db!C77*db!$D$4</f>
+        <f>'#db'!C77*'#db'!$D$4</f>
         <v>1026000</v>
       </c>
     </row>
@@ -13941,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="G479">
-        <f>db!C78*db!$D$4</f>
+        <f>'#db'!C78*'#db'!$D$4</f>
         <v>1039500</v>
       </c>
     </row>
@@ -13965,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="G480">
-        <f>db!C79*db!$D$4</f>
+        <f>'#db'!C79*'#db'!$D$4</f>
         <v>1053000</v>
       </c>
     </row>
@@ -13989,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="G481">
-        <f>db!C80*db!$D$4</f>
+        <f>'#db'!C80*'#db'!$D$4</f>
         <v>1066500</v>
       </c>
     </row>
@@ -14013,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="G482">
-        <f>db!C81*db!$D$4</f>
+        <f>'#db'!C81*'#db'!$D$4</f>
         <v>1080000</v>
       </c>
     </row>
@@ -14037,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="G483">
-        <f>db!C82*db!$D$4</f>
+        <f>'#db'!C82*'#db'!$D$4</f>
         <v>1093500</v>
       </c>
     </row>
@@ -14061,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="G484">
-        <f>db!C83*db!$D$4</f>
+        <f>'#db'!C83*'#db'!$D$4</f>
         <v>1107000</v>
       </c>
     </row>
@@ -14085,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="G485">
-        <f>db!C84*db!$D$4</f>
+        <f>'#db'!C84*'#db'!$D$4</f>
         <v>1120500</v>
       </c>
     </row>
@@ -14109,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="G486">
-        <f>db!C85*db!$D$4</f>
+        <f>'#db'!C85*'#db'!$D$4</f>
         <v>1134000</v>
       </c>
     </row>
@@ -14133,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="G487">
-        <f>db!C86*db!$D$4</f>
+        <f>'#db'!C86*'#db'!$D$4</f>
         <v>1147500</v>
       </c>
     </row>
@@ -14157,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="G488">
-        <f>db!C87*db!$D$4</f>
+        <f>'#db'!C87*'#db'!$D$4</f>
         <v>1161000</v>
       </c>
     </row>
@@ -14181,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="G489">
-        <f>db!C88*db!$D$4</f>
+        <f>'#db'!C88*'#db'!$D$4</f>
         <v>1174500</v>
       </c>
     </row>
@@ -14205,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="G490">
-        <f>db!C89*db!$D$4</f>
+        <f>'#db'!C89*'#db'!$D$4</f>
         <v>1188000</v>
       </c>
     </row>
@@ -14229,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="G491">
-        <f>db!C90*db!$D$4</f>
+        <f>'#db'!C90*'#db'!$D$4</f>
         <v>1201500</v>
       </c>
     </row>
@@ -14253,7 +14422,7 @@
         <v>0</v>
       </c>
       <c r="G492">
-        <f>db!C91*db!$D$4</f>
+        <f>'#db'!C91*'#db'!$D$4</f>
         <v>1215000</v>
       </c>
     </row>
@@ -14277,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="G493">
-        <f>db!C92*db!$D$4</f>
+        <f>'#db'!C92*'#db'!$D$4</f>
         <v>1228500</v>
       </c>
     </row>
@@ -14301,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="G494">
-        <f>db!C93*db!$D$4</f>
+        <f>'#db'!C93*'#db'!$D$4</f>
         <v>1242000</v>
       </c>
     </row>
@@ -14325,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="G495">
-        <f>db!C94*db!$D$4</f>
+        <f>'#db'!C94*'#db'!$D$4</f>
         <v>1255500</v>
       </c>
     </row>
@@ -14349,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="G496">
-        <f>db!C95*db!$D$4</f>
+        <f>'#db'!C95*'#db'!$D$4</f>
         <v>1269000</v>
       </c>
     </row>
@@ -14373,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="G497">
-        <f>db!C96*db!$D$4</f>
+        <f>'#db'!C96*'#db'!$D$4</f>
         <v>1282500</v>
       </c>
     </row>
@@ -14397,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="G498">
-        <f>db!C97*db!$D$4</f>
+        <f>'#db'!C97*'#db'!$D$4</f>
         <v>1296000</v>
       </c>
     </row>
@@ -14421,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="G499">
-        <f>db!C98*db!$D$4</f>
+        <f>'#db'!C98*'#db'!$D$4</f>
         <v>1309500</v>
       </c>
     </row>
@@ -14445,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="G500">
-        <f>db!C99*db!$D$4</f>
+        <f>'#db'!C99*'#db'!$D$4</f>
         <v>1323000</v>
       </c>
     </row>
@@ -14492,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="G502">
-        <f>db!D5</f>
+        <f>'#db'!D5</f>
         <v>67500</v>
       </c>
       <c r="H502" s="19">
@@ -14520,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="G503">
-        <f>db!C2*db!$D$5</f>
+        <f>'#db'!C2*'#db'!$D$5</f>
         <v>202500</v>
       </c>
     </row>
@@ -14544,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="G504">
-        <f>db!C3*db!$D$5</f>
+        <f>'#db'!C3*'#db'!$D$5</f>
         <v>405000</v>
       </c>
     </row>
@@ -14568,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="G505">
-        <f>db!C4*db!$D$5</f>
+        <f>'#db'!C4*'#db'!$D$5</f>
         <v>607500</v>
       </c>
     </row>
@@ -14592,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="G506">
-        <f>db!C5*db!$D$5</f>
+        <f>'#db'!C5*'#db'!$D$5</f>
         <v>810000</v>
       </c>
     </row>
@@ -14616,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="G507">
-        <f>db!C6*db!$D$5</f>
+        <f>'#db'!C6*'#db'!$D$5</f>
         <v>1012500</v>
       </c>
     </row>
@@ -14640,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="G508">
-        <f>db!C7*db!$D$5</f>
+        <f>'#db'!C7*'#db'!$D$5</f>
         <v>1215000</v>
       </c>
     </row>
@@ -14664,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="G509">
-        <f>db!C8*db!$D$5</f>
+        <f>'#db'!C8*'#db'!$D$5</f>
         <v>1417500</v>
       </c>
     </row>
@@ -14688,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="G510">
-        <f>db!C9*db!$D$5</f>
+        <f>'#db'!C9*'#db'!$D$5</f>
         <v>1620000</v>
       </c>
     </row>
@@ -14712,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="G511">
-        <f>db!C10*db!$D$5</f>
+        <f>'#db'!C10*'#db'!$D$5</f>
         <v>1822500</v>
       </c>
     </row>
@@ -14736,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="G512">
-        <f>db!C11*db!$D$5</f>
+        <f>'#db'!C11*'#db'!$D$5</f>
         <v>2025000</v>
       </c>
     </row>
@@ -14760,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="G513">
-        <f>db!C12*db!$D$5</f>
+        <f>'#db'!C12*'#db'!$D$5</f>
         <v>2227500</v>
       </c>
     </row>
@@ -14784,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="G514">
-        <f>db!C13*db!$D$5</f>
+        <f>'#db'!C13*'#db'!$D$5</f>
         <v>2430000</v>
       </c>
     </row>
@@ -14808,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="G515">
-        <f>db!C14*db!$D$5</f>
+        <f>'#db'!C14*'#db'!$D$5</f>
         <v>2632500</v>
       </c>
     </row>
@@ -14832,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="G516">
-        <f>db!C15*db!$D$5</f>
+        <f>'#db'!C15*'#db'!$D$5</f>
         <v>2835000</v>
       </c>
     </row>
@@ -14856,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="G517">
-        <f>db!C16*db!$D$5</f>
+        <f>'#db'!C16*'#db'!$D$5</f>
         <v>3037500</v>
       </c>
     </row>
@@ -14880,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="G518">
-        <f>db!C17*db!$D$5</f>
+        <f>'#db'!C17*'#db'!$D$5</f>
         <v>3240000</v>
       </c>
     </row>
@@ -14904,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="G519">
-        <f>db!C18*db!$D$5</f>
+        <f>'#db'!C18*'#db'!$D$5</f>
         <v>3442500</v>
       </c>
     </row>
@@ -14928,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="G520">
-        <f>db!C19*db!$D$5</f>
+        <f>'#db'!C19*'#db'!$D$5</f>
         <v>3645000</v>
       </c>
     </row>
@@ -14952,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="G521">
-        <f>db!C20*db!$D$5</f>
+        <f>'#db'!C20*'#db'!$D$5</f>
         <v>3847500</v>
       </c>
     </row>
@@ -14976,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="G522">
-        <f>db!C21*db!$D$5</f>
+        <f>'#db'!C21*'#db'!$D$5</f>
         <v>4050000</v>
       </c>
     </row>
@@ -15000,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="G523">
-        <f>db!C22*db!$D$5</f>
+        <f>'#db'!C22*'#db'!$D$5</f>
         <v>4252500</v>
       </c>
     </row>
@@ -15024,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="G524">
-        <f>db!C23*db!$D$5</f>
+        <f>'#db'!C23*'#db'!$D$5</f>
         <v>4455000</v>
       </c>
     </row>
@@ -15048,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="G525">
-        <f>db!C24*db!$D$5</f>
+        <f>'#db'!C24*'#db'!$D$5</f>
         <v>4657500</v>
       </c>
     </row>
@@ -15072,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="G526">
-        <f>db!C25*db!$D$5</f>
+        <f>'#db'!C25*'#db'!$D$5</f>
         <v>4860000</v>
       </c>
     </row>
@@ -15096,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="G527">
-        <f>db!C26*db!$D$5</f>
+        <f>'#db'!C26*'#db'!$D$5</f>
         <v>5062500</v>
       </c>
     </row>
@@ -15120,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="G528">
-        <f>db!C27*db!$D$5</f>
+        <f>'#db'!C27*'#db'!$D$5</f>
         <v>5265000</v>
       </c>
     </row>
@@ -15144,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="G529">
-        <f>db!C28*db!$D$5</f>
+        <f>'#db'!C28*'#db'!$D$5</f>
         <v>5467500</v>
       </c>
     </row>
@@ -15168,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="G530">
-        <f>db!C29*db!$D$5</f>
+        <f>'#db'!C29*'#db'!$D$5</f>
         <v>5670000</v>
       </c>
     </row>
@@ -15192,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="G531">
-        <f>db!C30*db!$D$5</f>
+        <f>'#db'!C30*'#db'!$D$5</f>
         <v>5872500</v>
       </c>
     </row>
@@ -15216,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="G532">
-        <f>db!C31*db!$D$5</f>
+        <f>'#db'!C31*'#db'!$D$5</f>
         <v>6075000</v>
       </c>
     </row>
@@ -15240,7 +15409,7 @@
         <v>0</v>
       </c>
       <c r="G533">
-        <f>db!C32*db!$D$5</f>
+        <f>'#db'!C32*'#db'!$D$5</f>
         <v>6277500</v>
       </c>
     </row>
@@ -15264,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="G534">
-        <f>db!C33*db!$D$5</f>
+        <f>'#db'!C33*'#db'!$D$5</f>
         <v>6480000</v>
       </c>
     </row>
@@ -15288,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="G535">
-        <f>db!C34*db!$D$5</f>
+        <f>'#db'!C34*'#db'!$D$5</f>
         <v>6682500</v>
       </c>
     </row>
@@ -15312,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="G536">
-        <f>db!C35*db!$D$5</f>
+        <f>'#db'!C35*'#db'!$D$5</f>
         <v>6885000</v>
       </c>
     </row>
@@ -15336,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="G537">
-        <f>db!C36*db!$D$5</f>
+        <f>'#db'!C36*'#db'!$D$5</f>
         <v>7087500</v>
       </c>
     </row>
@@ -15360,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="G538">
-        <f>db!C37*db!$D$5</f>
+        <f>'#db'!C37*'#db'!$D$5</f>
         <v>7290000</v>
       </c>
     </row>
@@ -15384,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="G539">
-        <f>db!C38*db!$D$5</f>
+        <f>'#db'!C38*'#db'!$D$5</f>
         <v>7492500</v>
       </c>
     </row>
@@ -15408,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="G540">
-        <f>db!C39*db!$D$5</f>
+        <f>'#db'!C39*'#db'!$D$5</f>
         <v>7695000</v>
       </c>
     </row>
@@ -15432,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="G541">
-        <f>db!C40*db!$D$5</f>
+        <f>'#db'!C40*'#db'!$D$5</f>
         <v>7897500</v>
       </c>
     </row>
@@ -15456,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="G542">
-        <f>db!C41*db!$D$5</f>
+        <f>'#db'!C41*'#db'!$D$5</f>
         <v>8100000</v>
       </c>
     </row>
@@ -15480,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="G543">
-        <f>db!C42*db!$D$5</f>
+        <f>'#db'!C42*'#db'!$D$5</f>
         <v>8302500</v>
       </c>
     </row>
@@ -15504,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="G544">
-        <f>db!C43*db!$D$5</f>
+        <f>'#db'!C43*'#db'!$D$5</f>
         <v>8505000</v>
       </c>
     </row>
@@ -15528,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="G545">
-        <f>db!C44*db!$D$5</f>
+        <f>'#db'!C44*'#db'!$D$5</f>
         <v>8707500</v>
       </c>
     </row>
@@ -15552,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="G546">
-        <f>db!C45*db!$D$5</f>
+        <f>'#db'!C45*'#db'!$D$5</f>
         <v>8910000</v>
       </c>
     </row>
@@ -15576,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="G547">
-        <f>db!C46*db!$D$5</f>
+        <f>'#db'!C46*'#db'!$D$5</f>
         <v>9112500</v>
       </c>
     </row>
@@ -15600,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="G548">
-        <f>db!C47*db!$D$5</f>
+        <f>'#db'!C47*'#db'!$D$5</f>
         <v>9315000</v>
       </c>
     </row>
@@ -15624,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="G549">
-        <f>db!C48*db!$D$5</f>
+        <f>'#db'!C48*'#db'!$D$5</f>
         <v>9517500</v>
       </c>
     </row>
@@ -15648,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="G550">
-        <f>db!C49*db!$D$5</f>
+        <f>'#db'!C49*'#db'!$D$5</f>
         <v>9720000</v>
       </c>
     </row>
@@ -15672,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="G551">
-        <f>db!C50*db!$D$5</f>
+        <f>'#db'!C50*'#db'!$D$5</f>
         <v>9922500</v>
       </c>
     </row>
@@ -15696,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="G552">
-        <f>db!C51*db!$D$5</f>
+        <f>'#db'!C51*'#db'!$D$5</f>
         <v>10125000</v>
       </c>
     </row>
@@ -15720,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="G553">
-        <f>db!C52*db!$D$5</f>
+        <f>'#db'!C52*'#db'!$D$5</f>
         <v>10327500</v>
       </c>
     </row>
@@ -15744,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="G554">
-        <f>db!C53*db!$D$5</f>
+        <f>'#db'!C53*'#db'!$D$5</f>
         <v>10530000</v>
       </c>
     </row>
@@ -15768,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="G555">
-        <f>db!C54*db!$D$5</f>
+        <f>'#db'!C54*'#db'!$D$5</f>
         <v>10732500</v>
       </c>
     </row>
@@ -15792,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="G556">
-        <f>db!C55*db!$D$5</f>
+        <f>'#db'!C55*'#db'!$D$5</f>
         <v>10935000</v>
       </c>
     </row>
@@ -15816,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="G557">
-        <f>db!C56*db!$D$5</f>
+        <f>'#db'!C56*'#db'!$D$5</f>
         <v>11137500</v>
       </c>
     </row>
@@ -15840,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="G558">
-        <f>db!C57*db!$D$5</f>
+        <f>'#db'!C57*'#db'!$D$5</f>
         <v>11340000</v>
       </c>
     </row>
@@ -15864,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="G559">
-        <f>db!C58*db!$D$5</f>
+        <f>'#db'!C58*'#db'!$D$5</f>
         <v>11542500</v>
       </c>
     </row>
@@ -15888,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="G560">
-        <f>db!C59*db!$D$5</f>
+        <f>'#db'!C59*'#db'!$D$5</f>
         <v>11745000</v>
       </c>
     </row>
@@ -15912,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="G561">
-        <f>db!C60*db!$D$5</f>
+        <f>'#db'!C60*'#db'!$D$5</f>
         <v>11947500</v>
       </c>
     </row>
@@ -15936,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="G562">
-        <f>db!C61*db!$D$5</f>
+        <f>'#db'!C61*'#db'!$D$5</f>
         <v>12150000</v>
       </c>
     </row>
@@ -15960,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="G563">
-        <f>db!C62*db!$D$5</f>
+        <f>'#db'!C62*'#db'!$D$5</f>
         <v>12352500</v>
       </c>
     </row>
@@ -15984,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="G564">
-        <f>db!C63*db!$D$5</f>
+        <f>'#db'!C63*'#db'!$D$5</f>
         <v>12555000</v>
       </c>
     </row>
@@ -16008,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="G565">
-        <f>db!C64*db!$D$5</f>
+        <f>'#db'!C64*'#db'!$D$5</f>
         <v>12757500</v>
       </c>
     </row>
@@ -16032,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="G566">
-        <f>db!C65*db!$D$5</f>
+        <f>'#db'!C65*'#db'!$D$5</f>
         <v>12960000</v>
       </c>
     </row>
@@ -16056,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="G567">
-        <f>db!C66*db!$D$5</f>
+        <f>'#db'!C66*'#db'!$D$5</f>
         <v>13162500</v>
       </c>
     </row>
@@ -16080,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="G568">
-        <f>db!C67*db!$D$5</f>
+        <f>'#db'!C67*'#db'!$D$5</f>
         <v>13365000</v>
       </c>
     </row>
@@ -16104,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="G569">
-        <f>db!C68*db!$D$5</f>
+        <f>'#db'!C68*'#db'!$D$5</f>
         <v>13567500</v>
       </c>
     </row>
@@ -16128,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="G570">
-        <f>db!C69*db!$D$5</f>
+        <f>'#db'!C69*'#db'!$D$5</f>
         <v>13770000</v>
       </c>
     </row>
@@ -16152,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="G571">
-        <f>db!C70*db!$D$5</f>
+        <f>'#db'!C70*'#db'!$D$5</f>
         <v>13972500</v>
       </c>
     </row>
@@ -16176,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="G572">
-        <f>db!C71*db!$D$5</f>
+        <f>'#db'!C71*'#db'!$D$5</f>
         <v>14175000</v>
       </c>
     </row>
@@ -16200,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="G573">
-        <f>db!C72*db!$D$5</f>
+        <f>'#db'!C72*'#db'!$D$5</f>
         <v>14377500</v>
       </c>
     </row>
@@ -16224,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="G574">
-        <f>db!C73*db!$D$5</f>
+        <f>'#db'!C73*'#db'!$D$5</f>
         <v>14580000</v>
       </c>
     </row>
@@ -16248,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="G575">
-        <f>db!C74*db!$D$5</f>
+        <f>'#db'!C74*'#db'!$D$5</f>
         <v>14782500</v>
       </c>
     </row>
@@ -16272,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="G576">
-        <f>db!C75*db!$D$5</f>
+        <f>'#db'!C75*'#db'!$D$5</f>
         <v>14985000</v>
       </c>
     </row>
@@ -16296,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="G577">
-        <f>db!C76*db!$D$5</f>
+        <f>'#db'!C76*'#db'!$D$5</f>
         <v>15187500</v>
       </c>
     </row>
@@ -16320,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="G578">
-        <f>db!C77*db!$D$5</f>
+        <f>'#db'!C77*'#db'!$D$5</f>
         <v>15390000</v>
       </c>
     </row>
@@ -16344,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="G579">
-        <f>db!C78*db!$D$5</f>
+        <f>'#db'!C78*'#db'!$D$5</f>
         <v>15592500</v>
       </c>
     </row>
@@ -16368,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="G580">
-        <f>db!C79*db!$D$5</f>
+        <f>'#db'!C79*'#db'!$D$5</f>
         <v>15795000</v>
       </c>
     </row>
@@ -16392,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="G581">
-        <f>db!C80*db!$D$5</f>
+        <f>'#db'!C80*'#db'!$D$5</f>
         <v>15997500</v>
       </c>
     </row>
@@ -16416,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="G582">
-        <f>db!C81*db!$D$5</f>
+        <f>'#db'!C81*'#db'!$D$5</f>
         <v>16200000</v>
       </c>
     </row>
@@ -16440,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="G583">
-        <f>db!C82*db!$D$5</f>
+        <f>'#db'!C82*'#db'!$D$5</f>
         <v>16402500</v>
       </c>
     </row>
@@ -16464,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="G584">
-        <f>db!C83*db!$D$5</f>
+        <f>'#db'!C83*'#db'!$D$5</f>
         <v>16605000</v>
       </c>
     </row>
@@ -16488,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="G585">
-        <f>db!C84*db!$D$5</f>
+        <f>'#db'!C84*'#db'!$D$5</f>
         <v>16807500</v>
       </c>
     </row>
@@ -16512,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="G586">
-        <f>db!C85*db!$D$5</f>
+        <f>'#db'!C85*'#db'!$D$5</f>
         <v>17010000</v>
       </c>
     </row>
@@ -16536,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="G587">
-        <f>db!C86*db!$D$5</f>
+        <f>'#db'!C86*'#db'!$D$5</f>
         <v>17212500</v>
       </c>
     </row>
@@ -16560,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="G588">
-        <f>db!C87*db!$D$5</f>
+        <f>'#db'!C87*'#db'!$D$5</f>
         <v>17415000</v>
       </c>
     </row>
@@ -16584,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="G589">
-        <f>db!C88*db!$D$5</f>
+        <f>'#db'!C88*'#db'!$D$5</f>
         <v>17617500</v>
       </c>
     </row>
@@ -16608,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="G590">
-        <f>db!C89*db!$D$5</f>
+        <f>'#db'!C89*'#db'!$D$5</f>
         <v>17820000</v>
       </c>
     </row>
@@ -16632,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="G591">
-        <f>db!C90*db!$D$5</f>
+        <f>'#db'!C90*'#db'!$D$5</f>
         <v>18022500</v>
       </c>
     </row>
@@ -16656,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="G592">
-        <f>db!C91*db!$D$5</f>
+        <f>'#db'!C91*'#db'!$D$5</f>
         <v>18225000</v>
       </c>
     </row>
@@ -16680,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="G593">
-        <f>db!C92*db!$D$5</f>
+        <f>'#db'!C92*'#db'!$D$5</f>
         <v>18427500</v>
       </c>
     </row>
@@ -16704,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="G594">
-        <f>db!C93*db!$D$5</f>
+        <f>'#db'!C93*'#db'!$D$5</f>
         <v>18630000</v>
       </c>
     </row>
@@ -16728,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="G595">
-        <f>db!C94*db!$D$5</f>
+        <f>'#db'!C94*'#db'!$D$5</f>
         <v>18832500</v>
       </c>
     </row>
@@ -16752,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="G596">
-        <f>db!C95*db!$D$5</f>
+        <f>'#db'!C95*'#db'!$D$5</f>
         <v>19035000</v>
       </c>
     </row>
@@ -16776,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="G597">
-        <f>db!C96*db!$D$5</f>
+        <f>'#db'!C96*'#db'!$D$5</f>
         <v>19237500</v>
       </c>
     </row>
@@ -16800,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="G598">
-        <f>db!C97*db!$D$5</f>
+        <f>'#db'!C97*'#db'!$D$5</f>
         <v>19440000</v>
       </c>
     </row>
@@ -16824,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="G599">
-        <f>db!C98*db!$D$5</f>
+        <f>'#db'!C98*'#db'!$D$5</f>
         <v>19642500</v>
       </c>
     </row>
@@ -16848,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="G600">
-        <f>db!C99*db!$D$5</f>
+        <f>'#db'!C99*'#db'!$D$5</f>
         <v>19845000</v>
       </c>
     </row>
@@ -16895,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="G602">
-        <f>db!D6</f>
+        <f>'#db'!D6</f>
         <v>1012500</v>
       </c>
       <c r="H602" s="19">
@@ -16923,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="G603">
-        <f>db!C2*db!$D$6</f>
+        <f>'#db'!C2*'#db'!$D$6</f>
         <v>3037500</v>
       </c>
     </row>
@@ -16947,7 +17116,7 @@
         <v>0</v>
       </c>
       <c r="G604">
-        <f>db!C3*db!$D$6</f>
+        <f>'#db'!C3*'#db'!$D$6</f>
         <v>6075000</v>
       </c>
     </row>
@@ -16971,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="G605">
-        <f>db!C4*db!$D$6</f>
+        <f>'#db'!C4*'#db'!$D$6</f>
         <v>9112500</v>
       </c>
     </row>
@@ -16995,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="G606">
-        <f>db!C5*db!$D$6</f>
+        <f>'#db'!C5*'#db'!$D$6</f>
         <v>12150000</v>
       </c>
     </row>
@@ -17019,7 +17188,7 @@
         <v>0</v>
       </c>
       <c r="G607">
-        <f>db!C6*db!$D$6</f>
+        <f>'#db'!C6*'#db'!$D$6</f>
         <v>15187500</v>
       </c>
     </row>
@@ -17043,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="G608">
-        <f>db!C7*db!$D$6</f>
+        <f>'#db'!C7*'#db'!$D$6</f>
         <v>18225000</v>
       </c>
     </row>
@@ -17067,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="G609">
-        <f>db!C8*db!$D$6</f>
+        <f>'#db'!C8*'#db'!$D$6</f>
         <v>21262500</v>
       </c>
     </row>
@@ -17091,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="G610">
-        <f>db!C9*db!$D$6</f>
+        <f>'#db'!C9*'#db'!$D$6</f>
         <v>24300000</v>
       </c>
     </row>
@@ -17115,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="G611">
-        <f>db!C10*db!$D$6</f>
+        <f>'#db'!C10*'#db'!$D$6</f>
         <v>27337500</v>
       </c>
     </row>
@@ -17139,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="G612">
-        <f>db!C11*db!$D$6</f>
+        <f>'#db'!C11*'#db'!$D$6</f>
         <v>30375000</v>
       </c>
     </row>
@@ -17163,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="G613">
-        <f>db!C12*db!$D$6</f>
+        <f>'#db'!C12*'#db'!$D$6</f>
         <v>33412500</v>
       </c>
     </row>
@@ -17187,7 +17356,7 @@
         <v>0</v>
       </c>
       <c r="G614">
-        <f>db!C13*db!$D$6</f>
+        <f>'#db'!C13*'#db'!$D$6</f>
         <v>36450000</v>
       </c>
     </row>
@@ -17211,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="G615">
-        <f>db!C14*db!$D$6</f>
+        <f>'#db'!C14*'#db'!$D$6</f>
         <v>39487500</v>
       </c>
     </row>
@@ -17235,7 +17404,7 @@
         <v>0</v>
       </c>
       <c r="G616">
-        <f>db!C15*db!$D$6</f>
+        <f>'#db'!C15*'#db'!$D$6</f>
         <v>42525000</v>
       </c>
     </row>
@@ -17259,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="G617">
-        <f>db!C16*db!$D$6</f>
+        <f>'#db'!C16*'#db'!$D$6</f>
         <v>45562500</v>
       </c>
     </row>
@@ -17283,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="G618">
-        <f>db!C17*db!$D$6</f>
+        <f>'#db'!C17*'#db'!$D$6</f>
         <v>48600000</v>
       </c>
     </row>
@@ -17307,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="G619">
-        <f>db!C18*db!$D$6</f>
+        <f>'#db'!C18*'#db'!$D$6</f>
         <v>51637500</v>
       </c>
     </row>
@@ -17331,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="G620">
-        <f>db!C19*db!$D$6</f>
+        <f>'#db'!C19*'#db'!$D$6</f>
         <v>54675000</v>
       </c>
     </row>
@@ -17355,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="G621">
-        <f>db!C20*db!$D$6</f>
+        <f>'#db'!C20*'#db'!$D$6</f>
         <v>57712500</v>
       </c>
     </row>
@@ -17379,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="G622">
-        <f>db!C21*db!$D$6</f>
+        <f>'#db'!C21*'#db'!$D$6</f>
         <v>60750000</v>
       </c>
     </row>
@@ -17403,7 +17572,7 @@
         <v>0</v>
       </c>
       <c r="G623">
-        <f>db!C22*db!$D$6</f>
+        <f>'#db'!C22*'#db'!$D$6</f>
         <v>63787500</v>
       </c>
     </row>
@@ -17427,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="G624">
-        <f>db!C23*db!$D$6</f>
+        <f>'#db'!C23*'#db'!$D$6</f>
         <v>66825000</v>
       </c>
     </row>
@@ -17451,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="G625">
-        <f>db!C24*db!$D$6</f>
+        <f>'#db'!C24*'#db'!$D$6</f>
         <v>69862500</v>
       </c>
     </row>
@@ -17475,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="G626">
-        <f>db!C25*db!$D$6</f>
+        <f>'#db'!C25*'#db'!$D$6</f>
         <v>72900000</v>
       </c>
     </row>
@@ -17499,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="G627">
-        <f>db!C26*db!$D$6</f>
+        <f>'#db'!C26*'#db'!$D$6</f>
         <v>75937500</v>
       </c>
     </row>
@@ -17523,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="G628">
-        <f>db!C27*db!$D$6</f>
+        <f>'#db'!C27*'#db'!$D$6</f>
         <v>78975000</v>
       </c>
     </row>
@@ -17547,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="G629">
-        <f>db!C28*db!$D$6</f>
+        <f>'#db'!C28*'#db'!$D$6</f>
         <v>82012500</v>
       </c>
     </row>
@@ -17571,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="G630">
-        <f>db!C29*db!$D$6</f>
+        <f>'#db'!C29*'#db'!$D$6</f>
         <v>85050000</v>
       </c>
     </row>
@@ -17595,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="G631">
-        <f>db!C30*db!$D$6</f>
+        <f>'#db'!C30*'#db'!$D$6</f>
         <v>88087500</v>
       </c>
     </row>
@@ -17619,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="G632">
-        <f>db!C31*db!$D$6</f>
+        <f>'#db'!C31*'#db'!$D$6</f>
         <v>91125000</v>
       </c>
     </row>
@@ -17643,7 +17812,7 @@
         <v>0</v>
       </c>
       <c r="G633">
-        <f>db!C32*db!$D$6</f>
+        <f>'#db'!C32*'#db'!$D$6</f>
         <v>94162500</v>
       </c>
     </row>
@@ -17667,7 +17836,7 @@
         <v>0</v>
       </c>
       <c r="G634">
-        <f>db!C33*db!$D$6</f>
+        <f>'#db'!C33*'#db'!$D$6</f>
         <v>97200000</v>
       </c>
     </row>
@@ -17691,7 +17860,7 @@
         <v>0</v>
       </c>
       <c r="G635">
-        <f>db!C34*db!$D$6</f>
+        <f>'#db'!C34*'#db'!$D$6</f>
         <v>100237500</v>
       </c>
     </row>
@@ -17715,7 +17884,7 @@
         <v>0</v>
       </c>
       <c r="G636">
-        <f>db!C35*db!$D$6</f>
+        <f>'#db'!C35*'#db'!$D$6</f>
         <v>103275000</v>
       </c>
     </row>
@@ -17739,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="G637">
-        <f>db!C36*db!$D$6</f>
+        <f>'#db'!C36*'#db'!$D$6</f>
         <v>106312500</v>
       </c>
     </row>
@@ -17763,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="G638">
-        <f>db!C37*db!$D$6</f>
+        <f>'#db'!C37*'#db'!$D$6</f>
         <v>109350000</v>
       </c>
     </row>
@@ -17787,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="G639">
-        <f>db!C38*db!$D$6</f>
+        <f>'#db'!C38*'#db'!$D$6</f>
         <v>112387500</v>
       </c>
     </row>
@@ -17811,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="G640">
-        <f>db!C39*db!$D$6</f>
+        <f>'#db'!C39*'#db'!$D$6</f>
         <v>115425000</v>
       </c>
     </row>
@@ -17835,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="G641">
-        <f>db!C40*db!$D$6</f>
+        <f>'#db'!C40*'#db'!$D$6</f>
         <v>118462500</v>
       </c>
     </row>
@@ -17859,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="G642">
-        <f>db!C41*db!$D$6</f>
+        <f>'#db'!C41*'#db'!$D$6</f>
         <v>121500000</v>
       </c>
     </row>
@@ -17883,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="G643">
-        <f>db!C42*db!$D$6</f>
+        <f>'#db'!C42*'#db'!$D$6</f>
         <v>124537500</v>
       </c>
     </row>
@@ -17907,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="G644">
-        <f>db!C43*db!$D$6</f>
+        <f>'#db'!C43*'#db'!$D$6</f>
         <v>127575000</v>
       </c>
     </row>
@@ -17931,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="G645">
-        <f>db!C44*db!$D$6</f>
+        <f>'#db'!C44*'#db'!$D$6</f>
         <v>130612500</v>
       </c>
     </row>
@@ -17955,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="G646">
-        <f>db!C45*db!$D$6</f>
+        <f>'#db'!C45*'#db'!$D$6</f>
         <v>133650000</v>
       </c>
     </row>
@@ -17979,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="G647">
-        <f>db!C46*db!$D$6</f>
+        <f>'#db'!C46*'#db'!$D$6</f>
         <v>136687500</v>
       </c>
     </row>
@@ -18003,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="G648">
-        <f>db!C47*db!$D$6</f>
+        <f>'#db'!C47*'#db'!$D$6</f>
         <v>139725000</v>
       </c>
     </row>
@@ -18027,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="G649">
-        <f>db!C48*db!$D$6</f>
+        <f>'#db'!C48*'#db'!$D$6</f>
         <v>142762500</v>
       </c>
     </row>
@@ -18051,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="G650">
-        <f>db!C49*db!$D$6</f>
+        <f>'#db'!C49*'#db'!$D$6</f>
         <v>145800000</v>
       </c>
     </row>
@@ -18075,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="G651">
-        <f>db!C50*db!$D$6</f>
+        <f>'#db'!C50*'#db'!$D$6</f>
         <v>148837500</v>
       </c>
     </row>
@@ -18099,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="G652">
-        <f>db!C51*db!$D$6</f>
+        <f>'#db'!C51*'#db'!$D$6</f>
         <v>151875000</v>
       </c>
     </row>
@@ -18123,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="G653">
-        <f>db!C52*db!$D$6</f>
+        <f>'#db'!C52*'#db'!$D$6</f>
         <v>154912500</v>
       </c>
     </row>
@@ -18147,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="G654">
-        <f>db!C53*db!$D$6</f>
+        <f>'#db'!C53*'#db'!$D$6</f>
         <v>157950000</v>
       </c>
     </row>
@@ -18171,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="G655">
-        <f>db!C54*db!$D$6</f>
+        <f>'#db'!C54*'#db'!$D$6</f>
         <v>160987500</v>
       </c>
     </row>
@@ -18195,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="G656">
-        <f>db!C55*db!$D$6</f>
+        <f>'#db'!C55*'#db'!$D$6</f>
         <v>164025000</v>
       </c>
     </row>
@@ -18219,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="G657">
-        <f>db!C56*db!$D$6</f>
+        <f>'#db'!C56*'#db'!$D$6</f>
         <v>167062500</v>
       </c>
     </row>
@@ -18243,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="G658">
-        <f>db!C57*db!$D$6</f>
+        <f>'#db'!C57*'#db'!$D$6</f>
         <v>170100000</v>
       </c>
     </row>
@@ -18267,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="G659">
-        <f>db!C58*db!$D$6</f>
+        <f>'#db'!C58*'#db'!$D$6</f>
         <v>173137500</v>
       </c>
     </row>
@@ -18291,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="G660">
-        <f>db!C59*db!$D$6</f>
+        <f>'#db'!C59*'#db'!$D$6</f>
         <v>176175000</v>
       </c>
     </row>
@@ -18315,7 +18484,7 @@
         <v>0</v>
       </c>
       <c r="G661">
-        <f>db!C60*db!$D$6</f>
+        <f>'#db'!C60*'#db'!$D$6</f>
         <v>179212500</v>
       </c>
     </row>
@@ -18339,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="G662">
-        <f>db!C61*db!$D$6</f>
+        <f>'#db'!C61*'#db'!$D$6</f>
         <v>182250000</v>
       </c>
     </row>
@@ -18363,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="G663">
-        <f>db!C62*db!$D$6</f>
+        <f>'#db'!C62*'#db'!$D$6</f>
         <v>185287500</v>
       </c>
     </row>
@@ -18387,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="G664">
-        <f>db!C63*db!$D$6</f>
+        <f>'#db'!C63*'#db'!$D$6</f>
         <v>188325000</v>
       </c>
     </row>
@@ -18411,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="G665">
-        <f>db!C64*db!$D$6</f>
+        <f>'#db'!C64*'#db'!$D$6</f>
         <v>191362500</v>
       </c>
     </row>
@@ -18435,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="G666">
-        <f>db!C65*db!$D$6</f>
+        <f>'#db'!C65*'#db'!$D$6</f>
         <v>194400000</v>
       </c>
     </row>
@@ -18459,7 +18628,7 @@
         <v>0</v>
       </c>
       <c r="G667">
-        <f>db!C66*db!$D$6</f>
+        <f>'#db'!C66*'#db'!$D$6</f>
         <v>197437500</v>
       </c>
     </row>
@@ -18483,7 +18652,7 @@
         <v>0</v>
       </c>
       <c r="G668">
-        <f>db!C67*db!$D$6</f>
+        <f>'#db'!C67*'#db'!$D$6</f>
         <v>200475000</v>
       </c>
     </row>
@@ -18507,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="G669">
-        <f>db!C68*db!$D$6</f>
+        <f>'#db'!C68*'#db'!$D$6</f>
         <v>203512500</v>
       </c>
     </row>
@@ -18531,7 +18700,7 @@
         <v>0</v>
       </c>
       <c r="G670">
-        <f>db!C69*db!$D$6</f>
+        <f>'#db'!C69*'#db'!$D$6</f>
         <v>206550000</v>
       </c>
     </row>
@@ -18555,7 +18724,7 @@
         <v>0</v>
       </c>
       <c r="G671">
-        <f>db!C70*db!$D$6</f>
+        <f>'#db'!C70*'#db'!$D$6</f>
         <v>209587500</v>
       </c>
     </row>
@@ -18579,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="G672">
-        <f>db!C71*db!$D$6</f>
+        <f>'#db'!C71*'#db'!$D$6</f>
         <v>212625000</v>
       </c>
     </row>
@@ -18603,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="G673">
-        <f>db!C72*db!$D$6</f>
+        <f>'#db'!C72*'#db'!$D$6</f>
         <v>215662500</v>
       </c>
     </row>
@@ -18627,7 +18796,7 @@
         <v>0</v>
       </c>
       <c r="G674">
-        <f>db!C73*db!$D$6</f>
+        <f>'#db'!C73*'#db'!$D$6</f>
         <v>218700000</v>
       </c>
     </row>
@@ -18651,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="G675">
-        <f>db!C74*db!$D$6</f>
+        <f>'#db'!C74*'#db'!$D$6</f>
         <v>221737500</v>
       </c>
     </row>
@@ -18675,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="G676">
-        <f>db!C75*db!$D$6</f>
+        <f>'#db'!C75*'#db'!$D$6</f>
         <v>224775000</v>
       </c>
     </row>
@@ -18699,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="G677">
-        <f>db!C76*db!$D$6</f>
+        <f>'#db'!C76*'#db'!$D$6</f>
         <v>227812500</v>
       </c>
     </row>
@@ -18723,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="G678">
-        <f>db!C77*db!$D$6</f>
+        <f>'#db'!C77*'#db'!$D$6</f>
         <v>230850000</v>
       </c>
     </row>
@@ -18747,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="G679">
-        <f>db!C78*db!$D$6</f>
+        <f>'#db'!C78*'#db'!$D$6</f>
         <v>233887500</v>
       </c>
     </row>
@@ -18771,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="G680">
-        <f>db!C79*db!$D$6</f>
+        <f>'#db'!C79*'#db'!$D$6</f>
         <v>236925000</v>
       </c>
     </row>
@@ -18795,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="G681">
-        <f>db!C80*db!$D$6</f>
+        <f>'#db'!C80*'#db'!$D$6</f>
         <v>239962500</v>
       </c>
     </row>
@@ -18819,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="G682">
-        <f>db!C81*db!$D$6</f>
+        <f>'#db'!C81*'#db'!$D$6</f>
         <v>243000000</v>
       </c>
     </row>
@@ -18843,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="G683">
-        <f>db!C82*db!$D$6</f>
+        <f>'#db'!C82*'#db'!$D$6</f>
         <v>246037500</v>
       </c>
     </row>
@@ -18867,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="G684">
-        <f>db!C83*db!$D$6</f>
+        <f>'#db'!C83*'#db'!$D$6</f>
         <v>249075000</v>
       </c>
     </row>
@@ -18891,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="G685">
-        <f>db!C84*db!$D$6</f>
+        <f>'#db'!C84*'#db'!$D$6</f>
         <v>252112500</v>
       </c>
     </row>
@@ -18915,7 +19084,7 @@
         <v>0</v>
       </c>
       <c r="G686">
-        <f>db!C85*db!$D$6</f>
+        <f>'#db'!C85*'#db'!$D$6</f>
         <v>255150000</v>
       </c>
     </row>
@@ -18939,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="G687">
-        <f>db!C86*db!$D$6</f>
+        <f>'#db'!C86*'#db'!$D$6</f>
         <v>258187500</v>
       </c>
     </row>
@@ -18963,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="G688">
-        <f>db!C87*db!$D$6</f>
+        <f>'#db'!C87*'#db'!$D$6</f>
         <v>261225000</v>
       </c>
     </row>
@@ -18987,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="G689">
-        <f>db!C88*db!$D$6</f>
+        <f>'#db'!C88*'#db'!$D$6</f>
         <v>264262500</v>
       </c>
     </row>
@@ -19011,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="G690">
-        <f>db!C89*db!$D$6</f>
+        <f>'#db'!C89*'#db'!$D$6</f>
         <v>267300000</v>
       </c>
     </row>
@@ -19035,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="G691">
-        <f>db!C90*db!$D$6</f>
+        <f>'#db'!C90*'#db'!$D$6</f>
         <v>270337500</v>
       </c>
     </row>
@@ -19059,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="G692">
-        <f>db!C91*db!$D$6</f>
+        <f>'#db'!C91*'#db'!$D$6</f>
         <v>273375000</v>
       </c>
     </row>
@@ -19083,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="G693">
-        <f>db!C92*db!$D$6</f>
+        <f>'#db'!C92*'#db'!$D$6</f>
         <v>276412500</v>
       </c>
     </row>
@@ -19107,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="G694">
-        <f>db!C93*db!$D$6</f>
+        <f>'#db'!C93*'#db'!$D$6</f>
         <v>279450000</v>
       </c>
     </row>
@@ -19131,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="G695">
-        <f>db!C94*db!$D$6</f>
+        <f>'#db'!C94*'#db'!$D$6</f>
         <v>282487500</v>
       </c>
     </row>
@@ -19155,7 +19324,7 @@
         <v>0</v>
       </c>
       <c r="G696">
-        <f>db!C95*db!$D$6</f>
+        <f>'#db'!C95*'#db'!$D$6</f>
         <v>285525000</v>
       </c>
     </row>
@@ -19179,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="G697">
-        <f>db!C96*db!$D$6</f>
+        <f>'#db'!C96*'#db'!$D$6</f>
         <v>288562500</v>
       </c>
     </row>
@@ -19203,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="G698">
-        <f>db!C97*db!$D$6</f>
+        <f>'#db'!C97*'#db'!$D$6</f>
         <v>291600000</v>
       </c>
     </row>
@@ -19227,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="G699">
-        <f>db!C98*db!$D$6</f>
+        <f>'#db'!C98*'#db'!$D$6</f>
         <v>294637500</v>
       </c>
     </row>
@@ -19251,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="G700">
-        <f>db!C99*db!$D$6</f>
+        <f>'#db'!C99*'#db'!$D$6</f>
         <v>297675000</v>
       </c>
     </row>
@@ -19301,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="G702">
-        <f>db!D7</f>
+        <f>'#db'!D7</f>
         <v>15187500</v>
       </c>
     </row>
@@ -19325,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="G703">
-        <f>db!C2*db!$D$7</f>
+        <f>'#db'!C2*'#db'!$D$7</f>
         <v>45562500</v>
       </c>
     </row>
@@ -19349,7 +19518,7 @@
         <v>0</v>
       </c>
       <c r="G704">
-        <f>db!C3*db!$D$7</f>
+        <f>'#db'!C3*'#db'!$D$7</f>
         <v>91125000</v>
       </c>
     </row>
@@ -19373,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="G705">
-        <f>db!C4*db!$D$7</f>
+        <f>'#db'!C4*'#db'!$D$7</f>
         <v>136687500</v>
       </c>
     </row>
@@ -19397,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="G706">
-        <f>db!C5*db!$D$7</f>
+        <f>'#db'!C5*'#db'!$D$7</f>
         <v>182250000</v>
       </c>
     </row>
@@ -19421,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="G707">
-        <f>db!C6*db!$D$7</f>
+        <f>'#db'!C6*'#db'!$D$7</f>
         <v>227812500</v>
       </c>
     </row>
@@ -19445,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="G708">
-        <f>db!C7*db!$D$7</f>
+        <f>'#db'!C7*'#db'!$D$7</f>
         <v>273375000</v>
       </c>
     </row>
@@ -19469,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="G709">
-        <f>db!C8*db!$D$7</f>
+        <f>'#db'!C8*'#db'!$D$7</f>
         <v>318937500</v>
       </c>
     </row>
@@ -19493,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="G710">
-        <f>db!C9*db!$D$7</f>
+        <f>'#db'!C9*'#db'!$D$7</f>
         <v>364500000</v>
       </c>
     </row>
@@ -19517,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="G711">
-        <f>db!C10*db!$D$7</f>
+        <f>'#db'!C10*'#db'!$D$7</f>
         <v>410062500</v>
       </c>
     </row>
@@ -19541,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="G712">
-        <f>db!C11*db!$D$7</f>
+        <f>'#db'!C11*'#db'!$D$7</f>
         <v>455625000</v>
       </c>
     </row>
@@ -19565,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="G713">
-        <f>db!C12*db!$D$7</f>
+        <f>'#db'!C12*'#db'!$D$7</f>
         <v>501187500</v>
       </c>
     </row>
@@ -19589,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="G714">
-        <f>db!C13*db!$D$7</f>
+        <f>'#db'!C13*'#db'!$D$7</f>
         <v>546750000</v>
       </c>
     </row>
@@ -19613,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="G715">
-        <f>db!C14*db!$D$7</f>
+        <f>'#db'!C14*'#db'!$D$7</f>
         <v>592312500</v>
       </c>
     </row>
@@ -19637,7 +19806,7 @@
         <v>0</v>
       </c>
       <c r="G716">
-        <f>db!C15*db!$D$7</f>
+        <f>'#db'!C15*'#db'!$D$7</f>
         <v>637875000</v>
       </c>
     </row>
@@ -19661,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="G717">
-        <f>db!C16*db!$D$7</f>
+        <f>'#db'!C16*'#db'!$D$7</f>
         <v>683437500</v>
       </c>
     </row>
@@ -19685,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="G718">
-        <f>db!C17*db!$D$7</f>
+        <f>'#db'!C17*'#db'!$D$7</f>
         <v>729000000</v>
       </c>
     </row>
@@ -19709,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="G719">
-        <f>db!C18*db!$D$7</f>
+        <f>'#db'!C18*'#db'!$D$7</f>
         <v>774562500</v>
       </c>
     </row>
@@ -19733,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="G720">
-        <f>db!C19*db!$D$7</f>
+        <f>'#db'!C19*'#db'!$D$7</f>
         <v>820125000</v>
       </c>
     </row>
@@ -19757,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="G721">
-        <f>db!C20*db!$D$7</f>
+        <f>'#db'!C20*'#db'!$D$7</f>
         <v>865687500</v>
       </c>
     </row>
@@ -19781,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="G722">
-        <f>db!C21*db!$D$7</f>
+        <f>'#db'!C21*'#db'!$D$7</f>
         <v>911250000</v>
       </c>
     </row>
@@ -19805,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="G723">
-        <f>db!C22*db!$D$7</f>
+        <f>'#db'!C22*'#db'!$D$7</f>
         <v>956812500</v>
       </c>
     </row>
@@ -19829,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="G724">
-        <f>db!C23*db!$D$7</f>
+        <f>'#db'!C23*'#db'!$D$7</f>
         <v>1002375000</v>
       </c>
     </row>
@@ -19853,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="G725">
-        <f>db!C24*db!$D$7</f>
+        <f>'#db'!C24*'#db'!$D$7</f>
         <v>1047937500</v>
       </c>
     </row>
@@ -19877,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="G726">
-        <f>db!C25*db!$D$7</f>
+        <f>'#db'!C25*'#db'!$D$7</f>
         <v>1093500000</v>
       </c>
     </row>
@@ -19901,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="G727">
-        <f>db!C26*db!$D$7</f>
+        <f>'#db'!C26*'#db'!$D$7</f>
         <v>1139062500</v>
       </c>
     </row>
@@ -19925,7 +20094,7 @@
         <v>0</v>
       </c>
       <c r="G728">
-        <f>db!C27*db!$D$7</f>
+        <f>'#db'!C27*'#db'!$D$7</f>
         <v>1184625000</v>
       </c>
     </row>
@@ -19949,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="G729">
-        <f>db!C28*db!$D$7</f>
+        <f>'#db'!C28*'#db'!$D$7</f>
         <v>1230187500</v>
       </c>
     </row>
@@ -19973,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="G730">
-        <f>db!C29*db!$D$7</f>
+        <f>'#db'!C29*'#db'!$D$7</f>
         <v>1275750000</v>
       </c>
     </row>
@@ -19997,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="G731">
-        <f>db!C30*db!$D$7</f>
+        <f>'#db'!C30*'#db'!$D$7</f>
         <v>1321312500</v>
       </c>
     </row>
@@ -20021,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="G732">
-        <f>db!C31*db!$D$7</f>
+        <f>'#db'!C31*'#db'!$D$7</f>
         <v>1366875000</v>
       </c>
     </row>
@@ -20045,7 +20214,7 @@
         <v>0</v>
       </c>
       <c r="G733">
-        <f>db!C32*db!$D$7</f>
+        <f>'#db'!C32*'#db'!$D$7</f>
         <v>1412437500</v>
       </c>
     </row>
@@ -20069,7 +20238,7 @@
         <v>0</v>
       </c>
       <c r="G734">
-        <f>db!C33*db!$D$7</f>
+        <f>'#db'!C33*'#db'!$D$7</f>
         <v>1458000000</v>
       </c>
     </row>
@@ -20093,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="G735">
-        <f>db!C34*db!$D$7</f>
+        <f>'#db'!C34*'#db'!$D$7</f>
         <v>1503562500</v>
       </c>
     </row>
@@ -20117,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="G736">
-        <f>db!C35*db!$D$7</f>
+        <f>'#db'!C35*'#db'!$D$7</f>
         <v>1549125000</v>
       </c>
     </row>
@@ -20141,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="G737">
-        <f>db!C36*db!$D$7</f>
+        <f>'#db'!C36*'#db'!$D$7</f>
         <v>1594687500</v>
       </c>
     </row>
@@ -20165,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="G738">
-        <f>db!C37*db!$D$7</f>
+        <f>'#db'!C37*'#db'!$D$7</f>
         <v>1640250000</v>
       </c>
     </row>
@@ -20189,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="G739">
-        <f>db!C38*db!$D$7</f>
+        <f>'#db'!C38*'#db'!$D$7</f>
         <v>1685812500</v>
       </c>
     </row>
@@ -20213,7 +20382,7 @@
         <v>0</v>
       </c>
       <c r="G740">
-        <f>db!C39*db!$D$7</f>
+        <f>'#db'!C39*'#db'!$D$7</f>
         <v>1731375000</v>
       </c>
     </row>
@@ -20237,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="G741">
-        <f>db!C40*db!$D$7</f>
+        <f>'#db'!C40*'#db'!$D$7</f>
         <v>1776937500</v>
       </c>
     </row>
@@ -20261,7 +20430,7 @@
         <v>0</v>
       </c>
       <c r="G742">
-        <f>db!C41*db!$D$7</f>
+        <f>'#db'!C41*'#db'!$D$7</f>
         <v>1822500000</v>
       </c>
     </row>
@@ -20285,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="G743">
-        <f>db!C42*db!$D$7</f>
+        <f>'#db'!C42*'#db'!$D$7</f>
         <v>1868062500</v>
       </c>
     </row>
@@ -20309,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="G744">
-        <f>db!C43*db!$D$7</f>
+        <f>'#db'!C43*'#db'!$D$7</f>
         <v>1913625000</v>
       </c>
     </row>
@@ -20333,7 +20502,7 @@
         <v>0</v>
       </c>
       <c r="G745">
-        <f>db!C44*db!$D$7</f>
+        <f>'#db'!C44*'#db'!$D$7</f>
         <v>1959187500</v>
       </c>
     </row>
@@ -20357,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="G746">
-        <f>db!C45*db!$D$7</f>
+        <f>'#db'!C45*'#db'!$D$7</f>
         <v>2004750000</v>
       </c>
     </row>
@@ -20381,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="G747">
-        <f>db!C46*db!$D$7</f>
+        <f>'#db'!C46*'#db'!$D$7</f>
         <v>2050312500</v>
       </c>
     </row>
@@ -20405,7 +20574,7 @@
         <v>0</v>
       </c>
       <c r="G748">
-        <f>db!C47*db!$D$7</f>
+        <f>'#db'!C47*'#db'!$D$7</f>
         <v>2095875000</v>
       </c>
     </row>
@@ -20429,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="G749">
-        <f>db!C48*db!$D$7</f>
+        <f>'#db'!C48*'#db'!$D$7</f>
         <v>2141437500</v>
       </c>
     </row>
@@ -20453,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="G750">
-        <f>db!C49*db!$D$7</f>
+        <f>'#db'!C49*'#db'!$D$7</f>
         <v>2187000000</v>
       </c>
     </row>
@@ -20477,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="G751">
-        <f>db!C50*db!$D$7</f>
+        <f>'#db'!C50*'#db'!$D$7</f>
         <v>2232562500</v>
       </c>
     </row>
@@ -20501,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="G752">
-        <f>db!C51*db!$D$7</f>
+        <f>'#db'!C51*'#db'!$D$7</f>
         <v>2278125000</v>
       </c>
     </row>
@@ -20525,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="G753">
-        <f>db!C52*db!$D$7</f>
+        <f>'#db'!C52*'#db'!$D$7</f>
         <v>2323687500</v>
       </c>
     </row>
@@ -20549,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="G754">
-        <f>db!C53*db!$D$7</f>
+        <f>'#db'!C53*'#db'!$D$7</f>
         <v>2369250000</v>
       </c>
     </row>
@@ -20573,7 +20742,7 @@
         <v>0</v>
       </c>
       <c r="G755">
-        <f>db!C54*db!$D$7</f>
+        <f>'#db'!C54*'#db'!$D$7</f>
         <v>2414812500</v>
       </c>
     </row>
@@ -20597,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="G756">
-        <f>db!C55*db!$D$7</f>
+        <f>'#db'!C55*'#db'!$D$7</f>
         <v>2460375000</v>
       </c>
     </row>
@@ -20621,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="G757">
-        <f>db!C56*db!$D$7</f>
+        <f>'#db'!C56*'#db'!$D$7</f>
         <v>2505937500</v>
       </c>
     </row>
@@ -20645,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="G758">
-        <f>db!C57*db!$D$7</f>
+        <f>'#db'!C57*'#db'!$D$7</f>
         <v>2551500000</v>
       </c>
     </row>
@@ -20669,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="G759">
-        <f>db!C58*db!$D$7</f>
+        <f>'#db'!C58*'#db'!$D$7</f>
         <v>2597062500</v>
       </c>
     </row>
@@ -20693,7 +20862,7 @@
         <v>0</v>
       </c>
       <c r="G760">
-        <f>db!C59*db!$D$7</f>
+        <f>'#db'!C59*'#db'!$D$7</f>
         <v>2642625000</v>
       </c>
     </row>
@@ -20717,7 +20886,7 @@
         <v>0</v>
       </c>
       <c r="G761">
-        <f>db!C60*db!$D$7</f>
+        <f>'#db'!C60*'#db'!$D$7</f>
         <v>2688187500</v>
       </c>
     </row>
@@ -20741,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="G762">
-        <f>db!C61*db!$D$7</f>
+        <f>'#db'!C61*'#db'!$D$7</f>
         <v>2733750000</v>
       </c>
     </row>
@@ -20765,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="G763">
-        <f>db!C62*db!$D$7</f>
+        <f>'#db'!C62*'#db'!$D$7</f>
         <v>2779312500</v>
       </c>
     </row>
@@ -20789,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="G764">
-        <f>db!C63*db!$D$7</f>
+        <f>'#db'!C63*'#db'!$D$7</f>
         <v>2824875000</v>
       </c>
     </row>
@@ -20813,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="G765">
-        <f>db!C64*db!$D$7</f>
+        <f>'#db'!C64*'#db'!$D$7</f>
         <v>2870437500</v>
       </c>
     </row>
@@ -20837,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="G766">
-        <f>db!C65*db!$D$7</f>
+        <f>'#db'!C65*'#db'!$D$7</f>
         <v>2916000000</v>
       </c>
     </row>
@@ -20861,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="G767">
-        <f>db!C66*db!$D$7</f>
+        <f>'#db'!C66*'#db'!$D$7</f>
         <v>2961562500</v>
       </c>
     </row>
@@ -20885,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="G768">
-        <f>db!C67*db!$D$7</f>
+        <f>'#db'!C67*'#db'!$D$7</f>
         <v>3007125000</v>
       </c>
     </row>
@@ -20909,7 +21078,7 @@
         <v>0</v>
       </c>
       <c r="G769">
-        <f>db!C68*db!$D$7</f>
+        <f>'#db'!C68*'#db'!$D$7</f>
         <v>3052687500</v>
       </c>
     </row>
@@ -20933,7 +21102,7 @@
         <v>0</v>
       </c>
       <c r="G770">
-        <f>db!C69*db!$D$7</f>
+        <f>'#db'!C69*'#db'!$D$7</f>
         <v>3098250000</v>
       </c>
     </row>
@@ -20957,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="G771">
-        <f>db!C70*db!$D$7</f>
+        <f>'#db'!C70*'#db'!$D$7</f>
         <v>3143812500</v>
       </c>
     </row>
@@ -20981,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="G772">
-        <f>db!C71*db!$D$7</f>
+        <f>'#db'!C71*'#db'!$D$7</f>
         <v>3189375000</v>
       </c>
     </row>
@@ -21005,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="G773">
-        <f>db!C72*db!$D$7</f>
+        <f>'#db'!C72*'#db'!$D$7</f>
         <v>3234937500</v>
       </c>
     </row>
@@ -21029,7 +21198,7 @@
         <v>0</v>
       </c>
       <c r="G774">
-        <f>db!C73*db!$D$7</f>
+        <f>'#db'!C73*'#db'!$D$7</f>
         <v>3280500000</v>
       </c>
     </row>
@@ -21053,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="G775">
-        <f>db!C74*db!$D$7</f>
+        <f>'#db'!C74*'#db'!$D$7</f>
         <v>3326062500</v>
       </c>
     </row>
@@ -21077,7 +21246,7 @@
         <v>0</v>
       </c>
       <c r="G776">
-        <f>db!C75*db!$D$7</f>
+        <f>'#db'!C75*'#db'!$D$7</f>
         <v>3371625000</v>
       </c>
     </row>
@@ -21101,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="G777">
-        <f>db!C76*db!$D$7</f>
+        <f>'#db'!C76*'#db'!$D$7</f>
         <v>3417187500</v>
       </c>
     </row>
@@ -21125,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="G778">
-        <f>db!C77*db!$D$7</f>
+        <f>'#db'!C77*'#db'!$D$7</f>
         <v>3462750000</v>
       </c>
     </row>
@@ -21149,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="G779">
-        <f>db!C78*db!$D$7</f>
+        <f>'#db'!C78*'#db'!$D$7</f>
         <v>3508312500</v>
       </c>
     </row>
@@ -21173,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="G780">
-        <f>db!C79*db!$D$7</f>
+        <f>'#db'!C79*'#db'!$D$7</f>
         <v>3553875000</v>
       </c>
     </row>
@@ -21197,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="G781">
-        <f>db!C80*db!$D$7</f>
+        <f>'#db'!C80*'#db'!$D$7</f>
         <v>3599437500</v>
       </c>
     </row>
@@ -21221,7 +21390,7 @@
         <v>0</v>
       </c>
       <c r="G782">
-        <f>db!C81*db!$D$7</f>
+        <f>'#db'!C81*'#db'!$D$7</f>
         <v>3645000000</v>
       </c>
     </row>
@@ -21245,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="G783">
-        <f>db!C82*db!$D$7</f>
+        <f>'#db'!C82*'#db'!$D$7</f>
         <v>3690562500</v>
       </c>
     </row>
@@ -21269,7 +21438,7 @@
         <v>0</v>
       </c>
       <c r="G784">
-        <f>db!C83*db!$D$7</f>
+        <f>'#db'!C83*'#db'!$D$7</f>
         <v>3736125000</v>
       </c>
     </row>
@@ -21293,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="G785">
-        <f>db!C84*db!$D$7</f>
+        <f>'#db'!C84*'#db'!$D$7</f>
         <v>3781687500</v>
       </c>
     </row>
@@ -21317,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="G786">
-        <f>db!C85*db!$D$7</f>
+        <f>'#db'!C85*'#db'!$D$7</f>
         <v>3827250000</v>
       </c>
     </row>
@@ -21341,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="G787">
-        <f>db!C86*db!$D$7</f>
+        <f>'#db'!C86*'#db'!$D$7</f>
         <v>3872812500</v>
       </c>
     </row>
@@ -21365,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="G788">
-        <f>db!C87*db!$D$7</f>
+        <f>'#db'!C87*'#db'!$D$7</f>
         <v>3918375000</v>
       </c>
     </row>
@@ -21389,7 +21558,7 @@
         <v>0</v>
       </c>
       <c r="G789">
-        <f>db!C88*db!$D$7</f>
+        <f>'#db'!C88*'#db'!$D$7</f>
         <v>3963937500</v>
       </c>
     </row>
@@ -21413,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="G790">
-        <f>db!C89*db!$D$7</f>
+        <f>'#db'!C89*'#db'!$D$7</f>
         <v>4009500000</v>
       </c>
     </row>
@@ -21437,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="G791">
-        <f>db!C90*db!$D$7</f>
+        <f>'#db'!C90*'#db'!$D$7</f>
         <v>4055062500</v>
       </c>
     </row>
@@ -21461,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="G792">
-        <f>db!C91*db!$D$7</f>
+        <f>'#db'!C91*'#db'!$D$7</f>
         <v>4100625000</v>
       </c>
     </row>
@@ -21485,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="G793">
-        <f>db!C92*db!$D$7</f>
+        <f>'#db'!C92*'#db'!$D$7</f>
         <v>4146187500</v>
       </c>
     </row>
@@ -21509,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="G794">
-        <f>db!C93*db!$D$7</f>
+        <f>'#db'!C93*'#db'!$D$7</f>
         <v>4191750000</v>
       </c>
     </row>
@@ -21533,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="G795">
-        <f>db!C94*db!$D$7</f>
+        <f>'#db'!C94*'#db'!$D$7</f>
         <v>4237312500</v>
       </c>
     </row>
@@ -21557,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="G796">
-        <f>db!C95*db!$D$7</f>
+        <f>'#db'!C95*'#db'!$D$7</f>
         <v>4282875000</v>
       </c>
     </row>
@@ -21581,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="G797">
-        <f>db!C96*db!$D$7</f>
+        <f>'#db'!C96*'#db'!$D$7</f>
         <v>4328437500</v>
       </c>
     </row>
@@ -21605,7 +21774,7 @@
         <v>0</v>
       </c>
       <c r="G798">
-        <f>db!C97*db!$D$7</f>
+        <f>'#db'!C97*'#db'!$D$7</f>
         <v>4374000000</v>
       </c>
     </row>
@@ -21629,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="G799">
-        <f>db!C98*db!$D$7</f>
+        <f>'#db'!C98*'#db'!$D$7</f>
         <v>4419562500</v>
       </c>
     </row>
@@ -21653,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="G800">
-        <f>db!C99*db!$D$7</f>
+        <f>'#db'!C99*'#db'!$D$7</f>
         <v>4465125000</v>
       </c>
     </row>
@@ -49688,11 +49857,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413A454D-A568-4166-95BF-0A9D968FA77E}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -49712,7 +49881,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -49761,7 +49930,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <f>buildingDB!G307</f>
+        <f>'#buildingDB'!G307</f>
         <v>4500</v>
       </c>
       <c r="E4" s="19">
@@ -49777,7 +49946,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <f>buildingDB!G407</f>
+        <f>'#buildingDB'!G407</f>
         <v>67500</v>
       </c>
       <c r="E5" s="19">
@@ -49785,7 +49954,7 @@
         <v>819.2</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -49796,7 +49965,7 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <f>buildingDB!G507</f>
+        <f>'#buildingDB'!G507</f>
         <v>1012500</v>
       </c>
       <c r="E6" s="19">
@@ -49804,7 +49973,7 @@
         <v>1310.7200000000003</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -49815,7 +49984,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <f>buildingDB!G607</f>
+        <f>'#buildingDB'!G607</f>
         <v>15187500</v>
       </c>
       <c r="E7" s="19">
@@ -50958,7 +51127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD36158-E42A-42B8-B1F6-11E009D834D9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -50969,13 +51138,13 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B1CF7-3583-4E83-9C80-3215C0D3DDB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5FD40-8085-4942-B1C3-73B484A1CAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -497,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="80">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +773,26 @@
   </si>
   <si>
     <t>NormalRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프1티어 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,9 +1353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1459,7 +1483,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="14">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F6" s="17">
         <v>4500</v>
@@ -1479,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="14">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="F7" s="17">
         <v>67500</v>
@@ -1499,7 +1523,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="14">
-        <v>67500</v>
+        <v>202500</v>
       </c>
       <c r="F8" s="17">
         <v>1012500</v>
@@ -1519,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="14">
-        <v>1012500</v>
+        <v>3073500</v>
       </c>
       <c r="F9" s="17">
         <v>15187500</v>
@@ -1539,7 +1563,7 @@
         <v>53</v>
       </c>
       <c r="E10" s="14">
-        <v>15187500</v>
+        <v>45562500</v>
       </c>
       <c r="F10" s="17">
         <v>30000000</v>
@@ -1559,7 +1583,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="14">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F11" s="17">
         <v>4500</v>
@@ -1579,7 +1603,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="14">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="F12" s="17">
         <v>67500</v>
@@ -1599,7 +1623,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="14">
-        <v>67500</v>
+        <v>202500</v>
       </c>
       <c r="F13" s="17">
         <v>1012500</v>
@@ -1619,7 +1643,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="14">
-        <v>1012500</v>
+        <v>3073500</v>
       </c>
       <c r="F14" s="17">
         <v>15187500</v>
@@ -1639,7 +1663,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="14">
-        <v>15187500</v>
+        <v>45562500</v>
       </c>
       <c r="F15" s="17">
         <v>30000000</v>
@@ -1659,7 +1683,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="14">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F16" s="17">
         <v>4500</v>
@@ -1679,7 +1703,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="14">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="F17" s="17">
         <v>67500</v>
@@ -1699,7 +1723,7 @@
         <v>61</v>
       </c>
       <c r="E18" s="14">
-        <v>67500</v>
+        <v>202500</v>
       </c>
       <c r="F18" s="17">
         <v>1012500</v>
@@ -1719,7 +1743,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="14">
-        <v>1012500</v>
+        <v>3073500</v>
       </c>
       <c r="F19" s="17">
         <v>15187500</v>
@@ -1739,7 +1763,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="14">
-        <v>15187500</v>
+        <v>45562500</v>
       </c>
       <c r="F20" s="17">
         <v>30000000</v>
@@ -1758,7 +1782,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1811,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641302FF-BA0A-4E9E-937C-2EB09702E024}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1853,40 +1877,18 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -1897,11 +1899,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A646BC-77F3-4CD0-9476-1F2E8751959A}">
-  <dimension ref="A1:I1801"/>
+  <dimension ref="A1:M1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H725" sqref="H725:H734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1913,6 +1915,7 @@
     <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -9512,7 +9515,7 @@
         <v>72403484610.059174</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>86884181532.070999</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>104261017838.4852</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>125113221406.18224</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>150135865687.41867</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v>180163038824.9024</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>216195646589.88287</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>259434775907.85944</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>311321731089.43134</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9737,7 +9740,7 @@
         <v>373586077307.31757</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>448303292768.78107</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>537963951322.53723</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>645556741587.04468</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9835,8 +9838,20 @@
       <c r="G301" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J301" t="s">
+        <v>76</v>
+      </c>
+      <c r="K301" t="s">
+        <v>77</v>
+      </c>
+      <c r="L301" t="s">
+        <v>78</v>
+      </c>
+      <c r="M301" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9862,8 +9877,14 @@
         <f>G402</f>
         <v>4500</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J302" t="s">
+        <v>75</v>
+      </c>
+      <c r="K302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9887,7 +9908,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -49862,7 +49883,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51132,7 +51153,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G1" sqref="G1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aomgaomgaomg\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEEA9E1-DABF-4B87-A4BB-2CAEE2E55CCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE0F706-EE21-4879-A92F-1761225A2CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -120,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{C146E8FE-EFF3-4D01-81C9-5767F8100D8A}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{C146E8FE-EFF3-4D01-81C9-5767F8100D8A}">
       <text>
         <r>
           <rPr>
@@ -577,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5508" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5514" uniqueCount="100">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -942,6 +946,18 @@
     <t>언데드 소울 나이트 건물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>buildTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildTimeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1021,7 +1037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1119,13 +1135,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1218,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,11 +1543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1521,11 +1555,13 @@
     <col min="2" max="2" width="9" style="4"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
@@ -1541,14 +1577,20 @@
       <c r="E1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
@@ -1564,14 +1606,20 @@
       <c r="E2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1587,15 +1635,21 @@
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1611,15 +1665,21 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201</v>
       </c>
@@ -1635,15 +1695,21 @@
       <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>301</v>
       </c>
@@ -1659,14 +1725,20 @@
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>900</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>4500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>401</v>
       </c>
@@ -1682,14 +1754,20 @@
       <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
         <v>13500</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>67500</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>501</v>
       </c>
@@ -1705,14 +1783,20 @@
       <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
         <v>202500</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>1012500</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>601</v>
       </c>
@@ -1728,14 +1812,20 @@
       <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6">
         <v>3073500</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>15187500</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>701</v>
       </c>
@@ -1751,14 +1841,20 @@
       <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
         <v>45562500</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>801</v>
       </c>
@@ -1774,14 +1870,20 @@
       <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
         <v>900</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>4500</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>901</v>
       </c>
@@ -1797,14 +1899,20 @@
       <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
         <v>13500</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>67500</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -1820,14 +1928,20 @@
       <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6">
         <v>202500</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>1012500</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1101</v>
       </c>
@@ -1843,14 +1957,20 @@
       <c r="E14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6">
         <v>3073500</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>15187500</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1201</v>
       </c>
@@ -1866,14 +1986,20 @@
       <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
         <v>45562500</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1301</v>
       </c>
@@ -1889,14 +2015,20 @@
       <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6">
         <v>900</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>4500</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1401</v>
       </c>
@@ -1912,14 +2044,20 @@
       <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6">
         <v>13500</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>67500</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1501</v>
       </c>
@@ -1935,14 +2073,20 @@
       <c r="E18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6">
         <v>202500</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>1012500</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1601</v>
       </c>
@@ -1958,14 +2102,20 @@
       <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6">
         <v>3073500</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>15187500</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1701</v>
       </c>
@@ -1981,11 +2131,17 @@
       <c r="E20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6">
         <v>45562500</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>30000000</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2054,19 +2210,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641302FF-BA0A-4E9E-937C-2EB09702E024}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2076,8 +2233,11 @@
       <c r="C1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>44</v>
       </c>
@@ -2087,8 +2247,11 @@
       <c r="C2" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2098,8 +2261,11 @@
       <c r="C3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
@@ -2108,6 +2274,23 @@
       </c>
       <c r="C4">
         <v>1.2</v>
+      </c>
+      <c r="D4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -51378,13 +51561,13 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aomgaomgaomg\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE0F706-EE21-4879-A92F-1761225A2CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE7ACF-6DCE-49D2-B9EA-E9C62C059E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="5550" yWindow="915" windowWidth="18870" windowHeight="12960" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
@@ -212,6 +212,78 @@
             <charset val="129"/>
           </rPr>
           <t>돈의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>양</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{A06B1510-5AE1-438E-A4D9-0B08DB2863D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Home:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>병력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생산</t>
         </r>
         <r>
           <rPr>
@@ -581,7 +653,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5514" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5516" uniqueCount="101">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,78 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엘프 성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드 성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 아처 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 드루이드 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 바드 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 영혼술사 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프 가디언 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 아처 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 전사 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 방패병 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 거너 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 수녀 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드 전사 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드 마녀 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드 리퍼 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드 네크로맨서 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언데드 소울 나이트 건물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buildTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,6 +958,69 @@
     <t>buildTimeRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>unitCreat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 드루이드 양성소</t>
+  </si>
+  <si>
+    <t>엘프 바드 양성소</t>
+  </si>
+  <si>
+    <t>엘프 정령사 양성소</t>
+  </si>
+  <si>
+    <t>엘프 수호자 양성소</t>
+  </si>
+  <si>
+    <t>인간 궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 전사 양성소</t>
+  </si>
+  <si>
+    <t>인간 방패병 양성소</t>
+  </si>
+  <si>
+    <t>인간 거너 양성소</t>
+  </si>
+  <si>
+    <t>인간 수녀 양성소</t>
+  </si>
+  <si>
+    <t>언데드 전사 양성소</t>
+  </si>
+  <si>
+    <t>언데드 주술사 양성소</t>
+  </si>
+  <si>
+    <t>언데드 리퍼 양성소</t>
+  </si>
+  <si>
+    <t>언데드 네크로멘서 양성소</t>
+  </si>
+  <si>
+    <t>언데드 소울나이트 양성소</t>
+  </si>
+  <si>
+    <t>세계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카타콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프 궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -966,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1072,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1150,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,13 +1291,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,17 +1623,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="6" bestFit="1" customWidth="1"/>
@@ -1561,7 +1641,7 @@
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
@@ -1577,8 +1657,8 @@
       <c r="E1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>98</v>
+      <c r="F1" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -1586,11 +1666,14 @@
       <c r="H1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
@@ -1606,7 +1689,7 @@
       <c r="E2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -1615,11 +1698,14 @@
       <c r="H2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1630,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -1648,8 +1734,11 @@
       <c r="I3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1660,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -1678,8 +1767,11 @@
       <c r="I4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201</v>
       </c>
@@ -1690,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -1708,8 +1800,11 @@
       <c r="I5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>301</v>
       </c>
@@ -1719,8 +1814,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>82</v>
+      <c r="D6" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -1737,8 +1832,11 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>401</v>
       </c>
@@ -1748,7 +1846,7 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1766,8 +1864,11 @@
       <c r="I7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>501</v>
       </c>
@@ -1777,7 +1878,7 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1795,8 +1896,11 @@
       <c r="I8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>601</v>
       </c>
@@ -1806,7 +1910,7 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1824,8 +1928,11 @@
       <c r="I9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>701</v>
       </c>
@@ -1835,7 +1942,7 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1853,8 +1960,11 @@
       <c r="I10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>801</v>
       </c>
@@ -1864,7 +1974,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1882,8 +1992,11 @@
       <c r="I11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>901</v>
       </c>
@@ -1893,7 +2006,7 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1911,8 +2024,11 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -1922,7 +2038,7 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1940,8 +2056,11 @@
       <c r="I13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1101</v>
       </c>
@@ -1951,7 +2070,7 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1969,8 +2088,11 @@
       <c r="I14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1201</v>
       </c>
@@ -1980,7 +2102,7 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1998,8 +2120,11 @@
       <c r="I15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1301</v>
       </c>
@@ -2009,7 +2134,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2027,8 +2152,11 @@
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1401</v>
       </c>
@@ -2038,7 +2166,7 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="28" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -2056,8 +2184,11 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1501</v>
       </c>
@@ -2067,7 +2198,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -2085,8 +2216,11 @@
       <c r="I18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1601</v>
       </c>
@@ -2096,7 +2230,7 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2114,8 +2248,11 @@
       <c r="I19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1701</v>
       </c>
@@ -2125,7 +2262,7 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2142,6 +2279,9 @@
       </c>
       <c r="I20">
         <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2353,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2234,7 +2374,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
         <v>1.1000000000000001</v>
@@ -2296,6 +2436,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2304,7 +2445,7 @@
   <dimension ref="A1:M1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1769" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H725" sqref="H725:H734"/>
     </sheetView>
   </sheetViews>
@@ -51561,13 +51702,13 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/BuildingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE7ACF-6DCE-49D2-B9EA-E9C62C059E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3851041-682C-41B2-9640-CACB4CCED53D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="915" windowWidth="18870" windowHeight="12960" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{010B561B-97AF-45BE-BF4F-8A89D00FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingInfo" sheetId="4" r:id="rId1"/>
@@ -28,10 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -124,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{C146E8FE-EFF3-4D01-81C9-5767F8100D8A}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{C146E8FE-EFF3-4D01-81C9-5767F8100D8A}">
       <text>
         <r>
           <rPr>
@@ -234,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{A06B1510-5AE1-438E-A4D9-0B08DB2863D2}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{A06B1510-5AE1-438E-A4D9-0B08DB2863D2}">
       <text>
         <r>
           <rPr>
@@ -653,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5516" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5518" uniqueCount="103">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unitCreat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엘프 드루이드 양성소</t>
   </si>
   <si>
@@ -1019,6 +1011,18 @@
   </si>
   <si>
     <t>엘프 궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitCreate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,16 +1301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1623,11 +1624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B861-7C96-4052-8CDB-01C8F88AE87F}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1636,12 +1637,14 @@
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
@@ -1651,7 +1654,7 @@
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -1660,20 +1663,23 @@
       <c r="F1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1689,7 @@
       <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="26" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1692,20 +1698,23 @@
       <c r="F2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -1724,21 +1733,24 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -1757,21 +1769,24 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>201</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -1790,21 +1805,24 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <f>'#db'!E2*'#db'!$F$2</f>
         <v>320</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>301</v>
       </c>
@@ -1814,8 +1832,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>100</v>
+      <c r="D6" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -1823,20 +1841,23 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
         <v>900</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>4500</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>401</v>
       </c>
@@ -1846,8 +1867,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>83</v>
+      <c r="D7" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>47</v>
@@ -1855,20 +1876,23 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
         <v>13500</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>67500</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>501</v>
       </c>
@@ -1878,8 +1902,8 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>84</v>
+      <c r="D8" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>48</v>
@@ -1887,20 +1911,23 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
         <v>202500</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>1012500</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>601</v>
       </c>
@@ -1910,8 +1937,8 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>85</v>
+      <c r="D9" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>49</v>
@@ -1919,20 +1946,23 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
         <v>3073500</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>15187500</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>701</v>
       </c>
@@ -1942,8 +1972,8 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>86</v>
+      <c r="D10" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>50</v>
@@ -1951,20 +1981,23 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
         <v>45562500</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>30000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>801</v>
       </c>
@@ -1974,8 +2007,8 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>87</v>
+      <c r="D11" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>51</v>
@@ -1983,20 +2016,23 @@
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6">
         <v>900</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>4500</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>901</v>
       </c>
@@ -2006,8 +2042,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>88</v>
+      <c r="D12" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>52</v>
@@ -2015,20 +2051,23 @@
       <c r="F12">
         <v>7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
         <v>13500</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>67500</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2038,8 +2077,8 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>89</v>
+      <c r="D13" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>53</v>
@@ -2047,20 +2086,23 @@
       <c r="F13">
         <v>8</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6">
         <v>202500</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <v>1012500</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1101</v>
       </c>
@@ -2070,8 +2112,8 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>90</v>
+      <c r="D14" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>54</v>
@@ -2079,20 +2121,23 @@
       <c r="F14">
         <v>9</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
         <v>3073500</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>15187500</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1201</v>
       </c>
@@ -2102,8 +2147,8 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>91</v>
+      <c r="D15" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>55</v>
@@ -2111,20 +2156,23 @@
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
         <v>45562500</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>30000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1301</v>
       </c>
@@ -2134,8 +2182,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>92</v>
+      <c r="D16" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>56</v>
@@ -2143,20 +2191,23 @@
       <c r="F16">
         <v>11</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
         <v>900</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>4500</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1401</v>
       </c>
@@ -2166,8 +2217,8 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>93</v>
+      <c r="D17" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>57</v>
@@ -2175,20 +2226,23 @@
       <c r="F17">
         <v>12</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6">
         <v>13500</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <v>67500</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1501</v>
       </c>
@@ -2198,8 +2252,8 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>94</v>
+      <c r="D18" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>58</v>
@@ -2207,20 +2261,23 @@
       <c r="F18">
         <v>13</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6">
         <v>202500</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>1012500</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1601</v>
       </c>
@@ -2230,8 +2287,8 @@
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>95</v>
+      <c r="D19" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>59</v>
@@ -2239,20 +2296,23 @@
       <c r="F19">
         <v>14</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6">
         <v>3073500</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>15187500</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1701</v>
       </c>
@@ -2262,8 +2322,8 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>96</v>
+      <c r="D20" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>60</v>
@@ -2271,16 +2331,19 @@
       <c r="F20">
         <v>15</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
         <v>45562500</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <v>30000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1</v>
       </c>
     </row>
@@ -2353,7 +2416,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
